--- a/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -10,14 +10,14 @@
     <sheet name="Daily Requisition" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$4:$E$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$4:$E$136</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="172">
   <si>
     <t>Model Name</t>
   </si>
@@ -529,7 +529,10 @@
     <t xml:space="preserve"> Black, Gold, Dark_Blue </t>
   </si>
   <si>
-    <t>30.04.19</t>
+    <t>05.05.19</t>
+  </si>
+  <si>
+    <t>R40</t>
   </si>
 </sst>
 </file>
@@ -1186,13 +1189,13 @@
   <sheetPr filterMode="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D140" sqref="D140"/>
+      <selection pane="bottomRight" activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1265,11 +1268,11 @@
         <v>779.95</v>
       </c>
       <c r="C5" s="11">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D5" s="13">
         <f>C5*B5</f>
-        <v>15599</v>
+        <v>35097.75</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>87</v>
@@ -1284,7 +1287,7 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="13">
-        <f t="shared" ref="D6:D95" si="0">C6*B6</f>
+        <f t="shared" ref="D6:D96" si="0">C6*B6</f>
         <v>0</v>
       </c>
       <c r="E6" s="11"/>
@@ -1305,20 +1308,22 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" hidden="1">
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="11" t="s">
         <v>156</v>
       </c>
       <c r="B8" s="12">
         <v>769.92</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="11">
+        <v>40</v>
+      </c>
       <c r="D8" s="13">
         <f>B8*C8</f>
-        <v>0</v>
+        <v>30796.799999999999</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" hidden="1">
@@ -1353,37 +1358,33 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15">
+    <row r="11" spans="1:5" ht="15" hidden="1">
       <c r="A11" s="11" t="s">
         <v>121</v>
       </c>
       <c r="B11" s="12">
         <v>858.14</v>
       </c>
-      <c r="C11" s="11">
-        <v>40</v>
-      </c>
+      <c r="C11" s="11"/>
       <c r="D11" s="13">
         <f t="shared" si="0"/>
-        <v>34325.599999999999</v>
+        <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15">
+    <row r="12" spans="1:5" ht="15" hidden="1">
       <c r="A12" s="11" t="s">
         <v>101</v>
       </c>
       <c r="B12" s="12">
         <v>946.36</v>
       </c>
-      <c r="C12" s="11">
-        <v>30</v>
-      </c>
+      <c r="C12" s="11"/>
       <c r="D12" s="13">
         <f t="shared" si="0"/>
-        <v>28390.799999999999</v>
+        <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>153</v>
@@ -1479,17 +1480,19 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" hidden="1">
+    <row r="19" spans="1:5" ht="15">
       <c r="A19" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="12">
         <v>975.4325</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="11">
+        <v>20</v>
+      </c>
       <c r="D19" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19508.650000000001</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>149</v>
@@ -1629,19 +1632,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="29" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A29" s="14" t="s">
         <v>167</v>
       </c>
       <c r="B29" s="15">
         <v>5607.99</v>
       </c>
-      <c r="C29" s="11">
-        <v>10</v>
-      </c>
+      <c r="C29" s="11"/>
       <c r="D29" s="16">
         <f t="shared" si="0"/>
-        <v>56079.899999999994</v>
+        <v>0</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>87</v>
@@ -2209,35 +2210,35 @@
       </c>
       <c r="E66" s="11"/>
     </row>
-    <row r="67" spans="1:5" ht="15" hidden="1">
+    <row r="67" spans="1:5" ht="15">
       <c r="A67" s="11" t="s">
         <v>165</v>
       </c>
       <c r="B67" s="12">
         <v>1072.675</v>
       </c>
-      <c r="C67" s="11"/>
+      <c r="C67" s="11">
+        <v>38</v>
+      </c>
       <c r="D67" s="13">
         <f>C67*B67</f>
-        <v>0</v>
+        <v>40761.65</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" hidden="1">
       <c r="A68" s="11" t="s">
         <v>158</v>
       </c>
       <c r="B68" s="12">
         <v>1024.56</v>
       </c>
-      <c r="C68" s="11">
-        <v>80</v>
-      </c>
+      <c r="C68" s="11"/>
       <c r="D68" s="13">
         <f>B68*C68</f>
-        <v>81964.799999999988</v>
+        <v>0</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>87</v>
@@ -2391,19 +2392,17 @@
       </c>
       <c r="E78" s="11"/>
     </row>
-    <row r="79" spans="1:5" ht="15">
+    <row r="79" spans="1:5" ht="15" hidden="1">
       <c r="A79" s="11" t="s">
         <v>161</v>
       </c>
       <c r="B79" s="12">
         <v>1189.9675</v>
       </c>
-      <c r="C79" s="11">
-        <v>20</v>
-      </c>
+      <c r="C79" s="11"/>
       <c r="D79" s="13">
         <f>C79*B79</f>
-        <v>23799.35</v>
+        <v>0</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>153</v>
@@ -2563,26 +2562,28 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15" hidden="1">
+    <row r="90" spans="1:5" ht="15">
       <c r="A90" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B90" s="12">
-        <v>17443.5</v>
-      </c>
-      <c r="C90" s="11"/>
+        <v>171</v>
+      </c>
+      <c r="B90" s="12"/>
+      <c r="C90" s="11">
+        <v>5</v>
+      </c>
       <c r="D90" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E90" s="11"/>
+        <f>C90*B90</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="91" spans="1:5" ht="15" hidden="1">
       <c r="A91" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B91" s="12">
-        <v>13914.7</v>
+        <v>17443.5</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="13">
@@ -2593,128 +2594,128 @@
     </row>
     <row r="92" spans="1:5" ht="15" hidden="1">
       <c r="A92" s="11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B92" s="12">
-        <v>12501.18</v>
+        <v>13914.7</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="13">
-        <f t="shared" ref="D92" si="1">C92*B92</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E92" s="11"/>
     </row>
     <row r="93" spans="1:5" ht="15" hidden="1">
       <c r="A93" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B93" s="12">
-        <v>23704.11</v>
+        <v>12501.18</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="13">
-        <f t="shared" ref="D93" si="2">C93*B93</f>
+        <f t="shared" ref="D93" si="1">C93*B93</f>
         <v>0</v>
       </c>
       <c r="E93" s="11"/>
     </row>
     <row r="94" spans="1:5" ht="15" hidden="1">
       <c r="A94" s="11" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="B94" s="12">
-        <v>1371.42</v>
+        <v>23704.11</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>82</v>
-      </c>
+        <f t="shared" ref="D94" si="2">C94*B94</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="11"/>
     </row>
     <row r="95" spans="1:5" ht="15" hidden="1">
       <c r="A95" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B95" s="12">
-        <v>1410.5174999999999</v>
+        <v>1371.42</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E95" s="11"/>
+      <c r="E95" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="96" spans="1:5" ht="15" hidden="1">
       <c r="A96" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B96" s="12">
-        <v>1694.2249999999999</v>
+        <v>1410.5174999999999</v>
       </c>
       <c r="C96" s="11"/>
       <c r="D96" s="13">
-        <f t="shared" ref="D96:D134" si="3">C96*B96</f>
-        <v>0</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>82</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="11"/>
     </row>
     <row r="97" spans="1:5" ht="15" hidden="1">
       <c r="A97" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B97" s="17">
-        <v>1219.04</v>
+        <v>48</v>
+      </c>
+      <c r="B97" s="12">
+        <v>1694.2249999999999</v>
       </c>
       <c r="C97" s="11"/>
       <c r="D97" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E97" s="11"/>
+        <f t="shared" ref="D97:D135" si="3">C97*B97</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="98" spans="1:5" ht="15" hidden="1">
       <c r="A98" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B98" s="18">
-        <v>1336.33</v>
+        <v>123</v>
+      </c>
+      <c r="B98" s="17">
+        <v>1219.04</v>
       </c>
       <c r="C98" s="11"/>
       <c r="D98" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E98" s="11" t="s">
-        <v>87</v>
-      </c>
+      <c r="E98" s="11"/>
     </row>
     <row r="99" spans="1:5" ht="15" hidden="1">
       <c r="A99" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B99" s="12">
-        <v>1871.6675</v>
+        <v>128</v>
+      </c>
+      <c r="B99" s="18">
+        <v>1336.33</v>
       </c>
       <c r="C99" s="11"/>
       <c r="D99" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E99" s="11"/>
+      <c r="E99" s="11" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="100" spans="1:5" ht="15" hidden="1">
       <c r="A100" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B100" s="12">
-        <v>1854.625</v>
+        <v>1871.6675</v>
       </c>
       <c r="C100" s="11"/>
       <c r="D100" s="13">
@@ -2725,10 +2726,10 @@
     </row>
     <row r="101" spans="1:5" ht="15" hidden="1">
       <c r="A101" s="11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B101" s="12">
-        <v>1446.6075000000001</v>
+        <v>1854.625</v>
       </c>
       <c r="C101" s="11"/>
       <c r="D101" s="13">
@@ -2739,26 +2740,24 @@
     </row>
     <row r="102" spans="1:5" ht="15" hidden="1">
       <c r="A102" s="11" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="B102" s="12">
-        <v>7586.92</v>
+        <v>1446.6075000000001</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E102" s="11" t="s">
-        <v>87</v>
-      </c>
+      <c r="E102" s="11"/>
     </row>
     <row r="103" spans="1:5" ht="15" hidden="1">
       <c r="A103" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B103" s="12">
-        <v>8641.5499999999993</v>
+        <v>7586.92</v>
       </c>
       <c r="C103" s="11"/>
       <c r="D103" s="13">
@@ -2771,10 +2770,10 @@
     </row>
     <row r="104" spans="1:5" ht="15" hidden="1">
       <c r="A104" s="11" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B104" s="12">
-        <v>5183.9274999999998</v>
+        <v>8641.5499999999993</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="13">
@@ -2782,15 +2781,15 @@
         <v>0</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" hidden="1">
       <c r="A105" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B105" s="12">
-        <v>5455.6049999999996</v>
+        <v>5183.9274999999998</v>
       </c>
       <c r="C105" s="11"/>
       <c r="D105" s="13">
@@ -2803,10 +2802,10 @@
     </row>
     <row r="106" spans="1:5" ht="15" hidden="1">
       <c r="A106" s="11" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B106" s="12">
-        <v>5510.74</v>
+        <v>5455.6049999999996</v>
       </c>
       <c r="C106" s="11"/>
       <c r="D106" s="13">
@@ -2819,10 +2818,10 @@
     </row>
     <row r="107" spans="1:5" ht="15" hidden="1">
       <c r="A107" s="11" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B107" s="12">
-        <v>4896.21</v>
+        <v>5510.74</v>
       </c>
       <c r="C107" s="11"/>
       <c r="D107" s="13">
@@ -2833,28 +2832,30 @@
         <v>82</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15" hidden="1">
+    <row r="108" spans="1:5" ht="15">
       <c r="A108" s="11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B108" s="12">
-        <v>5150.8500000000004</v>
-      </c>
-      <c r="C108" s="11"/>
+        <v>4896.21</v>
+      </c>
+      <c r="C108" s="11">
+        <v>2</v>
+      </c>
       <c r="D108" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9792.42</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15" hidden="1">
       <c r="A109" s="11" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="B109" s="12">
-        <v>5310.24</v>
+        <v>5150.8500000000004</v>
       </c>
       <c r="C109" s="11"/>
       <c r="D109" s="13">
@@ -2862,15 +2863,15 @@
         <v>0</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" hidden="1">
       <c r="A110" s="11" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B110" s="12">
-        <v>5423.53</v>
+        <v>5310.24</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="13">
@@ -2878,65 +2879,63 @@
         <v>0</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" hidden="1">
       <c r="A111" s="11" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B111" s="12">
-        <v>5940.82</v>
+        <v>5423.53</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="13">
-        <f t="shared" ref="D111" si="4">C111*B111</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E111" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15">
+    <row r="112" spans="1:5" ht="15" hidden="1">
       <c r="A112" s="11" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B112" s="12">
-        <v>5257.11</v>
-      </c>
-      <c r="C112" s="11">
-        <v>2</v>
-      </c>
+        <v>5940.82</v>
+      </c>
+      <c r="C112" s="11"/>
       <c r="D112" s="13">
-        <f>C112*B112</f>
-        <v>10514.22</v>
+        <f t="shared" ref="D112" si="4">C112*B112</f>
+        <v>0</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15" hidden="1">
       <c r="A113" s="11" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="B113" s="12">
-        <v>2900.2325000000001</v>
+        <v>5257.11</v>
       </c>
       <c r="C113" s="11"/>
       <c r="D113" s="13">
-        <f t="shared" si="3"/>
+        <f>C113*B113</f>
         <v>0</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15" hidden="1">
       <c r="A114" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B114" s="12">
-        <v>3143.84</v>
+        <v>2900.2325000000001</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="13">
@@ -2944,45 +2943,45 @@
         <v>0</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15" hidden="1">
       <c r="A115" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B115" s="12">
-        <v>3518.7750000000001</v>
+        <v>3143.84</v>
       </c>
       <c r="C115" s="11"/>
       <c r="D115" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E115" s="11"/>
+      <c r="E115" s="11" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="116" spans="1:5" ht="15" hidden="1">
       <c r="A116" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B116" s="12">
-        <v>3556.87</v>
+        <v>3518.7750000000001</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E116" s="11" t="s">
-        <v>85</v>
-      </c>
+      <c r="E116" s="11"/>
     </row>
     <row r="117" spans="1:5" ht="15" hidden="1">
       <c r="A117" s="11" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="B117" s="12">
-        <v>3471.66</v>
+        <v>3556.87</v>
       </c>
       <c r="C117" s="11"/>
       <c r="D117" s="13">
@@ -2990,15 +2989,15 @@
         <v>0</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" hidden="1">
       <c r="A118" s="11" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="B118" s="12">
-        <v>3919.7750000000001</v>
+        <v>3471.66</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="13">
@@ -3006,15 +3005,15 @@
         <v>0</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" hidden="1">
       <c r="A119" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B119" s="12">
-        <v>4534.3074999999999</v>
+        <v>3919.7750000000001</v>
       </c>
       <c r="C119" s="11"/>
       <c r="D119" s="13">
@@ -3027,10 +3026,10 @@
     </row>
     <row r="120" spans="1:5" ht="15" hidden="1">
       <c r="A120" s="11" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="B120" s="12">
-        <v>3433.56</v>
+        <v>4534.3074999999999</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="13">
@@ -3038,45 +3037,45 @@
         <v>0</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" hidden="1">
       <c r="A121" s="11" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="B121" s="12">
-        <v>4476.1625000000004</v>
+        <v>3433.56</v>
       </c>
       <c r="C121" s="11"/>
       <c r="D121" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E121" s="11"/>
+      <c r="E121" s="11" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="122" spans="1:5" ht="15" hidden="1">
       <c r="A122" s="11" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="B122" s="12">
-        <v>4575.41</v>
+        <v>4476.1625000000004</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E122" s="11" t="s">
-        <v>157</v>
-      </c>
+      <c r="E122" s="11"/>
     </row>
     <row r="123" spans="1:5" ht="15" hidden="1">
       <c r="A123" s="11" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="B123" s="12">
-        <v>5269.14</v>
+        <v>4575.41</v>
       </c>
       <c r="C123" s="11"/>
       <c r="D123" s="13">
@@ -3084,15 +3083,15 @@
         <v>0</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" hidden="1">
       <c r="A124" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B124" s="12">
-        <v>5921.7674999999999</v>
+        <v>5269.14</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="13">
@@ -3103,44 +3102,44 @@
         <v>82</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="12" hidden="1" customHeight="1">
+    <row r="125" spans="1:5" ht="15" hidden="1">
       <c r="A125" s="11" t="s">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="B125" s="12">
-        <v>1170.92</v>
+        <v>5921.7674999999999</v>
       </c>
       <c r="C125" s="11"/>
       <c r="D125" s="13">
-        <f>C125*B125</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="15" hidden="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="12" hidden="1" customHeight="1">
       <c r="A126" s="11" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="B126" s="12">
-        <v>3934.8125</v>
+        <v>1170.92</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="13">
-        <f t="shared" si="3"/>
+        <f>C126*B126</f>
         <v>0</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" hidden="1">
       <c r="A127" s="11" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B127" s="12">
-        <v>4027.0425</v>
+        <v>3934.8125</v>
       </c>
       <c r="C127" s="11"/>
       <c r="D127" s="13">
@@ -3148,15 +3147,15 @@
         <v>0</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" hidden="1">
       <c r="A128" s="11" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B128" s="12">
-        <v>3892.71</v>
+        <v>4027.0425</v>
       </c>
       <c r="C128" s="11"/>
       <c r="D128" s="13">
@@ -3164,15 +3163,15 @@
         <v>0</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15" hidden="1">
       <c r="A129" s="11" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="B129" s="12">
-        <v>4507.24</v>
+        <v>3892.71</v>
       </c>
       <c r="C129" s="11"/>
       <c r="D129" s="13">
@@ -3180,15 +3179,15 @@
         <v>0</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15" hidden="1">
       <c r="A130" s="11" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="B130" s="12">
-        <v>4409</v>
+        <v>4507.24</v>
       </c>
       <c r="C130" s="11"/>
       <c r="D130" s="13">
@@ -3201,10 +3200,10 @@
     </row>
     <row r="131" spans="1:9" ht="15" hidden="1">
       <c r="A131" s="11" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="B131" s="12">
-        <v>4165.3900000000003</v>
+        <v>4409</v>
       </c>
       <c r="C131" s="11"/>
       <c r="D131" s="13">
@@ -3212,15 +3211,15 @@
         <v>0</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15" hidden="1">
       <c r="A132" s="11" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B132" s="12">
-        <v>4252.6099999999997</v>
+        <v>4165.3900000000003</v>
       </c>
       <c r="C132" s="11"/>
       <c r="D132" s="13">
@@ -3228,98 +3227,103 @@
         <v>0</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15" hidden="1">
       <c r="A133" s="11" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="B133" s="12">
-        <v>12741.775</v>
+        <v>4252.6099999999997</v>
       </c>
       <c r="C133" s="11"/>
       <c r="D133" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E133" s="11"/>
+      <c r="E133" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="134" spans="1:9" ht="15" hidden="1">
       <c r="A134" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B134" s="12">
-        <v>12310.7</v>
+        <v>12741.775</v>
       </c>
       <c r="C134" s="11"/>
       <c r="D134" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E134" s="11" t="s">
+      <c r="E134" s="11"/>
+    </row>
+    <row r="135" spans="1:9" ht="15" hidden="1">
+      <c r="A135" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B135" s="12">
+        <v>12310.7</v>
+      </c>
+      <c r="C135" s="11"/>
+      <c r="D135" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E135" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="2" customFormat="1" ht="15">
-      <c r="A135" s="41" t="s">
+    <row r="136" spans="1:9" s="2" customFormat="1" ht="15">
+      <c r="A136" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B135" s="41"/>
-      <c r="C135" s="19">
-        <f>SUM(C5:C134)</f>
-        <v>202</v>
-      </c>
-      <c r="D135" s="20">
-        <f>SUM(D5:D134)</f>
-        <v>250673.66999999998</v>
-      </c>
-      <c r="E135" s="19"/>
-    </row>
-    <row r="136" spans="1:9" ht="9.75" customHeight="1">
-      <c r="A136" s="3"/>
-    </row>
-    <row r="137" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A137" s="21"/>
-      <c r="B137" s="42" t="s">
+      <c r="B136" s="41"/>
+      <c r="C136" s="19">
+        <f>SUM(C5:C135)</f>
+        <v>150</v>
+      </c>
+      <c r="D136" s="20">
+        <f>SUM(D5:D135)</f>
+        <v>135957.27000000002</v>
+      </c>
+      <c r="E136" s="19"/>
+    </row>
+    <row r="137" spans="1:9" ht="9.75" customHeight="1">
+      <c r="A137" s="3"/>
+    </row>
+    <row r="138" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A138" s="21"/>
+      <c r="B138" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C137" s="42"/>
-      <c r="D137" s="42"/>
-      <c r="E137" s="22"/>
-    </row>
-    <row r="138" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A138" s="23"/>
-      <c r="B138" s="24" t="s">
+      <c r="C138" s="42"/>
+      <c r="D138" s="42"/>
+      <c r="E138" s="22"/>
+    </row>
+    <row r="139" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A139" s="23"/>
+      <c r="B139" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C138" s="24" t="s">
+      <c r="C139" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D138" s="24" t="s">
+      <c r="D139" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E138" s="22"/>
-      <c r="I138" s="25"/>
-    </row>
-    <row r="139" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A139" s="26"/>
-      <c r="B139" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C139" s="27">
-        <v>0</v>
-      </c>
-      <c r="D139" s="11"/>
       <c r="E139" s="22"/>
+      <c r="I139" s="25"/>
     </row>
     <row r="140" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A140" s="26"/>
       <c r="B140" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C140" s="32">
-        <v>185000</v>
+        <v>73</v>
+      </c>
+      <c r="C140" s="27">
+        <v>0</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="22"/>
@@ -3329,8 +3333,8 @@
       <c r="B141" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C141" s="27">
-        <v>0</v>
+      <c r="C141" s="32">
+        <v>290000</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="22"/>
@@ -3338,27 +3342,27 @@
     <row r="142" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A142" s="26"/>
       <c r="B142" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C142" s="27"/>
+        <v>74</v>
+      </c>
+      <c r="C142" s="27">
+        <v>0</v>
+      </c>
       <c r="D142" s="11"/>
       <c r="E142" s="22"/>
     </row>
     <row r="143" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A143" s="26"/>
       <c r="B143" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C143" s="27">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C143" s="27"/>
       <c r="D143" s="11"/>
       <c r="E143" s="22"/>
     </row>
     <row r="144" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A144" s="26"/>
       <c r="B144" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C144" s="27">
         <v>0</v>
@@ -3367,24 +3371,35 @@
       <c r="E144" s="22"/>
     </row>
     <row r="145" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A145" s="23"/>
-      <c r="B145" s="28" t="s">
+      <c r="A145" s="26"/>
+      <c r="B145" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C145" s="27">
+        <v>0</v>
+      </c>
+      <c r="D145" s="11"/>
+      <c r="E145" s="22"/>
+    </row>
+    <row r="146" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A146" s="23"/>
+      <c r="B146" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C145" s="29">
-        <f>SUM(C139:C144)</f>
-        <v>185000</v>
-      </c>
-      <c r="D145" s="30"/>
-      <c r="E145" s="22"/>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="3"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
+      <c r="C146" s="29">
+        <f>SUM(C140:C145)</f>
+        <v>290000</v>
+      </c>
+      <c r="D146" s="30"/>
+      <c r="E146" s="22"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="3"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:E135">
+  <autoFilter ref="A4:E136">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3394,8 +3409,8 @@
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="B138:D138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="172">
   <si>
     <t>Model Name</t>
   </si>
@@ -112,9 +112,6 @@
     <t>L55</t>
   </si>
   <si>
-    <t>L65</t>
-  </si>
-  <si>
     <t>L100</t>
   </si>
   <si>
@@ -325,9 +322,6 @@
     <t>BL110</t>
   </si>
   <si>
-    <t>D52j</t>
-  </si>
-  <si>
     <t>D69</t>
   </si>
   <si>
@@ -529,10 +523,16 @@
     <t xml:space="preserve"> Black, Gold, Dark_Blue </t>
   </si>
   <si>
-    <t>05.05.19</t>
-  </si>
-  <si>
     <t>R40</t>
+  </si>
+  <si>
+    <t>07.05.19</t>
+  </si>
+  <si>
+    <t>V128</t>
+  </si>
+  <si>
+    <t>L65J</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1195,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H141" sqref="H141"/>
+      <selection pane="bottomRight" activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1210,7 +1210,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A1" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A2" s="38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -1228,19 +1228,19 @@
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A3" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1248,34 +1248,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
       <c r="A5" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="12">
         <v>779.95</v>
       </c>
       <c r="C5" s="11">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D5" s="13">
         <f>C5*B5</f>
-        <v>35097.75</v>
+        <v>31198</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" hidden="1">
@@ -1287,14 +1287,14 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="13">
-        <f t="shared" ref="D6:D96" si="0">C6*B6</f>
+        <f t="shared" ref="D6:D95" si="0">C6*B6</f>
         <v>0</v>
       </c>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" ht="15" hidden="1">
       <c r="A7" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7" s="12">
         <v>789.97</v>
@@ -1305,78 +1305,84 @@
         <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
       <c r="A8" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B8" s="12">
         <v>769.92</v>
       </c>
       <c r="C8" s="11">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D8" s="13">
         <f>B8*C8</f>
-        <v>30796.799999999999</v>
+        <v>19248</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" hidden="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B9" s="12">
         <v>896.23500000000001</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="11">
+        <v>40</v>
+      </c>
       <c r="D9" s="13">
         <f>C9*B9</f>
-        <v>0</v>
+        <v>35849.4</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" hidden="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
       <c r="A10" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" s="12">
         <v>901.24749999999995</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="11">
+        <v>20</v>
+      </c>
       <c r="D10" s="13">
         <f>B10*C10</f>
-        <v>0</v>
+        <v>18024.949999999997</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" hidden="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B11" s="12">
         <v>858.14</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="11">
+        <v>30</v>
+      </c>
       <c r="D11" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25744.2</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" hidden="1">
       <c r="A12" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="12">
         <v>946.36</v>
@@ -1387,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" hidden="1">
@@ -1404,25 +1410,27 @@
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="14" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A14" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B14" s="15">
         <v>1258.1375</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="11">
+        <v>40</v>
+      </c>
       <c r="D14" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50325.5</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" hidden="1">
       <c r="A15" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="12">
         <v>887.21</v>
@@ -1434,20 +1442,22 @@
       </c>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5" ht="15" hidden="1">
+    <row r="16" spans="1:5" ht="15">
       <c r="A16" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="12">
         <v>868.17</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="11">
+        <v>20</v>
+      </c>
       <c r="D16" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17363.399999999998</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" hidden="1">
@@ -1466,7 +1476,7 @@
     </row>
     <row r="18" spans="1:5" ht="15" hidden="1">
       <c r="A18" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B18" s="12">
         <v>1238.0875000000001</v>
@@ -1477,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15">
@@ -1495,12 +1505,12 @@
         <v>19508.650000000001</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A20" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" s="15">
         <v>985.46</v>
@@ -1539,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" hidden="1">
@@ -1555,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" hidden="1">
@@ -1572,20 +1582,22 @@
       </c>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A25" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="15">
         <v>980.44500000000005</v>
       </c>
-      <c r="C25" s="11"/>
+      <c r="C25" s="11">
+        <v>30</v>
+      </c>
       <c r="D25" s="16">
         <f>C25*B25</f>
-        <v>0</v>
+        <v>29413.350000000002</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" hidden="1">
@@ -1602,26 +1614,28 @@
       </c>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" ht="15" hidden="1">
-      <c r="A27" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="12">
-        <v>1258.1400000000001</v>
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A27" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="15">
+        <v>975.43</v>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="11"/>
+      <c r="D27" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A28" s="14" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="B28" s="15">
-        <v>975.43</v>
+        <v>5607.99</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="16">
@@ -1629,31 +1643,29 @@
         <v>0</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
-      <c r="A29" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" s="15">
-        <v>5607.99</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" hidden="1">
+      <c r="A29" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="12">
+        <v>955.38</v>
       </c>
       <c r="C29" s="11"/>
-      <c r="D29" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>87</v>
-      </c>
+      <c r="D29" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" ht="15" hidden="1">
       <c r="A30" s="11" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B30" s="12">
-        <v>955.38</v>
+        <v>1014.53</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="13">
@@ -1664,10 +1676,10 @@
     </row>
     <row r="31" spans="1:5" ht="15" hidden="1">
       <c r="A31" s="11" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="B31" s="12">
-        <v>1014.53</v>
+        <v>1145.8575000000001</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="13">
@@ -1676,58 +1688,58 @@
       </c>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" ht="15" hidden="1">
-      <c r="A32" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="12">
-        <v>1145.8575000000001</v>
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A32" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="15">
+        <v>1159.8900000000001</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
-      <c r="A33" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="15">
-        <v>1159.8900000000001</v>
+      <c r="D32" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" hidden="1">
+      <c r="A33" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="12">
+        <v>1264.1524999999999</v>
       </c>
       <c r="C33" s="11"/>
-      <c r="D33" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>87</v>
+      <c r="D33" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" hidden="1">
       <c r="A34" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B34" s="12">
-        <v>1264.1524999999999</v>
+        <v>1165.9075</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>118</v>
-      </c>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" ht="15" hidden="1">
       <c r="A35" s="11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B35" s="12">
-        <v>1165.9075</v>
+        <v>2309.7600000000002</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="13">
@@ -1738,10 +1750,10 @@
     </row>
     <row r="36" spans="1:5" ht="15" hidden="1">
       <c r="A36" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36" s="12">
-        <v>2309.7600000000002</v>
+        <v>2556.375</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="13">
@@ -1752,10 +1764,10 @@
     </row>
     <row r="37" spans="1:5" ht="15" hidden="1">
       <c r="A37" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B37" s="12">
-        <v>2556.375</v>
+        <v>2731.8125</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="13">
@@ -1766,10 +1778,10 @@
     </row>
     <row r="38" spans="1:5" ht="15" hidden="1">
       <c r="A38" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38" s="12">
-        <v>2731.8125</v>
+        <v>2812.0124999999998</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="13">
@@ -1780,88 +1792,94 @@
     </row>
     <row r="39" spans="1:5" ht="15" hidden="1">
       <c r="A39" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B39" s="12">
-        <v>2812.0124999999998</v>
+        <v>2714.77</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="11"/>
+      <c r="E39" s="11" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="15" hidden="1">
       <c r="A40" s="11" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="B40" s="12">
-        <v>2714.77</v>
+        <v>2788.96</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>82</v>
+      <c r="E40" s="14" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" hidden="1">
       <c r="A41" s="11" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="B41" s="12">
-        <v>2788.96</v>
+        <v>6416</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" hidden="1">
+      <c r="E41" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15">
       <c r="A42" s="11" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="B42" s="12">
-        <v>6416</v>
-      </c>
-      <c r="C42" s="11"/>
+        <v>6397.96</v>
+      </c>
+      <c r="C42" s="11">
+        <v>3</v>
+      </c>
       <c r="D42" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19193.88</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" hidden="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15">
       <c r="A43" s="11" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B43" s="12">
-        <v>6397.96</v>
-      </c>
-      <c r="C43" s="11"/>
+        <v>5158.87</v>
+      </c>
+      <c r="C43" s="11">
+        <v>15</v>
+      </c>
       <c r="D43" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77383.05</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" hidden="1">
       <c r="A44" s="11" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="B44" s="12">
-        <v>6057.11</v>
+        <v>5819.5124999999998</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="13">
@@ -1869,45 +1887,45 @@
         <v>0</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" hidden="1">
       <c r="A45" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B45" s="12">
-        <v>5819.5124999999998</v>
+        <v>6877.15</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E45" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" ht="15" hidden="1">
       <c r="A46" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B46" s="12">
-        <v>6877.15</v>
+        <v>6937.3</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="11"/>
+      <c r="E46" s="11" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="15" hidden="1">
       <c r="A47" s="11" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B47" s="12">
-        <v>6937.3</v>
+        <v>7851.58</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="13">
@@ -1915,47 +1933,47 @@
         <v>0</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" hidden="1">
       <c r="A48" s="11" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B48" s="12">
-        <v>7851.58</v>
+        <v>7714.24</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>82</v>
+      <c r="E48" s="14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" hidden="1">
       <c r="A49" s="11" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="B49" s="12">
-        <v>7714.24</v>
+        <v>8225.5125000000007</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E49" s="14" t="s">
-        <v>82</v>
+      <c r="E49" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" hidden="1">
       <c r="A50" s="11" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="B50" s="12">
-        <v>8225.5125000000007</v>
+        <v>7309.23</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="13">
@@ -1963,15 +1981,15 @@
         <v>0</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1">
       <c r="A51" s="11" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="B51" s="12">
-        <v>7309.23</v>
+        <v>8877.14</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="13">
@@ -1979,15 +1997,15 @@
         <v>0</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" hidden="1">
       <c r="A52" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B52" s="12">
-        <v>8877.14</v>
+        <v>8573.3799999999992</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="13">
@@ -1995,15 +2013,15 @@
         <v>0</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" hidden="1">
       <c r="A53" s="11" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B53" s="12">
-        <v>8573.3799999999992</v>
+        <v>8967.36</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="13">
@@ -2011,15 +2029,15 @@
         <v>0</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" hidden="1">
       <c r="A54" s="11" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B54" s="12">
-        <v>8967.36</v>
+        <v>9012.48</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="13">
@@ -2027,61 +2045,59 @@
         <v>0</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" hidden="1">
       <c r="A55" s="11" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="B55" s="12">
-        <v>9012.48</v>
+        <v>1199.9925000000001</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E55" s="11" t="s">
-        <v>141</v>
-      </c>
+      <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:5" ht="15" hidden="1">
       <c r="A56" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" s="12">
-        <v>1199.9925000000001</v>
+        <v>134</v>
+      </c>
+      <c r="B56" s="31">
+        <v>7309.2275</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E56" s="11"/>
+      <c r="E56" s="11" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="15" hidden="1">
       <c r="A57" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B57" s="31">
-        <v>7309.2275</v>
+        <v>92</v>
+      </c>
+      <c r="B57" s="12">
+        <v>1423.55</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E57" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="E57" s="11"/>
     </row>
     <row r="58" spans="1:5" ht="15" hidden="1">
       <c r="A58" s="11" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="B58" s="12">
-        <v>1423.55</v>
+        <v>1435.58</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="13">
@@ -2095,7 +2111,7 @@
         <v>33</v>
       </c>
       <c r="B59" s="12">
-        <v>1435.58</v>
+        <v>1551.87</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="13">
@@ -2109,147 +2125,149 @@
         <v>34</v>
       </c>
       <c r="B60" s="12">
-        <v>1551.87</v>
+        <v>1695.2275</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E60" s="11"/>
+      <c r="E60" s="11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="15" hidden="1">
       <c r="A61" s="11" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B61" s="12">
-        <v>1695.2275</v>
+        <v>1067.6624999999999</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E61" s="11" t="s">
-        <v>87</v>
-      </c>
+      <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" ht="15" hidden="1">
       <c r="A62" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="12">
-        <v>1067.6624999999999</v>
+        <v>162</v>
+      </c>
+      <c r="B62" s="34">
+        <v>1169.9175</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E62" s="11"/>
+        <f>B62*C62</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="15" hidden="1">
       <c r="A63" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B63" s="34">
-        <v>1169.9175</v>
+        <v>135</v>
+      </c>
+      <c r="B63" s="31">
+        <v>5310.2425000000003</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="13">
-        <f>B63*C63</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15" hidden="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15">
       <c r="A64" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B64" s="31">
-        <v>5310.2425000000003</v>
-      </c>
-      <c r="C64" s="11"/>
+        <v>158</v>
+      </c>
+      <c r="B64" s="33">
+        <v>1053.6275000000001</v>
+      </c>
+      <c r="C64" s="11">
+        <v>20</v>
+      </c>
       <c r="D64" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>B64*C64</f>
+        <v>21072.550000000003</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" hidden="1">
       <c r="A65" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B65" s="33">
-        <v>1053.6275000000001</v>
+        <v>25</v>
+      </c>
+      <c r="B65" s="12">
+        <v>1106.76</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="13">
-        <f>B65*C65</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15" hidden="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="11"/>
+    </row>
+    <row r="66" spans="1:5" ht="15">
       <c r="A66" s="11" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="B66" s="12">
-        <v>1106.76</v>
-      </c>
-      <c r="C66" s="11"/>
+        <v>1072.675</v>
+      </c>
+      <c r="C66" s="11">
+        <v>40</v>
+      </c>
       <c r="D66" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E66" s="11"/>
-    </row>
-    <row r="67" spans="1:5" ht="15">
+        <f>C66*B66</f>
+        <v>42907</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" hidden="1">
       <c r="A67" s="11" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B67" s="12">
-        <v>1072.675</v>
-      </c>
-      <c r="C67" s="11">
-        <v>38</v>
-      </c>
+        <v>1024.56</v>
+      </c>
+      <c r="C67" s="11"/>
       <c r="D67" s="13">
-        <f>C67*B67</f>
-        <v>40761.65</v>
+        <f>B67*C67</f>
+        <v>0</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" hidden="1">
       <c r="A68" s="11" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="B68" s="12">
-        <v>1024.56</v>
+        <v>1145.8575000000001</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="13">
-        <f>B68*C68</f>
-        <v>0</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>87</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E68" s="11"/>
     </row>
     <row r="69" spans="1:5" ht="15" hidden="1">
       <c r="A69" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B69" s="12">
-        <v>1145.8575000000001</v>
+        <v>1135.8325</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="13">
@@ -2260,160 +2278,168 @@
     </row>
     <row r="70" spans="1:5" ht="15" hidden="1">
       <c r="A70" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B70" s="12">
-        <v>1135.8325</v>
+        <v>133</v>
+      </c>
+      <c r="B70" s="31">
+        <v>4165.3874999999998</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E70" s="11"/>
+      <c r="E70" s="11" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="15" hidden="1">
       <c r="A71" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B71" s="31">
-        <v>4165.3874999999998</v>
+        <v>28</v>
+      </c>
+      <c r="B71" s="12">
+        <v>1174.93</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E71" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15" hidden="1">
+      <c r="E71" s="11"/>
+    </row>
+    <row r="72" spans="1:5" ht="15">
       <c r="A72" s="11" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="B72" s="12">
-        <v>1174.93</v>
-      </c>
-      <c r="C72" s="11"/>
+        <v>1014.53</v>
+      </c>
+      <c r="C72" s="11">
+        <v>40</v>
+      </c>
       <c r="D72" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="11"/>
+        <f>B72*C72</f>
+        <v>40581.199999999997</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="73" spans="1:5" ht="15" hidden="1">
       <c r="A73" s="11" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="B73" s="12">
-        <v>1014.53</v>
+        <v>1273.175</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="13">
-        <f>B73*C73</f>
-        <v>0</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>89</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="11"/>
     </row>
     <row r="74" spans="1:5" ht="15" hidden="1">
       <c r="A74" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B74" s="12">
-        <v>1273.175</v>
+        <v>1077.6875</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E74" s="11"/>
+      <c r="E74" s="11" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="75" spans="1:5" ht="15" hidden="1">
       <c r="A75" s="11" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="B75" s="12">
-        <v>1077.6875</v>
+        <v>1101.75</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E75" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15" hidden="1">
+      <c r="E75" s="11"/>
+    </row>
+    <row r="76" spans="1:5" ht="15">
       <c r="A76" s="11" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="B76" s="12">
-        <v>1101.75</v>
-      </c>
-      <c r="C76" s="11"/>
+        <v>1072.675</v>
+      </c>
+      <c r="C76" s="11">
+        <v>40</v>
+      </c>
       <c r="D76" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="11"/>
-    </row>
-    <row r="77" spans="1:5" ht="15" hidden="1">
+        <f>C76*B76</f>
+        <v>42907</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15">
       <c r="A77" s="11" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B77" s="12">
-        <v>1072.675</v>
-      </c>
-      <c r="C77" s="11"/>
+        <v>1297.2349999999999</v>
+      </c>
+      <c r="C77" s="11">
+        <v>30</v>
+      </c>
       <c r="D77" s="13">
-        <f>C77*B77</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>38917.049999999996</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" hidden="1">
       <c r="A78" s="11" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="B78" s="12">
-        <v>1303.25</v>
+        <v>1189.9675</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="11"/>
+        <f>C78*B78</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="79" spans="1:5" ht="15" hidden="1">
       <c r="A79" s="11" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="B79" s="12">
-        <v>1189.9675</v>
+        <v>8150.3249999999998</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="13">
-        <f>C79*B79</f>
-        <v>0</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>153</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="11"/>
     </row>
     <row r="80" spans="1:5" ht="15" hidden="1">
       <c r="A80" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B80" s="12">
-        <v>8150.3249999999998</v>
+        <v>9067.6124999999993</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="13">
@@ -2427,51 +2453,53 @@
         <v>37</v>
       </c>
       <c r="B81" s="12">
-        <v>9067.6124999999993</v>
+        <v>8565.36</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E81" s="11"/>
+      <c r="E81" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="82" spans="1:5" ht="15" hidden="1">
       <c r="A82" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B82" s="12">
-        <v>8565.36</v>
+        <v>11854.5625</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E82" s="14" t="s">
-        <v>82</v>
-      </c>
+      <c r="E82" s="11"/>
     </row>
     <row r="83" spans="1:5" ht="15" hidden="1">
       <c r="A83" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B83" s="12">
-        <v>11854.5625</v>
+        <v>10616.475</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E83" s="11"/>
+      <c r="E83" s="11" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="84" spans="1:5" ht="15" hidden="1">
       <c r="A84" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B84" s="12">
-        <v>10616.475</v>
+        <v>12215.4625</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="13">
@@ -2479,15 +2507,15 @@
         <v>0</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" hidden="1">
       <c r="A85" s="11" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B85" s="12">
-        <v>12215.4625</v>
+        <v>12691.65</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="13">
@@ -2495,15 +2523,15 @@
         <v>0</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15" hidden="1">
       <c r="A86" s="11" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B86" s="12">
-        <v>12691.65</v>
+        <v>9097.6875</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="13">
@@ -2511,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15" hidden="1">
@@ -2519,7 +2547,7 @@
         <v>43</v>
       </c>
       <c r="B87" s="12">
-        <v>9097.6875</v>
+        <v>10285.65</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="13">
@@ -2527,15 +2555,15 @@
         <v>0</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" hidden="1">
       <c r="A88" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B88" s="12">
-        <v>10285.65</v>
+        <v>6342.8175000000001</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="13">
@@ -2543,47 +2571,43 @@
         <v>0</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15" hidden="1">
       <c r="A89" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B89" s="12">
-        <v>6342.8175000000001</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B89" s="12"/>
       <c r="C89" s="11"/>
       <c r="D89" s="13">
-        <f t="shared" si="0"/>
+        <f>C89*B89</f>
         <v>0</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" hidden="1">
       <c r="A90" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="11">
-        <v>5</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B90" s="12">
+        <v>17443.5</v>
+      </c>
+      <c r="C90" s="11"/>
       <c r="D90" s="13">
-        <f>C90*B90</f>
-        <v>0</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>82</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="11"/>
     </row>
     <row r="91" spans="1:5" ht="15" hidden="1">
       <c r="A91" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B91" s="12">
-        <v>17443.5</v>
+        <v>13914.7</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="13">
@@ -2594,128 +2618,132 @@
     </row>
     <row r="92" spans="1:5" ht="15" hidden="1">
       <c r="A92" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B92" s="12">
-        <v>13914.7</v>
+        <v>10133.27</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D92" si="1">C92*B92</f>
         <v>0</v>
       </c>
       <c r="E92" s="11"/>
     </row>
     <row r="93" spans="1:5" ht="15" hidden="1">
       <c r="A93" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B93" s="12">
-        <v>12501.18</v>
+        <v>23704.11</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="13">
-        <f t="shared" ref="D93" si="1">C93*B93</f>
+        <f t="shared" ref="D93" si="2">C93*B93</f>
         <v>0</v>
       </c>
       <c r="E93" s="11"/>
     </row>
     <row r="94" spans="1:5" ht="15" hidden="1">
       <c r="A94" s="11" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="B94" s="12">
-        <v>23704.11</v>
+        <v>1371.42</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="13">
-        <f t="shared" ref="D94" si="2">C94*B94</f>
-        <v>0</v>
-      </c>
-      <c r="E94" s="11"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="95" spans="1:5" ht="15" hidden="1">
       <c r="A95" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B95" s="12">
-        <v>1371.42</v>
+        <v>1410.5174999999999</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E95" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="E95" s="11"/>
     </row>
     <row r="96" spans="1:5" ht="15" hidden="1">
       <c r="A96" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B96" s="12">
-        <v>1410.5174999999999</v>
+        <v>1694.2249999999999</v>
       </c>
       <c r="C96" s="11"/>
       <c r="D96" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E96" s="11"/>
-    </row>
-    <row r="97" spans="1:5" ht="15" hidden="1">
+        <f t="shared" ref="D96:D135" si="3">C96*B96</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15">
       <c r="A97" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B97" s="12">
-        <v>1694.2249999999999</v>
-      </c>
-      <c r="C97" s="11"/>
+        <v>121</v>
+      </c>
+      <c r="B97" s="17">
+        <v>1219.04</v>
+      </c>
+      <c r="C97" s="11">
+        <v>20</v>
+      </c>
       <c r="D97" s="13">
-        <f t="shared" ref="D97:D135" si="3">C97*B97</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>24380.799999999999</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15" hidden="1">
       <c r="A98" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B98" s="17">
-        <v>1219.04</v>
+        <v>126</v>
+      </c>
+      <c r="B98" s="18">
+        <v>1336.33</v>
       </c>
       <c r="C98" s="11"/>
       <c r="D98" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E98" s="11"/>
+      <c r="E98" s="11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="99" spans="1:5" ht="15" hidden="1">
       <c r="A99" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B99" s="18">
-        <v>1336.33</v>
+        <v>48</v>
+      </c>
+      <c r="B99" s="12">
+        <v>1871.6675</v>
       </c>
       <c r="C99" s="11"/>
       <c r="D99" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E99" s="11" t="s">
-        <v>87</v>
-      </c>
+      <c r="E99" s="11"/>
     </row>
     <row r="100" spans="1:5" ht="15" hidden="1">
       <c r="A100" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B100" s="12">
-        <v>1871.6675</v>
+        <v>1854.625</v>
       </c>
       <c r="C100" s="11"/>
       <c r="D100" s="13">
@@ -2726,10 +2754,10 @@
     </row>
     <row r="101" spans="1:5" ht="15" hidden="1">
       <c r="A101" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B101" s="12">
-        <v>1854.625</v>
+        <v>1446.6075000000001</v>
       </c>
       <c r="C101" s="11"/>
       <c r="D101" s="13">
@@ -2740,24 +2768,26 @@
     </row>
     <row r="102" spans="1:5" ht="15" hidden="1">
       <c r="A102" s="11" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B102" s="12">
-        <v>1446.6075000000001</v>
+        <v>7586.92</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E102" s="11"/>
+      <c r="E102" s="11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="103" spans="1:5" ht="15" hidden="1">
       <c r="A103" s="11" t="s">
         <v>83</v>
       </c>
       <c r="B103" s="12">
-        <v>7586.92</v>
+        <v>8641.5499999999993</v>
       </c>
       <c r="C103" s="11"/>
       <c r="D103" s="13">
@@ -2765,15 +2795,15 @@
         <v>0</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" hidden="1">
       <c r="A104" s="11" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B104" s="12">
-        <v>8641.5499999999993</v>
+        <v>5183.9274999999998</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="13">
@@ -2781,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" hidden="1">
@@ -2789,7 +2819,7 @@
         <v>62</v>
       </c>
       <c r="B105" s="12">
-        <v>5183.9274999999998</v>
+        <v>5455.6049999999996</v>
       </c>
       <c r="C105" s="11"/>
       <c r="D105" s="13">
@@ -2797,28 +2827,30 @@
         <v>0</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="15" hidden="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15">
       <c r="A106" s="11" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="B106" s="12">
-        <v>5455.6049999999996</v>
-      </c>
-      <c r="C106" s="11"/>
+        <v>4526.2875000000004</v>
+      </c>
+      <c r="C106" s="11">
+        <v>2</v>
+      </c>
       <c r="D106" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>C106*B106</f>
+        <v>9052.5750000000007</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15" hidden="1">
       <c r="A107" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B107" s="12">
         <v>5510.74</v>
@@ -2829,12 +2861,12 @@
         <v>0</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15">
       <c r="A108" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B108" s="12">
         <v>4896.21</v>
@@ -2847,31 +2879,33 @@
         <v>9792.42</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="15" hidden="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15">
       <c r="A109" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B109" s="12">
         <v>5150.8500000000004</v>
       </c>
-      <c r="C109" s="11"/>
+      <c r="C109" s="11">
+        <v>3</v>
+      </c>
       <c r="D109" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15452.550000000001</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" hidden="1">
       <c r="A110" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B110" s="12">
-        <v>5310.24</v>
+        <v>4973.3999999999996</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="13">
@@ -2879,12 +2913,12 @@
         <v>0</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" hidden="1">
       <c r="A111" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B111" s="12">
         <v>5423.53</v>
@@ -2895,12 +2929,12 @@
         <v>0</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15" hidden="1">
       <c r="A112" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B112" s="12">
         <v>5940.82</v>
@@ -2911,12 +2945,12 @@
         <v>0</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15" hidden="1">
       <c r="A113" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B113" s="12">
         <v>5257.11</v>
@@ -2927,12 +2961,12 @@
         <v>0</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15" hidden="1">
       <c r="A114" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B114" s="12">
         <v>2900.2325000000001</v>
@@ -2943,12 +2977,12 @@
         <v>0</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15" hidden="1">
       <c r="A115" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B115" s="12">
         <v>3143.84</v>
@@ -2959,12 +2993,12 @@
         <v>0</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15" hidden="1">
       <c r="A116" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B116" s="12">
         <v>3518.7750000000001</v>
@@ -2978,7 +3012,7 @@
     </row>
     <row r="117" spans="1:5" ht="15" hidden="1">
       <c r="A117" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B117" s="12">
         <v>3556.87</v>
@@ -2989,12 +3023,12 @@
         <v>0</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" hidden="1">
       <c r="A118" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B118" s="12">
         <v>3471.66</v>
@@ -3005,12 +3039,12 @@
         <v>0</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" hidden="1">
       <c r="A119" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B119" s="12">
         <v>3919.7750000000001</v>
@@ -3021,12 +3055,12 @@
         <v>0</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15" hidden="1">
       <c r="A120" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B120" s="12">
         <v>4534.3074999999999</v>
@@ -3037,12 +3071,12 @@
         <v>0</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" hidden="1">
       <c r="A121" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B121" s="12">
         <v>3433.56</v>
@@ -3053,12 +3087,12 @@
         <v>0</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15" hidden="1">
       <c r="A122" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B122" s="12">
         <v>4476.1625000000004</v>
@@ -3072,10 +3106,10 @@
     </row>
     <row r="123" spans="1:5" ht="15" hidden="1">
       <c r="A123" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B123" s="12">
-        <v>4575.41</v>
+        <v>4389.95</v>
       </c>
       <c r="C123" s="11"/>
       <c r="D123" s="13">
@@ -3083,12 +3117,12 @@
         <v>0</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" hidden="1">
       <c r="A124" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B124" s="12">
         <v>5269.14</v>
@@ -3099,12 +3133,12 @@
         <v>0</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15" hidden="1">
       <c r="A125" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B125" s="12">
         <v>5921.7674999999999</v>
@@ -3115,28 +3149,30 @@
         <v>0</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="12" hidden="1" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="12" customHeight="1">
       <c r="A126" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B126" s="12">
         <v>1170.92</v>
       </c>
-      <c r="C126" s="11"/>
+      <c r="C126" s="11">
+        <v>20</v>
+      </c>
       <c r="D126" s="13">
         <f>C126*B126</f>
-        <v>0</v>
+        <v>23418.400000000001</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" hidden="1">
       <c r="A127" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B127" s="12">
         <v>3934.8125</v>
@@ -3147,12 +3183,12 @@
         <v>0</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" hidden="1">
       <c r="A128" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B128" s="12">
         <v>4027.0425</v>
@@ -3163,12 +3199,12 @@
         <v>0</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15" hidden="1">
       <c r="A129" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B129" s="12">
         <v>3892.71</v>
@@ -3179,12 +3215,12 @@
         <v>0</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15" hidden="1">
       <c r="A130" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B130" s="12">
         <v>4507.24</v>
@@ -3195,12 +3231,12 @@
         <v>0</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15" hidden="1">
       <c r="A131" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B131" s="12">
         <v>4409</v>
@@ -3211,12 +3247,12 @@
         <v>0</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15" hidden="1">
       <c r="A132" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B132" s="12">
         <v>4165.3900000000003</v>
@@ -3227,15 +3263,15 @@
         <v>0</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15" hidden="1">
       <c r="A133" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B133" s="12">
-        <v>4252.6099999999997</v>
+        <v>4115.26</v>
       </c>
       <c r="C133" s="11"/>
       <c r="D133" s="13">
@@ -3243,12 +3279,12 @@
         <v>0</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15" hidden="1">
       <c r="A134" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B134" s="12">
         <v>12741.775</v>
@@ -3262,7 +3298,7 @@
     </row>
     <row r="135" spans="1:9" ht="15" hidden="1">
       <c r="A135" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B135" s="12">
         <v>12310.7</v>
@@ -3273,21 +3309,21 @@
         <v>0</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="136" spans="1:9" s="2" customFormat="1" ht="15">
       <c r="A136" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B136" s="41"/>
       <c r="C136" s="19">
         <f>SUM(C5:C135)</f>
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="D136" s="20">
         <f>SUM(D5:D135)</f>
-        <v>135957.27000000002</v>
+        <v>611733.92500000005</v>
       </c>
       <c r="E136" s="19"/>
     </row>
@@ -3297,7 +3333,7 @@
     <row r="138" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A138" s="21"/>
       <c r="B138" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C138" s="42"/>
       <c r="D138" s="42"/>
@@ -3306,13 +3342,13 @@
     <row r="139" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A139" s="23"/>
       <c r="B139" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C139" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C139" s="24" t="s">
-        <v>72</v>
-      </c>
       <c r="D139" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E139" s="22"/>
       <c r="I139" s="25"/>
@@ -3320,7 +3356,7 @@
     <row r="140" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A140" s="26"/>
       <c r="B140" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C140" s="27">
         <v>0</v>
@@ -3331,18 +3367,16 @@
     <row r="141" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A141" s="26"/>
       <c r="B141" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C141" s="32">
-        <v>290000</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C141" s="32"/>
       <c r="D141" s="11"/>
       <c r="E141" s="22"/>
     </row>
     <row r="142" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A142" s="26"/>
       <c r="B142" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C142" s="27">
         <v>0</v>
@@ -3353,7 +3387,7 @@
     <row r="143" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A143" s="26"/>
       <c r="B143" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C143" s="27"/>
       <c r="D143" s="11"/>
@@ -3362,7 +3396,7 @@
     <row r="144" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A144" s="26"/>
       <c r="B144" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C144" s="27">
         <v>0</v>
@@ -3373,7 +3407,7 @@
     <row r="145" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A145" s="26"/>
       <c r="B145" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C145" s="27">
         <v>0</v>
@@ -3384,11 +3418,11 @@
     <row r="146" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A146" s="23"/>
       <c r="B146" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C146" s="29">
         <f>SUM(C140:C145)</f>
-        <v>290000</v>
+        <v>0</v>
       </c>
       <c r="D146" s="30"/>
       <c r="E146" s="22"/>

--- a/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -526,13 +526,13 @@
     <t>R40</t>
   </si>
   <si>
-    <t>07.05.19</t>
-  </si>
-  <si>
     <t>V128</t>
   </si>
   <si>
     <t>L65J</t>
+  </si>
+  <si>
+    <t>08.05.19</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1195,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E144" sqref="E144"/>
+      <selection pane="bottomRight" activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1240,7 +1240,7 @@
         <v>78</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1260,19 +1260,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15">
+    <row r="5" spans="1:5" ht="15" hidden="1">
       <c r="A5" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="12">
         <v>779.95</v>
       </c>
-      <c r="C5" s="11">
-        <v>40</v>
-      </c>
+      <c r="C5" s="11"/>
       <c r="D5" s="13">
         <f>C5*B5</f>
-        <v>31198</v>
+        <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>86</v>
@@ -1292,89 +1290,83 @@
       </c>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="15" hidden="1">
+    <row r="7" spans="1:5" ht="15">
       <c r="A7" s="11" t="s">
         <v>127</v>
       </c>
       <c r="B7" s="12">
         <v>789.97</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="11">
+        <v>20</v>
+      </c>
       <c r="D7" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15799.400000000001</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15">
+    <row r="8" spans="1:5" ht="15" hidden="1">
       <c r="A8" s="11" t="s">
         <v>154</v>
       </c>
       <c r="B8" s="12">
         <v>769.92</v>
       </c>
-      <c r="C8" s="11">
-        <v>25</v>
-      </c>
+      <c r="C8" s="11"/>
       <c r="D8" s="13">
         <f>B8*C8</f>
-        <v>19248</v>
+        <v>0</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15">
+    <row r="9" spans="1:5" ht="15" hidden="1">
       <c r="A9" s="11" t="s">
         <v>164</v>
       </c>
       <c r="B9" s="12">
         <v>896.23500000000001</v>
       </c>
-      <c r="C9" s="11">
-        <v>40</v>
-      </c>
+      <c r="C9" s="11"/>
       <c r="D9" s="13">
         <f>C9*B9</f>
-        <v>35849.4</v>
+        <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15">
+    <row r="10" spans="1:5" ht="15" hidden="1">
       <c r="A10" s="11" t="s">
         <v>148</v>
       </c>
       <c r="B10" s="12">
         <v>901.24749999999995</v>
       </c>
-      <c r="C10" s="11">
-        <v>20</v>
-      </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="13">
         <f>B10*C10</f>
-        <v>18024.949999999997</v>
+        <v>0</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15">
+    <row r="11" spans="1:5" ht="15" hidden="1">
       <c r="A11" s="11" t="s">
         <v>119</v>
       </c>
       <c r="B11" s="12">
         <v>858.14</v>
       </c>
-      <c r="C11" s="11">
-        <v>30</v>
-      </c>
+      <c r="C11" s="11"/>
       <c r="D11" s="13">
         <f t="shared" si="0"/>
-        <v>25744.2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>144</v>
@@ -1410,19 +1402,17 @@
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="14" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A14" s="14" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="15">
         <v>1258.1375</v>
       </c>
-      <c r="C14" s="11">
-        <v>40</v>
-      </c>
+      <c r="C14" s="11"/>
       <c r="D14" s="16">
         <f t="shared" si="0"/>
-        <v>50325.5</v>
+        <v>0</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>143</v>
@@ -1442,19 +1432,17 @@
       </c>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row r="16" spans="1:5" ht="15" hidden="1">
       <c r="A16" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B16" s="12">
         <v>868.17</v>
       </c>
-      <c r="C16" s="11">
-        <v>20</v>
-      </c>
+      <c r="C16" s="11"/>
       <c r="D16" s="13">
         <f t="shared" si="0"/>
-        <v>17363.399999999998</v>
+        <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>160</v>
@@ -1490,19 +1478,17 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15">
+    <row r="19" spans="1:5" ht="15" hidden="1">
       <c r="A19" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="12">
         <v>975.4325</v>
       </c>
-      <c r="C19" s="11">
-        <v>20</v>
-      </c>
+      <c r="C19" s="11"/>
       <c r="D19" s="13">
         <f t="shared" si="0"/>
-        <v>19508.650000000001</v>
+        <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>147</v>
@@ -1582,19 +1568,17 @@
       </c>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A25" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="15">
         <v>980.44500000000005</v>
       </c>
-      <c r="C25" s="11">
-        <v>30</v>
-      </c>
+      <c r="C25" s="11"/>
       <c r="D25" s="16">
         <f>C25*B25</f>
-        <v>29413.350000000002</v>
+        <v>0</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>151</v>
@@ -1630,17 +1614,19 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A28" s="14" t="s">
         <v>165</v>
       </c>
       <c r="B28" s="15">
         <v>5607.99</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="11">
+        <v>3</v>
+      </c>
       <c r="D28" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16823.97</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>86</v>
@@ -1856,19 +1842,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15">
+    <row r="43" spans="1:5" ht="15" hidden="1">
       <c r="A43" s="11" t="s">
         <v>109</v>
       </c>
       <c r="B43" s="12">
         <v>5158.87</v>
       </c>
-      <c r="C43" s="11">
-        <v>15</v>
-      </c>
+      <c r="C43" s="11"/>
       <c r="D43" s="13">
         <f t="shared" si="0"/>
-        <v>77383.05</v>
+        <v>0</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>153</v>
@@ -2182,19 +2166,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15">
+    <row r="64" spans="1:5" ht="15" hidden="1">
       <c r="A64" s="11" t="s">
         <v>158</v>
       </c>
       <c r="B64" s="33">
         <v>1053.6275000000001</v>
       </c>
-      <c r="C64" s="11">
-        <v>20</v>
-      </c>
+      <c r="C64" s="11"/>
       <c r="D64" s="13">
         <f>B64*C64</f>
-        <v>21072.550000000003</v>
+        <v>0</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>151</v>
@@ -2214,19 +2196,17 @@
       </c>
       <c r="E65" s="11"/>
     </row>
-    <row r="66" spans="1:5" ht="15">
+    <row r="66" spans="1:5" ht="15" hidden="1">
       <c r="A66" s="11" t="s">
         <v>163</v>
       </c>
       <c r="B66" s="12">
         <v>1072.675</v>
       </c>
-      <c r="C66" s="11">
-        <v>40</v>
-      </c>
+      <c r="C66" s="11"/>
       <c r="D66" s="13">
         <f>C66*B66</f>
-        <v>42907</v>
+        <v>0</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>86</v>
@@ -2306,19 +2286,17 @@
       </c>
       <c r="E71" s="11"/>
     </row>
-    <row r="72" spans="1:5" ht="15">
+    <row r="72" spans="1:5" ht="15" hidden="1">
       <c r="A72" s="11" t="s">
         <v>150</v>
       </c>
       <c r="B72" s="12">
         <v>1014.53</v>
       </c>
-      <c r="C72" s="11">
-        <v>40</v>
-      </c>
+      <c r="C72" s="11"/>
       <c r="D72" s="13">
         <f>B72*C72</f>
-        <v>40581.199999999997</v>
+        <v>0</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>86</v>
@@ -2368,37 +2346,33 @@
       </c>
       <c r="E75" s="11"/>
     </row>
-    <row r="76" spans="1:5" ht="15">
+    <row r="76" spans="1:5" ht="15" hidden="1">
       <c r="A76" s="11" t="s">
         <v>152</v>
       </c>
       <c r="B76" s="12">
         <v>1072.675</v>
       </c>
-      <c r="C76" s="11">
-        <v>40</v>
-      </c>
+      <c r="C76" s="11"/>
       <c r="D76" s="13">
         <f>C76*B76</f>
-        <v>42907</v>
+        <v>0</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15">
+    <row r="77" spans="1:5" ht="15" hidden="1">
       <c r="A77" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B77" s="12">
         <v>1297.2349999999999</v>
       </c>
-      <c r="C77" s="11">
-        <v>30</v>
-      </c>
+      <c r="C77" s="11"/>
       <c r="D77" s="13">
         <f t="shared" si="0"/>
-        <v>38917.049999999996</v>
+        <v>0</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>86</v>
@@ -2690,19 +2664,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15">
+    <row r="97" spans="1:5" ht="15" hidden="1">
       <c r="A97" s="11" t="s">
         <v>121</v>
       </c>
       <c r="B97" s="17">
         <v>1219.04</v>
       </c>
-      <c r="C97" s="11">
-        <v>20</v>
-      </c>
+      <c r="C97" s="11"/>
       <c r="D97" s="13">
         <f t="shared" si="3"/>
-        <v>24380.799999999999</v>
+        <v>0</v>
       </c>
       <c r="E97" s="11" t="s">
         <v>86</v>
@@ -2832,17 +2804,17 @@
     </row>
     <row r="106" spans="1:5" ht="15">
       <c r="A106" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B106" s="12">
         <v>4526.2875000000004</v>
       </c>
       <c r="C106" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D106" s="13">
         <f>C106*B106</f>
-        <v>9052.5750000000007</v>
+        <v>22631.4375</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>86</v>
@@ -2872,29 +2844,27 @@
         <v>4896.21</v>
       </c>
       <c r="C108" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D108" s="13">
         <f t="shared" si="3"/>
-        <v>9792.42</v>
+        <v>14688.630000000001</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15">
+    <row r="109" spans="1:5" ht="15" hidden="1">
       <c r="A109" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B109" s="12">
         <v>5150.8500000000004</v>
       </c>
-      <c r="C109" s="11">
-        <v>3</v>
-      </c>
+      <c r="C109" s="11"/>
       <c r="D109" s="13">
         <f t="shared" si="3"/>
-        <v>15452.550000000001</v>
+        <v>0</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>132</v>
@@ -3160,11 +3130,11 @@
         <v>1170.92</v>
       </c>
       <c r="C126" s="11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D126" s="13">
         <f>C126*B126</f>
-        <v>23418.400000000001</v>
+        <v>70255.200000000012</v>
       </c>
       <c r="E126" s="11" t="s">
         <v>132</v>
@@ -3319,11 +3289,11 @@
       <c r="B136" s="41"/>
       <c r="C136" s="19">
         <f>SUM(C5:C135)</f>
-        <v>500</v>
+        <v>94</v>
       </c>
       <c r="D136" s="20">
         <f>SUM(D5:D135)</f>
-        <v>611733.92500000005</v>
+        <v>159392.51750000002</v>
       </c>
       <c r="E136" s="19"/>
     </row>
@@ -3369,7 +3339,9 @@
       <c r="B141" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C141" s="32"/>
+      <c r="C141" s="32">
+        <v>160000</v>
+      </c>
       <c r="D141" s="11"/>
       <c r="E141" s="22"/>
     </row>
@@ -3422,7 +3394,7 @@
       </c>
       <c r="C146" s="29">
         <f>SUM(C140:C145)</f>
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="D146" s="30"/>
       <c r="E146" s="22"/>

--- a/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -286,9 +286,6 @@
     <t>Red</t>
   </si>
   <si>
-    <t>D38</t>
-  </si>
-  <si>
     <t>i70</t>
   </si>
   <si>
@@ -448,15 +445,9 @@
     <t>Daily Requisition for Tulip -2</t>
   </si>
   <si>
-    <t>Black_Gold</t>
-  </si>
-  <si>
     <t>Darkblue</t>
   </si>
   <si>
-    <t>D52J</t>
-  </si>
-  <si>
     <t>D54J</t>
   </si>
   <si>
@@ -532,7 +523,16 @@
     <t>L65J</t>
   </si>
   <si>
-    <t>08.05.19</t>
+    <t>D52+</t>
+  </si>
+  <si>
+    <t>D38i</t>
+  </si>
+  <si>
+    <t>09.05.19</t>
+  </si>
+  <si>
+    <t>Black/Darkblue</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A2" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -1228,19 +1228,19 @@
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A3" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>78</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1260,17 +1260,19 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" hidden="1">
+    <row r="5" spans="1:5" ht="15">
       <c r="A5" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="12">
         <v>779.95</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="11">
+        <v>20</v>
+      </c>
       <c r="D5" s="13">
         <f>C5*B5</f>
-        <v>0</v>
+        <v>15599</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>86</v>
@@ -1290,43 +1292,43 @@
       </c>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="15">
+    <row r="7" spans="1:5" ht="15" hidden="1">
       <c r="A7" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" s="12">
         <v>789.97</v>
       </c>
-      <c r="C7" s="11">
-        <v>20</v>
-      </c>
+      <c r="C7" s="11"/>
       <c r="D7" s="13">
         <f t="shared" si="0"/>
-        <v>15799.400000000001</v>
+        <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" hidden="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B8" s="12">
         <v>769.92</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="11">
+        <v>20</v>
+      </c>
       <c r="D8" s="13">
         <f>B8*C8</f>
-        <v>0</v>
+        <v>15398.4</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" hidden="1">
       <c r="A9" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B9" s="12">
         <v>896.23500000000001</v>
@@ -1342,7 +1344,7 @@
     </row>
     <row r="10" spans="1:5" ht="15" hidden="1">
       <c r="A10" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B10" s="12">
         <v>901.24749999999995</v>
@@ -1353,12 +1355,12 @@
         <v>0</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" hidden="1">
       <c r="A11" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="12">
         <v>858.14</v>
@@ -1369,12 +1371,12 @@
         <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" hidden="1">
       <c r="A12" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="12">
         <v>946.36</v>
@@ -1385,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" hidden="1">
@@ -1402,25 +1404,27 @@
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="14" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A14" s="14" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="B14" s="15">
-        <v>1258.1375</v>
-      </c>
-      <c r="C14" s="11"/>
+        <v>1159.8900000000001</v>
+      </c>
+      <c r="C14" s="11">
+        <v>20</v>
+      </c>
       <c r="D14" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23197.800000000003</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" hidden="1">
       <c r="A15" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="12">
         <v>887.21</v>
@@ -1434,7 +1438,7 @@
     </row>
     <row r="16" spans="1:5" ht="15" hidden="1">
       <c r="A16" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="12">
         <v>868.17</v>
@@ -1445,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" hidden="1">
@@ -1464,7 +1468,7 @@
     </row>
     <row r="18" spans="1:5" ht="15" hidden="1">
       <c r="A18" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B18" s="12">
         <v>1238.0875000000001</v>
@@ -1475,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" hidden="1">
@@ -1491,12 +1495,12 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A20" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="15">
         <v>985.46</v>
@@ -1535,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" hidden="1">
@@ -1581,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" hidden="1">
@@ -1600,10 +1604,10 @@
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A27" s="14" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="B27" s="15">
-        <v>975.43</v>
+        <v>936.34</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="16">
@@ -1616,7 +1620,7 @@
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A28" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B28" s="15">
         <v>5607.99</v>
@@ -1634,7 +1638,7 @@
     </row>
     <row r="29" spans="1:5" ht="15" hidden="1">
       <c r="A29" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="12">
         <v>955.38</v>
@@ -1648,7 +1652,7 @@
     </row>
     <row r="30" spans="1:5" ht="15" hidden="1">
       <c r="A30" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B30" s="12">
         <v>1014.53</v>
@@ -1676,7 +1680,7 @@
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A32" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" s="15">
         <v>1159.8900000000001</v>
@@ -1703,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" hidden="1">
@@ -1794,7 +1798,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" hidden="1">
       <c r="A40" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B40" s="12">
         <v>2788.96</v>
@@ -1805,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" hidden="1">
@@ -1826,7 +1830,7 @@
     </row>
     <row r="42" spans="1:5" ht="15">
       <c r="A42" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B42" s="12">
         <v>6397.96</v>
@@ -1839,12 +1843,12 @@
         <v>19193.88</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" hidden="1">
       <c r="A43" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B43" s="12">
         <v>5158.87</v>
@@ -1855,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" hidden="1">
@@ -1901,12 +1905,12 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" hidden="1">
       <c r="A47" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B47" s="12">
         <v>7851.58</v>
@@ -1922,7 +1926,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" hidden="1">
       <c r="A48" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B48" s="12">
         <v>7714.24</v>
@@ -1954,7 +1958,7 @@
     </row>
     <row r="50" spans="1:5" ht="15" hidden="1">
       <c r="A50" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B50" s="12">
         <v>7309.23</v>
@@ -1965,12 +1969,12 @@
         <v>0</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1">
       <c r="A51" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" s="12">
         <v>8877.14</v>
@@ -1986,7 +1990,7 @@
     </row>
     <row r="52" spans="1:5" ht="15" hidden="1">
       <c r="A52" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B52" s="12">
         <v>8573.3799999999992</v>
@@ -1997,12 +2001,12 @@
         <v>0</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" hidden="1">
       <c r="A53" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B53" s="12">
         <v>8967.36</v>
@@ -2018,7 +2022,7 @@
     </row>
     <row r="54" spans="1:5" ht="15" hidden="1">
       <c r="A54" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B54" s="12">
         <v>9012.48</v>
@@ -2029,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" hidden="1">
@@ -2048,7 +2052,7 @@
     </row>
     <row r="56" spans="1:5" ht="15" hidden="1">
       <c r="A56" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B56" s="31">
         <v>7309.2275</v>
@@ -2064,7 +2068,7 @@
     </row>
     <row r="57" spans="1:5" ht="15" hidden="1">
       <c r="A57" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B57" s="12">
         <v>1423.55</v>
@@ -2136,7 +2140,7 @@
     </row>
     <row r="62" spans="1:5" ht="15" hidden="1">
       <c r="A62" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B62" s="34">
         <v>1169.9175</v>
@@ -2147,15 +2151,15 @@
         <v>0</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" hidden="1">
       <c r="A63" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B63" s="31">
-        <v>5310.2425000000003</v>
+        <v>4973.3999999999996</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="13">
@@ -2163,12 +2167,12 @@
         <v>0</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" hidden="1">
       <c r="A64" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B64" s="33">
         <v>1053.6275000000001</v>
@@ -2179,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" hidden="1">
@@ -2198,7 +2202,7 @@
     </row>
     <row r="66" spans="1:5" ht="15" hidden="1">
       <c r="A66" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B66" s="12">
         <v>1072.675</v>
@@ -2214,7 +2218,7 @@
     </row>
     <row r="67" spans="1:5" ht="15" hidden="1">
       <c r="A67" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B67" s="12">
         <v>1024.56</v>
@@ -2258,7 +2262,7 @@
     </row>
     <row r="70" spans="1:5" ht="15" hidden="1">
       <c r="A70" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B70" s="31">
         <v>4165.3874999999998</v>
@@ -2286,20 +2290,22 @@
       </c>
       <c r="E71" s="11"/>
     </row>
-    <row r="72" spans="1:5" ht="15" hidden="1">
+    <row r="72" spans="1:5" ht="15">
       <c r="A72" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B72" s="12">
         <v>1014.53</v>
       </c>
-      <c r="C72" s="11"/>
+      <c r="C72" s="11">
+        <v>10</v>
+      </c>
       <c r="D72" s="13">
         <f>B72*C72</f>
-        <v>0</v>
+        <v>10145.299999999999</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" hidden="1">
@@ -2334,7 +2340,7 @@
     </row>
     <row r="75" spans="1:5" ht="15" hidden="1">
       <c r="A75" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B75" s="12">
         <v>1101.75</v>
@@ -2348,7 +2354,7 @@
     </row>
     <row r="76" spans="1:5" ht="15" hidden="1">
       <c r="A76" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B76" s="12">
         <v>1072.675</v>
@@ -2364,7 +2370,7 @@
     </row>
     <row r="77" spans="1:5" ht="15" hidden="1">
       <c r="A77" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B77" s="12">
         <v>1297.2349999999999</v>
@@ -2380,7 +2386,7 @@
     </row>
     <row r="78" spans="1:5" ht="15" hidden="1">
       <c r="A78" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B78" s="12">
         <v>1189.9675</v>
@@ -2391,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" hidden="1">
@@ -2497,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15" hidden="1">
@@ -2550,7 +2556,7 @@
     </row>
     <row r="89" spans="1:5" ht="15" hidden="1">
       <c r="A89" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B89" s="12"/>
       <c r="C89" s="11"/>
@@ -2564,7 +2570,7 @@
     </row>
     <row r="90" spans="1:5" ht="15" hidden="1">
       <c r="A90" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B90" s="12">
         <v>17443.5</v>
@@ -2578,7 +2584,7 @@
     </row>
     <row r="91" spans="1:5" ht="15" hidden="1">
       <c r="A91" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B91" s="12">
         <v>13914.7</v>
@@ -2592,7 +2598,7 @@
     </row>
     <row r="92" spans="1:5" ht="15" hidden="1">
       <c r="A92" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B92" s="12">
         <v>10133.27</v>
@@ -2606,7 +2612,7 @@
     </row>
     <row r="93" spans="1:5" ht="15" hidden="1">
       <c r="A93" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B93" s="12">
         <v>23704.11</v>
@@ -2666,7 +2672,7 @@
     </row>
     <row r="97" spans="1:5" ht="15" hidden="1">
       <c r="A97" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B97" s="17">
         <v>1219.04</v>
@@ -2682,7 +2688,7 @@
     </row>
     <row r="98" spans="1:5" ht="15" hidden="1">
       <c r="A98" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B98" s="18">
         <v>1336.33</v>
@@ -2802,19 +2808,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15">
+    <row r="106" spans="1:5" ht="15" hidden="1">
       <c r="A106" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B106" s="12">
         <v>4526.2875000000004</v>
       </c>
-      <c r="C106" s="11">
-        <v>5</v>
-      </c>
+      <c r="C106" s="11"/>
       <c r="D106" s="13">
         <f>C106*B106</f>
-        <v>22631.4375</v>
+        <v>0</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>86</v>
@@ -2836,19 +2840,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15">
+    <row r="108" spans="1:5" ht="15" hidden="1">
       <c r="A108" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108" s="12">
         <v>4896.21</v>
       </c>
-      <c r="C108" s="11">
-        <v>3</v>
-      </c>
+      <c r="C108" s="11"/>
       <c r="D108" s="13">
         <f t="shared" si="3"/>
-        <v>14688.630000000001</v>
+        <v>0</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>81</v>
@@ -2856,7 +2858,7 @@
     </row>
     <row r="109" spans="1:5" ht="15" hidden="1">
       <c r="A109" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B109" s="12">
         <v>5150.8500000000004</v>
@@ -2867,12 +2869,12 @@
         <v>0</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" hidden="1">
       <c r="A110" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B110" s="12">
         <v>4973.3999999999996</v>
@@ -2883,12 +2885,12 @@
         <v>0</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" hidden="1">
       <c r="A111" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B111" s="12">
         <v>5423.53</v>
@@ -2904,7 +2906,7 @@
     </row>
     <row r="112" spans="1:5" ht="15" hidden="1">
       <c r="A112" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="12">
         <v>5940.82</v>
@@ -2920,7 +2922,7 @@
     </row>
     <row r="113" spans="1:5" ht="15" hidden="1">
       <c r="A113" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B113" s="12">
         <v>5257.11</v>
@@ -2931,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15" hidden="1">
@@ -2998,7 +3000,7 @@
     </row>
     <row r="118" spans="1:5" ht="15" hidden="1">
       <c r="A118" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B118" s="12">
         <v>3471.66</v>
@@ -3009,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" hidden="1">
@@ -3046,7 +3048,7 @@
     </row>
     <row r="121" spans="1:5" ht="15" hidden="1">
       <c r="A121" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B121" s="12">
         <v>3433.56</v>
@@ -3057,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15" hidden="1">
@@ -3076,7 +3078,7 @@
     </row>
     <row r="123" spans="1:5" ht="15" hidden="1">
       <c r="A123" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123" s="12">
         <v>4389.95</v>
@@ -3087,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" hidden="1">
@@ -3122,22 +3124,20 @@
         <v>81</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="12" customHeight="1">
+    <row r="126" spans="1:5" ht="12" hidden="1" customHeight="1">
       <c r="A126" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B126" s="12">
         <v>1170.92</v>
       </c>
-      <c r="C126" s="11">
-        <v>60</v>
-      </c>
+      <c r="C126" s="11"/>
       <c r="D126" s="13">
         <f>C126*B126</f>
-        <v>70255.200000000012</v>
+        <v>0</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" hidden="1">
@@ -3158,7 +3158,7 @@
     </row>
     <row r="128" spans="1:5" ht="15" hidden="1">
       <c r="A128" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B128" s="12">
         <v>4027.0425</v>
@@ -3169,12 +3169,12 @@
         <v>0</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15" hidden="1">
       <c r="A129" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B129" s="12">
         <v>3892.71</v>
@@ -3185,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15" hidden="1">
@@ -3206,7 +3206,7 @@
     </row>
     <row r="131" spans="1:9" ht="15" hidden="1">
       <c r="A131" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B131" s="12">
         <v>4409</v>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="132" spans="1:9" ht="15" hidden="1">
       <c r="A132" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B132" s="12">
         <v>4165.3900000000003</v>
@@ -3233,12 +3233,12 @@
         <v>0</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15" hidden="1">
       <c r="A133" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B133" s="12">
         <v>4115.26</v>
@@ -3289,11 +3289,11 @@
       <c r="B136" s="41"/>
       <c r="C136" s="19">
         <f>SUM(C5:C135)</f>
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D136" s="20">
         <f>SUM(D5:D135)</f>
-        <v>159392.51750000002</v>
+        <v>100358.35000000002</v>
       </c>
       <c r="E136" s="19"/>
     </row>
@@ -3340,7 +3340,7 @@
         <v>73</v>
       </c>
       <c r="C141" s="32">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="22"/>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="C146" s="29">
         <f>SUM(C140:C145)</f>
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="D146" s="30"/>
       <c r="E146" s="22"/>

--- a/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -10,14 +10,14 @@
     <sheet name="Daily Requisition" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$4:$E$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$4:$E$135</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="172">
   <si>
     <t>Model Name</t>
   </si>
@@ -100,9 +100,6 @@
     <t>L24</t>
   </si>
   <si>
-    <t>L25</t>
-  </si>
-  <si>
     <t>L26</t>
   </si>
   <si>
@@ -448,18 +445,12 @@
     <t>Darkblue</t>
   </si>
   <si>
-    <t>D54J</t>
-  </si>
-  <si>
     <t>Black_Blue</t>
   </si>
   <si>
     <t>BL90</t>
   </si>
   <si>
-    <t>Yellow_Black</t>
-  </si>
-  <si>
     <t>L40</t>
   </si>
   <si>
@@ -475,9 +466,6 @@
     <t>B23</t>
   </si>
   <si>
-    <t>Black/ Gold</t>
-  </si>
-  <si>
     <t>L55i</t>
   </si>
   <si>
@@ -508,9 +496,6 @@
     <t>i65</t>
   </si>
   <si>
-    <t xml:space="preserve">Black </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Black, Gold, Dark_Blue </t>
   </si>
   <si>
@@ -529,10 +514,25 @@
     <t>D38i</t>
   </si>
   <si>
-    <t>09.05.19</t>
-  </si>
-  <si>
     <t>Black/Darkblue</t>
+  </si>
+  <si>
+    <t>L25i</t>
+  </si>
+  <si>
+    <t>D54+</t>
+  </si>
+  <si>
+    <t>11.05.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black&amp;Gold </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gold</t>
+  </si>
+  <si>
+    <t>Light_Blue</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1195,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G144" sqref="G144"/>
+      <selection pane="bottomRight" activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1210,7 +1210,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A1" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A2" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -1228,19 +1228,19 @@
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A3" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1248,34 +1248,32 @@
         <v>0</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15">
+    </row>
+    <row r="5" spans="1:5" ht="15" hidden="1">
       <c r="A5" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="12">
         <v>779.95</v>
       </c>
-      <c r="C5" s="11">
-        <v>20</v>
-      </c>
+      <c r="C5" s="11"/>
       <c r="D5" s="13">
         <f>C5*B5</f>
-        <v>15599</v>
+        <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" hidden="1">
@@ -1294,7 +1292,7 @@
     </row>
     <row r="7" spans="1:5" ht="15" hidden="1">
       <c r="A7" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="12">
         <v>789.97</v>
@@ -1305,30 +1303,28 @@
         <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" hidden="1">
       <c r="A8" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B8" s="12">
         <v>769.92</v>
       </c>
-      <c r="C8" s="11">
-        <v>20</v>
-      </c>
+      <c r="C8" s="11"/>
       <c r="D8" s="13">
         <f>B8*C8</f>
-        <v>15398.4</v>
+        <v>0</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" hidden="1">
       <c r="A9" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B9" s="12">
         <v>896.23500000000001</v>
@@ -1339,44 +1335,48 @@
         <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" hidden="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
       <c r="A10" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B10" s="12">
         <v>901.24749999999995</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="11">
+        <v>10</v>
+      </c>
       <c r="D10" s="13">
         <f>B10*C10</f>
-        <v>0</v>
+        <v>9012.4749999999985</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" hidden="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="12">
         <v>858.14</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="11">
+        <v>20</v>
+      </c>
       <c r="D11" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17162.8</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" hidden="1">
       <c r="A12" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="12">
         <v>946.36</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" hidden="1">
@@ -1404,27 +1404,25 @@
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="14" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A14" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B14" s="15">
         <v>1159.8900000000001</v>
       </c>
-      <c r="C14" s="11">
-        <v>20</v>
-      </c>
+      <c r="C14" s="11"/>
       <c r="D14" s="16">
         <f t="shared" si="0"/>
-        <v>23197.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" hidden="1">
       <c r="A15" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" s="12">
         <v>887.21</v>
@@ -1438,7 +1436,7 @@
     </row>
     <row r="16" spans="1:5" ht="15" hidden="1">
       <c r="A16" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="12">
         <v>868.17</v>
@@ -1449,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" hidden="1">
@@ -1466,20 +1464,22 @@
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5" ht="15" hidden="1">
+    <row r="18" spans="1:5" ht="15">
       <c r="A18" s="11" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B18" s="12">
-        <v>1238.0875000000001</v>
-      </c>
-      <c r="C18" s="11"/>
+        <v>1140.8499999999999</v>
+      </c>
+      <c r="C18" s="11">
+        <v>50</v>
+      </c>
       <c r="D18" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57042.499999999993</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" hidden="1">
@@ -1495,12 +1495,12 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A20" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="15">
         <v>985.46</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" hidden="1">
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" hidden="1">
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" hidden="1">
@@ -1602,43 +1602,43 @@
       </c>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A27" s="14" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B27" s="15">
         <v>936.34</v>
       </c>
-      <c r="C27" s="11"/>
+      <c r="C27" s="11">
+        <v>20</v>
+      </c>
       <c r="D27" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18726.8</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" ht="15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A28" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B28" s="15">
         <v>5607.99</v>
       </c>
-      <c r="C28" s="11">
-        <v>3</v>
-      </c>
+      <c r="C28" s="11"/>
       <c r="D28" s="16">
         <f t="shared" si="0"/>
-        <v>16823.97</v>
+        <v>0</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" hidden="1">
       <c r="A29" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="12">
         <v>955.38</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="30" spans="1:5" ht="15" hidden="1">
       <c r="A30" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B30" s="12">
         <v>1014.53</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A32" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B32" s="15">
         <v>1159.8900000000001</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" hidden="1">
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" hidden="1">
@@ -1793,23 +1793,25 @@
         <v>0</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" hidden="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15">
       <c r="A40" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B40" s="12">
         <v>2788.96</v>
       </c>
-      <c r="C40" s="11"/>
+      <c r="C40" s="11">
+        <v>6</v>
+      </c>
       <c r="D40" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16733.760000000002</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" hidden="1">
@@ -1825,30 +1827,28 @@
         <v>0</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" hidden="1">
       <c r="A42" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B42" s="12">
         <v>6397.96</v>
       </c>
-      <c r="C42" s="11">
-        <v>3</v>
-      </c>
+      <c r="C42" s="11"/>
       <c r="D42" s="13">
         <f t="shared" si="0"/>
-        <v>19193.88</v>
+        <v>0</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" hidden="1">
       <c r="A43" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" s="12">
         <v>5158.87</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" hidden="1">
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" hidden="1">
@@ -1905,12 +1905,12 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" hidden="1">
       <c r="A47" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B47" s="12">
         <v>7851.58</v>
@@ -1921,12 +1921,12 @@
         <v>0</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" hidden="1">
       <c r="A48" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B48" s="12">
         <v>7714.24</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" hidden="1">
@@ -1953,12 +1953,12 @@
         <v>0</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" hidden="1">
       <c r="A50" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B50" s="12">
         <v>7309.23</v>
@@ -1969,12 +1969,12 @@
         <v>0</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1">
       <c r="A51" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B51" s="12">
         <v>8877.14</v>
@@ -1985,12 +1985,12 @@
         <v>0</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" hidden="1">
       <c r="A52" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B52" s="12">
         <v>8573.3799999999992</v>
@@ -2001,28 +2001,30 @@
         <v>0</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" hidden="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15">
       <c r="A53" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B53" s="12">
         <v>8967.36</v>
       </c>
-      <c r="C53" s="11"/>
+      <c r="C53" s="11">
+        <v>2</v>
+      </c>
       <c r="D53" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17934.72</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" hidden="1">
       <c r="A54" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B54" s="12">
         <v>9012.48</v>
@@ -2033,12 +2035,12 @@
         <v>0</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" hidden="1">
       <c r="A55" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55" s="12">
         <v>1199.9925000000001</v>
@@ -2052,7 +2054,7 @@
     </row>
     <row r="56" spans="1:5" ht="15" hidden="1">
       <c r="A56" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B56" s="31">
         <v>7309.2275</v>
@@ -2063,12 +2065,12 @@
         <v>0</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" hidden="1">
       <c r="A57" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B57" s="12">
         <v>1423.55</v>
@@ -2082,7 +2084,7 @@
     </row>
     <row r="58" spans="1:5" ht="15" hidden="1">
       <c r="A58" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B58" s="12">
         <v>1435.58</v>
@@ -2096,7 +2098,7 @@
     </row>
     <row r="59" spans="1:5" ht="15" hidden="1">
       <c r="A59" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B59" s="12">
         <v>1551.87</v>
@@ -2110,7 +2112,7 @@
     </row>
     <row r="60" spans="1:5" ht="15" hidden="1">
       <c r="A60" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" s="12">
         <v>1695.2275</v>
@@ -2121,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" hidden="1">
@@ -2140,7 +2142,7 @@
     </row>
     <row r="62" spans="1:5" ht="15" hidden="1">
       <c r="A62" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B62" s="34">
         <v>1169.9175</v>
@@ -2151,28 +2153,30 @@
         <v>0</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15" hidden="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15">
       <c r="A63" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B63" s="31">
         <v>4973.3999999999996</v>
       </c>
-      <c r="C63" s="11"/>
+      <c r="C63" s="11">
+        <v>2</v>
+      </c>
       <c r="D63" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9946.7999999999993</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" hidden="1">
       <c r="A64" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B64" s="33">
         <v>1053.6275000000001</v>
@@ -2183,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" hidden="1">
@@ -2202,7 +2206,7 @@
     </row>
     <row r="66" spans="1:5" ht="15" hidden="1">
       <c r="A66" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B66" s="12">
         <v>1072.675</v>
@@ -2213,23 +2217,25 @@
         <v>0</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15" hidden="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15">
       <c r="A67" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B67" s="12">
         <v>1024.56</v>
       </c>
-      <c r="C67" s="11"/>
+      <c r="C67" s="11">
+        <v>20</v>
+      </c>
       <c r="D67" s="13">
         <f>B67*C67</f>
-        <v>0</v>
+        <v>20491.199999999997</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" hidden="1">
@@ -2246,23 +2252,27 @@
       </c>
       <c r="E68" s="11"/>
     </row>
-    <row r="69" spans="1:5" ht="15" hidden="1">
+    <row r="69" spans="1:5" ht="15">
       <c r="A69" s="11" t="s">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="B69" s="12">
-        <v>1135.8325</v>
-      </c>
-      <c r="C69" s="11"/>
+        <v>1092.7249999999999</v>
+      </c>
+      <c r="C69" s="11">
+        <v>20</v>
+      </c>
       <c r="D69" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E69" s="11"/>
+        <v>21854.5</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="70" spans="1:5" ht="15" hidden="1">
       <c r="A70" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B70" s="31">
         <v>4165.3874999999998</v>
@@ -2273,12 +2283,12 @@
         <v>0</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" hidden="1">
       <c r="A71" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B71" s="12">
         <v>1174.93</v>
@@ -2290,27 +2300,25 @@
       </c>
       <c r="E71" s="11"/>
     </row>
-    <row r="72" spans="1:5" ht="15">
+    <row r="72" spans="1:5" ht="15" hidden="1">
       <c r="A72" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B72" s="12">
         <v>1014.53</v>
       </c>
-      <c r="C72" s="11">
-        <v>10</v>
-      </c>
+      <c r="C72" s="11"/>
       <c r="D72" s="13">
         <f>B72*C72</f>
-        <v>10145.299999999999</v>
+        <v>0</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" hidden="1">
       <c r="A73" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B73" s="12">
         <v>1273.175</v>
@@ -2324,7 +2332,7 @@
     </row>
     <row r="74" spans="1:5" ht="15" hidden="1">
       <c r="A74" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B74" s="12">
         <v>1077.6875</v>
@@ -2335,12 +2343,12 @@
         <v>0</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" hidden="1">
       <c r="A75" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B75" s="12">
         <v>1101.75</v>
@@ -2352,25 +2360,27 @@
       </c>
       <c r="E75" s="11"/>
     </row>
-    <row r="76" spans="1:5" ht="15" hidden="1">
+    <row r="76" spans="1:5" ht="15">
       <c r="A76" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B76" s="12">
         <v>1072.675</v>
       </c>
-      <c r="C76" s="11"/>
+      <c r="C76" s="11">
+        <v>40</v>
+      </c>
       <c r="D76" s="13">
         <f>C76*B76</f>
-        <v>0</v>
+        <v>42907</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" hidden="1">
       <c r="A77" s="11" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B77" s="12">
         <v>1297.2349999999999</v>
@@ -2381,12 +2391,12 @@
         <v>0</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" hidden="1">
       <c r="A78" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B78" s="12">
         <v>1189.9675</v>
@@ -2397,12 +2407,12 @@
         <v>0</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" hidden="1">
       <c r="A79" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B79" s="12">
         <v>8150.3249999999998</v>
@@ -2416,7 +2426,7 @@
     </row>
     <row r="80" spans="1:5" ht="15" hidden="1">
       <c r="A80" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B80" s="12">
         <v>9067.6124999999993</v>
@@ -2430,7 +2440,7 @@
     </row>
     <row r="81" spans="1:5" ht="15" hidden="1">
       <c r="A81" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B81" s="12">
         <v>8565.36</v>
@@ -2441,12 +2451,12 @@
         <v>0</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15" hidden="1">
       <c r="A82" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B82" s="12">
         <v>11854.5625</v>
@@ -2460,7 +2470,7 @@
     </row>
     <row r="83" spans="1:5" ht="15" hidden="1">
       <c r="A83" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B83" s="12">
         <v>10616.475</v>
@@ -2471,12 +2481,12 @@
         <v>0</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" hidden="1">
       <c r="A84" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B84" s="12">
         <v>12215.4625</v>
@@ -2487,12 +2497,12 @@
         <v>0</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" hidden="1">
       <c r="A85" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" s="12">
         <v>12691.65</v>
@@ -2503,12 +2513,12 @@
         <v>0</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15" hidden="1">
       <c r="A86" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B86" s="12">
         <v>9097.6875</v>
@@ -2519,12 +2529,12 @@
         <v>0</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15" hidden="1">
       <c r="A87" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B87" s="12">
         <v>10285.65</v>
@@ -2535,12 +2545,12 @@
         <v>0</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" hidden="1">
       <c r="A88" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B88" s="12">
         <v>6342.8175000000001</v>
@@ -2551,12 +2561,12 @@
         <v>0</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15" hidden="1">
       <c r="A89" s="11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B89" s="12"/>
       <c r="C89" s="11"/>
@@ -2565,12 +2575,12 @@
         <v>0</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15" hidden="1">
       <c r="A90" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B90" s="12">
         <v>17443.5</v>
@@ -2584,7 +2594,7 @@
     </row>
     <row r="91" spans="1:5" ht="15" hidden="1">
       <c r="A91" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B91" s="12">
         <v>13914.7</v>
@@ -2598,7 +2608,7 @@
     </row>
     <row r="92" spans="1:5" ht="15" hidden="1">
       <c r="A92" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B92" s="12">
         <v>10133.27</v>
@@ -2612,7 +2622,7 @@
     </row>
     <row r="93" spans="1:5" ht="15" hidden="1">
       <c r="A93" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B93" s="12">
         <v>23704.11</v>
@@ -2626,7 +2636,7 @@
     </row>
     <row r="94" spans="1:5" ht="15" hidden="1">
       <c r="A94" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B94" s="12">
         <v>1371.42</v>
@@ -2637,12 +2647,12 @@
         <v>0</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" hidden="1">
       <c r="A95" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B95" s="12">
         <v>1410.5174999999999</v>
@@ -2656,7 +2666,7 @@
     </row>
     <row r="96" spans="1:5" ht="15" hidden="1">
       <c r="A96" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B96" s="12">
         <v>1694.2249999999999</v>
@@ -2667,12 +2677,12 @@
         <v>0</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" hidden="1">
       <c r="A97" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B97" s="17">
         <v>1219.04</v>
@@ -2683,12 +2693,12 @@
         <v>0</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15" hidden="1">
       <c r="A98" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B98" s="18">
         <v>1336.33</v>
@@ -2699,12 +2709,12 @@
         <v>0</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15" hidden="1">
       <c r="A99" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B99" s="12">
         <v>1871.6675</v>
@@ -2718,7 +2728,7 @@
     </row>
     <row r="100" spans="1:5" ht="15" hidden="1">
       <c r="A100" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B100" s="12">
         <v>1854.625</v>
@@ -2732,7 +2742,7 @@
     </row>
     <row r="101" spans="1:5" ht="15" hidden="1">
       <c r="A101" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B101" s="12">
         <v>1446.6075000000001</v>
@@ -2746,7 +2756,7 @@
     </row>
     <row r="102" spans="1:5" ht="15" hidden="1">
       <c r="A102" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B102" s="12">
         <v>7586.92</v>
@@ -2757,12 +2767,12 @@
         <v>0</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15" hidden="1">
       <c r="A103" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B103" s="12">
         <v>8641.5499999999993</v>
@@ -2773,12 +2783,12 @@
         <v>0</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" hidden="1">
       <c r="A104" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B104" s="12">
         <v>5183.9274999999998</v>
@@ -2789,12 +2799,12 @@
         <v>0</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" hidden="1">
       <c r="A105" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B105" s="12">
         <v>5455.6049999999996</v>
@@ -2805,12 +2815,12 @@
         <v>0</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15" hidden="1">
       <c r="A106" s="11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B106" s="12">
         <v>4526.2875000000004</v>
@@ -2821,12 +2831,12 @@
         <v>0</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15" hidden="1">
       <c r="A107" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B107" s="12">
         <v>5510.74</v>
@@ -2837,12 +2847,12 @@
         <v>0</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15" hidden="1">
       <c r="A108" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="12">
         <v>4896.21</v>
@@ -2853,12 +2863,12 @@
         <v>0</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15" hidden="1">
       <c r="A109" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B109" s="12">
         <v>5150.8500000000004</v>
@@ -2869,12 +2879,12 @@
         <v>0</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" hidden="1">
       <c r="A110" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B110" s="12">
         <v>4973.3999999999996</v>
@@ -2885,12 +2895,12 @@
         <v>0</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" hidden="1">
       <c r="A111" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B111" s="12">
         <v>5423.53</v>
@@ -2901,12 +2911,12 @@
         <v>0</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15" hidden="1">
       <c r="A112" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" s="12">
         <v>5940.82</v>
@@ -2917,12 +2927,12 @@
         <v>0</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15" hidden="1">
       <c r="A113" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B113" s="12">
         <v>5257.11</v>
@@ -2933,12 +2943,12 @@
         <v>0</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15" hidden="1">
       <c r="A114" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B114" s="12">
         <v>2900.2325000000001</v>
@@ -2949,12 +2959,12 @@
         <v>0</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15" hidden="1">
       <c r="A115" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B115" s="12">
         <v>3143.84</v>
@@ -2965,12 +2975,12 @@
         <v>0</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15" hidden="1">
       <c r="A116" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B116" s="12">
         <v>3518.7750000000001</v>
@@ -2984,7 +2994,7 @@
     </row>
     <row r="117" spans="1:5" ht="15" hidden="1">
       <c r="A117" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B117" s="12">
         <v>3556.87</v>
@@ -2995,12 +3005,12 @@
         <v>0</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" hidden="1">
       <c r="A118" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B118" s="12">
         <v>3471.66</v>
@@ -3011,12 +3021,12 @@
         <v>0</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" hidden="1">
       <c r="A119" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B119" s="12">
         <v>3919.7750000000001</v>
@@ -3027,12 +3037,12 @@
         <v>0</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15" hidden="1">
       <c r="A120" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B120" s="12">
         <v>4534.3074999999999</v>
@@ -3043,12 +3053,12 @@
         <v>0</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" hidden="1">
       <c r="A121" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B121" s="12">
         <v>3433.56</v>
@@ -3059,12 +3069,12 @@
         <v>0</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15" hidden="1">
       <c r="A122" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B122" s="12">
         <v>4476.1625000000004</v>
@@ -3076,25 +3086,27 @@
       </c>
       <c r="E122" s="11"/>
     </row>
-    <row r="123" spans="1:5" ht="15" hidden="1">
+    <row r="123" spans="1:5" ht="15">
       <c r="A123" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123" s="12">
         <v>4389.95</v>
       </c>
-      <c r="C123" s="11"/>
+      <c r="C123" s="11">
+        <v>3</v>
+      </c>
       <c r="D123" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13169.849999999999</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" hidden="1">
       <c r="A124" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B124" s="12">
         <v>5269.14</v>
@@ -3105,12 +3117,12 @@
         <v>0</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15" hidden="1">
       <c r="A125" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B125" s="12">
         <v>5921.7674999999999</v>
@@ -3121,12 +3133,12 @@
         <v>0</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="12" hidden="1" customHeight="1">
       <c r="A126" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B126" s="12">
         <v>1170.92</v>
@@ -3137,12 +3149,12 @@
         <v>0</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" hidden="1">
       <c r="A127" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B127" s="12">
         <v>3934.8125</v>
@@ -3153,44 +3165,48 @@
         <v>0</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="15" hidden="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15">
       <c r="A128" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B128" s="12">
         <v>4027.0425</v>
       </c>
-      <c r="C128" s="11"/>
+      <c r="C128" s="11">
+        <v>2</v>
+      </c>
       <c r="D128" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8054.085</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="15" hidden="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B129" s="12">
         <v>3892.71</v>
       </c>
-      <c r="C129" s="11"/>
+      <c r="C129" s="11">
+        <v>2</v>
+      </c>
       <c r="D129" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7785.42</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15" hidden="1">
       <c r="A130" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B130" s="12">
         <v>4507.24</v>
@@ -3201,12 +3217,12 @@
         <v>0</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15" hidden="1">
       <c r="A131" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B131" s="12">
         <v>4409</v>
@@ -3217,12 +3233,12 @@
         <v>0</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15" hidden="1">
       <c r="A132" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132" s="12">
         <v>4165.3900000000003</v>
@@ -3233,12 +3249,12 @@
         <v>0</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15" hidden="1">
       <c r="A133" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B133" s="12">
         <v>4115.26</v>
@@ -3249,12 +3265,12 @@
         <v>0</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15" hidden="1">
       <c r="A134" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B134" s="12">
         <v>12741.775</v>
@@ -3268,7 +3284,7 @@
     </row>
     <row r="135" spans="1:9" ht="15" hidden="1">
       <c r="A135" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B135" s="12">
         <v>12310.7</v>
@@ -3279,21 +3295,21 @@
         <v>0</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="136" spans="1:9" s="2" customFormat="1" ht="15">
       <c r="A136" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B136" s="41"/>
       <c r="C136" s="19">
         <f>SUM(C5:C135)</f>
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="D136" s="20">
-        <f>SUM(D5:D135)</f>
-        <v>100358.35000000002</v>
+        <f>SUBTOTAL(9,D8:D135)</f>
+        <v>260821.91</v>
       </c>
       <c r="E136" s="19"/>
     </row>
@@ -3303,7 +3319,7 @@
     <row r="138" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A138" s="21"/>
       <c r="B138" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C138" s="42"/>
       <c r="D138" s="42"/>
@@ -3312,13 +3328,13 @@
     <row r="139" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A139" s="23"/>
       <c r="B139" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C139" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C139" s="24" t="s">
-        <v>71</v>
-      </c>
       <c r="D139" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E139" s="22"/>
       <c r="I139" s="25"/>
@@ -3326,7 +3342,7 @@
     <row r="140" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A140" s="26"/>
       <c r="B140" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C140" s="27">
         <v>0</v>
@@ -3337,10 +3353,10 @@
     <row r="141" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A141" s="26"/>
       <c r="B141" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C141" s="32">
-        <v>100000</v>
+        <v>260000</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="22"/>
@@ -3348,7 +3364,7 @@
     <row r="142" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A142" s="26"/>
       <c r="B142" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C142" s="27">
         <v>0</v>
@@ -3359,7 +3375,7 @@
     <row r="143" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A143" s="26"/>
       <c r="B143" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C143" s="27"/>
       <c r="D143" s="11"/>
@@ -3368,7 +3384,7 @@
     <row r="144" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A144" s="26"/>
       <c r="B144" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C144" s="27">
         <v>0</v>
@@ -3379,7 +3395,7 @@
     <row r="145" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A145" s="26"/>
       <c r="B145" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C145" s="27">
         <v>0</v>
@@ -3390,11 +3406,11 @@
     <row r="146" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A146" s="23"/>
       <c r="B146" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C146" s="29">
         <f>SUM(C140:C145)</f>
-        <v>100000</v>
+        <v>260000</v>
       </c>
       <c r="D146" s="30"/>
       <c r="E146" s="22"/>
@@ -3405,7 +3421,7 @@
       <c r="D147" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:E136">
+  <autoFilter ref="A4:E135">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="173">
   <si>
     <t>Model Name</t>
   </si>
@@ -445,9 +445,6 @@
     <t>Darkblue</t>
   </si>
   <si>
-    <t>Black_Blue</t>
-  </si>
-  <si>
     <t>BL90</t>
   </si>
   <si>
@@ -496,9 +493,6 @@
     <t>i65</t>
   </si>
   <si>
-    <t xml:space="preserve"> Black, Gold, Dark_Blue </t>
-  </si>
-  <si>
     <t>R40</t>
   </si>
   <si>
@@ -523,16 +517,25 @@
     <t>D54+</t>
   </si>
   <si>
-    <t>11.05.19</t>
-  </si>
-  <si>
     <t xml:space="preserve">Black&amp;Gold </t>
   </si>
   <si>
     <t xml:space="preserve"> Gold</t>
   </si>
   <si>
-    <t>Light_Blue</t>
+    <t>12.05.19</t>
+  </si>
+  <si>
+    <t>Black &amp; Black_blue</t>
+  </si>
+  <si>
+    <t>Black_Blue &amp; Black_Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Black,Dark_Blue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black </t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1198,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G137" sqref="G137"/>
+      <selection pane="bottomRight" activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1260,20 +1263,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" hidden="1">
+    <row r="5" spans="1:5" ht="15">
       <c r="A5" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B5" s="12">
         <v>779.95</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="11">
+        <v>20</v>
+      </c>
       <c r="D5" s="13">
         <f>C5*B5</f>
-        <v>0</v>
+        <v>15599</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" hidden="1">
@@ -1308,7 +1313,7 @@
     </row>
     <row r="8" spans="1:5" ht="15" hidden="1">
       <c r="A8" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="12">
         <v>769.92</v>
@@ -1324,7 +1329,7 @@
     </row>
     <row r="9" spans="1:5" ht="15" hidden="1">
       <c r="A9" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" s="12">
         <v>896.23500000000001</v>
@@ -1338,37 +1343,33 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15">
+    <row r="10" spans="1:5" ht="15" hidden="1">
       <c r="A10" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" s="12">
         <v>901.24749999999995</v>
       </c>
-      <c r="C10" s="11">
-        <v>10</v>
-      </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="13">
         <f>B10*C10</f>
-        <v>9012.4749999999985</v>
+        <v>0</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" hidden="1">
       <c r="A11" s="11" t="s">
         <v>117</v>
       </c>
       <c r="B11" s="12">
         <v>858.14</v>
       </c>
-      <c r="C11" s="11">
-        <v>20</v>
-      </c>
+      <c r="C11" s="11"/>
       <c r="D11" s="13">
         <f t="shared" si="0"/>
-        <v>17162.8</v>
+        <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>141</v>
@@ -1387,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" hidden="1">
@@ -1406,7 +1407,7 @@
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A14" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B14" s="15">
         <v>1159.8900000000001</v>
@@ -1447,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" hidden="1">
@@ -1464,38 +1465,38 @@
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5" ht="15">
+    <row r="18" spans="1:5" ht="15" hidden="1">
       <c r="A18" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B18" s="12">
         <v>1140.8499999999999</v>
       </c>
-      <c r="C18" s="11">
-        <v>50</v>
-      </c>
+      <c r="C18" s="11"/>
       <c r="D18" s="13">
         <f t="shared" si="0"/>
-        <v>57042.499999999993</v>
+        <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" hidden="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15">
       <c r="A19" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="12">
         <v>975.4325</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="11">
+        <v>10</v>
+      </c>
       <c r="D19" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9754.3250000000007</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
@@ -1572,20 +1573,22 @@
       </c>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A25" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="15">
         <v>980.44500000000005</v>
       </c>
-      <c r="C25" s="11"/>
+      <c r="C25" s="11">
+        <v>15</v>
+      </c>
       <c r="D25" s="16">
         <f>C25*B25</f>
-        <v>0</v>
+        <v>14706.675000000001</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" hidden="1">
@@ -1602,19 +1605,17 @@
       </c>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A27" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B27" s="15">
         <v>936.34</v>
       </c>
-      <c r="C27" s="11">
-        <v>20</v>
-      </c>
+      <c r="C27" s="11"/>
       <c r="D27" s="16">
         <f t="shared" si="0"/>
-        <v>18726.8</v>
+        <v>0</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>141</v>
@@ -1622,7 +1623,7 @@
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A28" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B28" s="15">
         <v>5607.99</v>
@@ -1804,14 +1805,14 @@
         <v>2788.96</v>
       </c>
       <c r="C40" s="11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D40" s="13">
         <f t="shared" si="0"/>
-        <v>16733.760000000002</v>
+        <v>5577.92</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" hidden="1">
@@ -1859,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" hidden="1">
@@ -1956,20 +1957,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" hidden="1">
+    <row r="50" spans="1:5" ht="15">
       <c r="A50" s="11" t="s">
         <v>132</v>
       </c>
       <c r="B50" s="12">
         <v>7309.23</v>
       </c>
-      <c r="C50" s="11"/>
+      <c r="C50" s="11">
+        <v>2</v>
+      </c>
       <c r="D50" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14618.46</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1">
@@ -2004,19 +2007,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15">
+    <row r="53" spans="1:5" ht="15" hidden="1">
       <c r="A53" s="11" t="s">
         <v>108</v>
       </c>
       <c r="B53" s="12">
         <v>8967.36</v>
       </c>
-      <c r="C53" s="11">
-        <v>2</v>
-      </c>
+      <c r="C53" s="11"/>
       <c r="D53" s="13">
         <f t="shared" si="0"/>
-        <v>17934.72</v>
+        <v>0</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>80</v>
@@ -2142,7 +2143,7 @@
     </row>
     <row r="62" spans="1:5" ht="15" hidden="1">
       <c r="A62" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B62" s="34">
         <v>1169.9175</v>
@@ -2156,19 +2157,17 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15">
+    <row r="63" spans="1:5" ht="15" hidden="1">
       <c r="A63" s="11" t="s">
         <v>133</v>
       </c>
       <c r="B63" s="31">
         <v>4973.3999999999996</v>
       </c>
-      <c r="C63" s="11">
-        <v>2</v>
-      </c>
+      <c r="C63" s="11"/>
       <c r="D63" s="13">
         <f t="shared" si="0"/>
-        <v>9946.7999999999993</v>
+        <v>0</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>80</v>
@@ -2176,7 +2175,7 @@
     </row>
     <row r="64" spans="1:5" ht="15" hidden="1">
       <c r="A64" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B64" s="33">
         <v>1053.6275000000001</v>
@@ -2187,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" hidden="1">
@@ -2206,7 +2205,7 @@
     </row>
     <row r="66" spans="1:5" ht="15" hidden="1">
       <c r="A66" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B66" s="12">
         <v>1072.675</v>
@@ -2222,20 +2221,20 @@
     </row>
     <row r="67" spans="1:5" ht="15">
       <c r="A67" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B67" s="12">
         <v>1024.56</v>
       </c>
       <c r="C67" s="11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D67" s="13">
         <f>B67*C67</f>
-        <v>20491.199999999997</v>
+        <v>18442.079999999998</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>171</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" hidden="1">
@@ -2252,19 +2251,17 @@
       </c>
       <c r="E68" s="11"/>
     </row>
-    <row r="69" spans="1:5" ht="15">
+    <row r="69" spans="1:5" ht="15" hidden="1">
       <c r="A69" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B69" s="12">
         <v>1092.7249999999999</v>
       </c>
-      <c r="C69" s="11">
-        <v>20</v>
-      </c>
+      <c r="C69" s="11"/>
       <c r="D69" s="13">
         <f t="shared" si="0"/>
-        <v>21854.5</v>
+        <v>0</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>85</v>
@@ -2302,7 +2299,7 @@
     </row>
     <row r="72" spans="1:5" ht="15" hidden="1">
       <c r="A72" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B72" s="12">
         <v>1014.53</v>
@@ -2313,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" hidden="1">
@@ -2362,25 +2359,25 @@
     </row>
     <row r="76" spans="1:5" ht="15">
       <c r="A76" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B76" s="12">
         <v>1072.675</v>
       </c>
       <c r="C76" s="11">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D76" s="13">
         <f>C76*B76</f>
-        <v>42907</v>
+        <v>37543.625</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" hidden="1">
       <c r="A77" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B77" s="12">
         <v>1297.2349999999999</v>
@@ -2396,7 +2393,7 @@
     </row>
     <row r="78" spans="1:5" ht="15" hidden="1">
       <c r="A78" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B78" s="12">
         <v>1189.9675</v>
@@ -2407,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" hidden="1">
@@ -2566,7 +2563,7 @@
     </row>
     <row r="89" spans="1:5" ht="15" hidden="1">
       <c r="A89" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B89" s="12"/>
       <c r="C89" s="11"/>
@@ -2820,7 +2817,7 @@
     </row>
     <row r="106" spans="1:5" ht="15" hidden="1">
       <c r="A106" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B106" s="12">
         <v>4526.2875000000004</v>
@@ -2943,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15" hidden="1">
@@ -3086,22 +3083,20 @@
       </c>
       <c r="E122" s="11"/>
     </row>
-    <row r="123" spans="1:5" ht="15">
+    <row r="123" spans="1:5" ht="15" hidden="1">
       <c r="A123" s="11" t="s">
         <v>122</v>
       </c>
       <c r="B123" s="12">
         <v>4389.95</v>
       </c>
-      <c r="C123" s="11">
-        <v>3</v>
-      </c>
+      <c r="C123" s="11"/>
       <c r="D123" s="13">
         <f t="shared" si="3"/>
-        <v>13169.849999999999</v>
+        <v>0</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" hidden="1">
@@ -3138,7 +3133,7 @@
     </row>
     <row r="126" spans="1:5" ht="12" hidden="1" customHeight="1">
       <c r="A126" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B126" s="12">
         <v>1170.92</v>
@@ -3168,37 +3163,33 @@
         <v>80</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15">
+    <row r="128" spans="1:5" ht="15" hidden="1">
       <c r="A128" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B128" s="12">
         <v>4027.0425</v>
       </c>
-      <c r="C128" s="11">
-        <v>2</v>
-      </c>
+      <c r="C128" s="11"/>
       <c r="D128" s="13">
         <f t="shared" si="3"/>
-        <v>8054.085</v>
+        <v>0</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15" hidden="1">
       <c r="A129" s="11" t="s">
         <v>121</v>
       </c>
       <c r="B129" s="12">
         <v>3892.71</v>
       </c>
-      <c r="C129" s="11">
-        <v>2</v>
-      </c>
+      <c r="C129" s="11"/>
       <c r="D129" s="13">
         <f t="shared" si="3"/>
-        <v>7785.42</v>
+        <v>0</v>
       </c>
       <c r="E129" s="11" t="s">
         <v>137</v>
@@ -3305,11 +3296,11 @@
       <c r="B136" s="41"/>
       <c r="C136" s="19">
         <f>SUM(C5:C135)</f>
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="D136" s="20">
         <f>SUBTOTAL(9,D8:D135)</f>
-        <v>260821.91</v>
+        <v>100643.08499999999</v>
       </c>
       <c r="E136" s="19"/>
     </row>
@@ -3356,7 +3347,7 @@
         <v>72</v>
       </c>
       <c r="C141" s="32">
-        <v>260000</v>
+        <v>100000</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="22"/>
@@ -3410,7 +3401,7 @@
       </c>
       <c r="C146" s="29">
         <f>SUM(C140:C145)</f>
-        <v>260000</v>
+        <v>100000</v>
       </c>
       <c r="D146" s="30"/>
       <c r="E146" s="22"/>

--- a/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -523,9 +523,6 @@
     <t xml:space="preserve"> Gold</t>
   </si>
   <si>
-    <t>12.05.19</t>
-  </si>
-  <si>
     <t>Black &amp; Black_blue</t>
   </si>
   <si>
@@ -536,6 +533,9 @@
   </si>
   <si>
     <t xml:space="preserve">Black </t>
+  </si>
+  <si>
+    <t>14.05.19</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1198,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E140" sqref="E140"/>
+      <selection pane="bottomRight" activeCell="J145" sqref="J145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1243,7 +1243,7 @@
         <v>77</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1271,14 +1271,14 @@
         <v>779.95</v>
       </c>
       <c r="C5" s="11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D5" s="13">
         <f>C5*B5</f>
-        <v>15599</v>
+        <v>46797</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" hidden="1">
@@ -1405,20 +1405,22 @@
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="14" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A14" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B14" s="15">
         <v>1159.8900000000001</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="11">
+        <v>100</v>
+      </c>
       <c r="D14" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>115989.00000000001</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" hidden="1">
@@ -1481,22 +1483,20 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15">
+    <row r="19" spans="1:5" ht="15" hidden="1">
       <c r="A19" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="12">
         <v>975.4325</v>
       </c>
-      <c r="C19" s="11">
-        <v>10</v>
-      </c>
+      <c r="C19" s="11"/>
       <c r="D19" s="13">
         <f t="shared" si="0"/>
-        <v>9754.3250000000007</v>
+        <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
@@ -1573,19 +1573,17 @@
       </c>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A25" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="15">
         <v>980.44500000000005</v>
       </c>
-      <c r="C25" s="11">
-        <v>15</v>
-      </c>
+      <c r="C25" s="11"/>
       <c r="D25" s="16">
         <f>C25*B25</f>
-        <v>14706.675000000001</v>
+        <v>0</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>144</v>
@@ -1621,17 +1619,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A28" s="14" t="s">
         <v>157</v>
       </c>
       <c r="B28" s="15">
         <v>5607.99</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="11">
+        <v>2</v>
+      </c>
       <c r="D28" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11215.98</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>85</v>
@@ -1797,19 +1797,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15">
+    <row r="40" spans="1:5" ht="15" hidden="1">
       <c r="A40" s="11" t="s">
         <v>120</v>
       </c>
       <c r="B40" s="12">
         <v>2788.96</v>
       </c>
-      <c r="C40" s="11">
-        <v>2</v>
-      </c>
+      <c r="C40" s="11"/>
       <c r="D40" s="13">
         <f t="shared" si="0"/>
-        <v>5577.92</v>
+        <v>0</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>146</v>
@@ -1957,22 +1955,20 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15">
+    <row r="50" spans="1:5" ht="15" hidden="1">
       <c r="A50" s="11" t="s">
         <v>132</v>
       </c>
       <c r="B50" s="12">
         <v>7309.23</v>
       </c>
-      <c r="C50" s="11">
-        <v>2</v>
-      </c>
+      <c r="C50" s="11"/>
       <c r="D50" s="13">
         <f t="shared" si="0"/>
-        <v>14618.46</v>
+        <v>0</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1">
@@ -2227,11 +2223,11 @@
         <v>1024.56</v>
       </c>
       <c r="C67" s="11">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D67" s="13">
         <f>B67*C67</f>
-        <v>18442.079999999998</v>
+        <v>10245.599999999999</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>85</v>
@@ -2357,22 +2353,20 @@
       </c>
       <c r="E75" s="11"/>
     </row>
-    <row r="76" spans="1:5" ht="15">
+    <row r="76" spans="1:5" ht="15" hidden="1">
       <c r="A76" s="11" t="s">
         <v>145</v>
       </c>
       <c r="B76" s="12">
         <v>1072.675</v>
       </c>
-      <c r="C76" s="11">
-        <v>35</v>
-      </c>
+      <c r="C76" s="11"/>
       <c r="D76" s="13">
         <f>C76*B76</f>
-        <v>37543.625</v>
+        <v>0</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" hidden="1">
@@ -2391,17 +2385,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" hidden="1">
+    <row r="78" spans="1:5" ht="15">
       <c r="A78" s="11" t="s">
         <v>151</v>
       </c>
       <c r="B78" s="12">
         <v>1189.9675</v>
       </c>
-      <c r="C78" s="11"/>
+      <c r="C78" s="11">
+        <v>10</v>
+      </c>
       <c r="D78" s="13">
         <f>C78*B78</f>
-        <v>0</v>
+        <v>11899.674999999999</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>144</v>
@@ -3296,11 +3292,11 @@
       <c r="B136" s="41"/>
       <c r="C136" s="19">
         <f>SUM(C5:C135)</f>
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="D136" s="20">
         <f>SUBTOTAL(9,D8:D135)</f>
-        <v>100643.08499999999</v>
+        <v>149350.255</v>
       </c>
       <c r="E136" s="19"/>
     </row>
@@ -3347,7 +3343,7 @@
         <v>72</v>
       </c>
       <c r="C141" s="32">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="22"/>
@@ -3401,7 +3397,7 @@
       </c>
       <c r="C146" s="29">
         <f>SUM(C140:C145)</f>
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="D146" s="30"/>
       <c r="E146" s="22"/>

--- a/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="172">
   <si>
     <t>Model Name</t>
   </si>
@@ -517,25 +517,22 @@
     <t>D54+</t>
   </si>
   <si>
-    <t xml:space="preserve">Black&amp;Gold </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Gold</t>
   </si>
   <si>
-    <t>Black &amp; Black_blue</t>
-  </si>
-  <si>
-    <t>Black_Blue &amp; Black_Red</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Black,Dark_Blue </t>
   </si>
   <si>
     <t xml:space="preserve">Black </t>
   </si>
   <si>
-    <t>14.05.19</t>
+    <t>Black_blue</t>
+  </si>
+  <si>
+    <t>Black_Blue</t>
+  </si>
+  <si>
+    <t>16.05.19</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1195,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J145" sqref="J145"/>
+      <selection pane="bottomRight" activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1243,7 +1240,7 @@
         <v>77</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1271,14 +1268,14 @@
         <v>779.95</v>
       </c>
       <c r="C5" s="11">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D5" s="13">
         <f>C5*B5</f>
-        <v>46797</v>
+        <v>31198</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" hidden="1">
@@ -1308,23 +1305,25 @@
         <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="11" t="s">
         <v>147</v>
       </c>
       <c r="B8" s="12">
         <v>769.92</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="11">
+        <v>20</v>
+      </c>
       <c r="D8" s="13">
         <f>B8*C8</f>
-        <v>0</v>
+        <v>15398.4</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" hidden="1">
@@ -1343,17 +1342,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" hidden="1">
+    <row r="10" spans="1:5" ht="15">
       <c r="A10" s="11" t="s">
         <v>142</v>
       </c>
       <c r="B10" s="12">
         <v>901.24749999999995</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="11">
+        <v>20</v>
+      </c>
       <c r="D10" s="13">
         <f>B10*C10</f>
-        <v>0</v>
+        <v>18024.949999999997</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>85</v>
@@ -1405,19 +1406,17 @@
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="14" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A14" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B14" s="15">
         <v>1159.8900000000001</v>
       </c>
-      <c r="C14" s="11">
-        <v>100</v>
-      </c>
+      <c r="C14" s="11"/>
       <c r="D14" s="16">
         <f t="shared" si="0"/>
-        <v>115989.00000000001</v>
+        <v>0</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>146</v>
@@ -1437,17 +1436,19 @@
       </c>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5" ht="15" hidden="1">
+    <row r="16" spans="1:5" ht="15">
       <c r="A16" s="11" t="s">
         <v>96</v>
       </c>
       <c r="B16" s="12">
         <v>868.17</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="11">
+        <v>20</v>
+      </c>
       <c r="D16" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17363.399999999998</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>152</v>
@@ -1467,36 +1468,40 @@
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5" ht="15" hidden="1">
+    <row r="18" spans="1:5" ht="15">
       <c r="A18" s="11" t="s">
         <v>165</v>
       </c>
       <c r="B18" s="12">
         <v>1140.8499999999999</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="11">
+        <v>10</v>
+      </c>
       <c r="D18" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11408.5</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" hidden="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15">
       <c r="A19" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="12">
         <v>975.4325</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="11">
+        <v>20</v>
+      </c>
       <c r="D19" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19508.650000000001</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
@@ -1603,38 +1608,38 @@
       </c>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A27" s="14" t="s">
         <v>162</v>
       </c>
       <c r="B27" s="15">
         <v>936.34</v>
       </c>
-      <c r="C27" s="11"/>
+      <c r="C27" s="11">
+        <v>20</v>
+      </c>
       <c r="D27" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18726.8</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A28" s="14" t="s">
         <v>157</v>
       </c>
       <c r="B28" s="15">
         <v>5607.99</v>
       </c>
-      <c r="C28" s="11">
-        <v>2</v>
-      </c>
+      <c r="C28" s="11"/>
       <c r="D28" s="16">
         <f t="shared" si="0"/>
-        <v>11215.98</v>
+        <v>0</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" hidden="1">
@@ -1679,17 +1684,19 @@
       </c>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A32" s="14" t="s">
         <v>99</v>
       </c>
       <c r="B32" s="15">
         <v>1159.8900000000001</v>
       </c>
-      <c r="C32" s="11"/>
+      <c r="C32" s="11">
+        <v>10</v>
+      </c>
       <c r="D32" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11598.900000000001</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>85</v>
@@ -1968,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1">
@@ -2215,19 +2222,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15">
+    <row r="67" spans="1:5" ht="15" hidden="1">
       <c r="A67" s="11" t="s">
         <v>148</v>
       </c>
       <c r="B67" s="12">
         <v>1024.56</v>
       </c>
-      <c r="C67" s="11">
-        <v>10</v>
-      </c>
+      <c r="C67" s="11"/>
       <c r="D67" s="13">
         <f>B67*C67</f>
-        <v>10245.599999999999</v>
+        <v>0</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>85</v>
@@ -2247,17 +2252,19 @@
       </c>
       <c r="E68" s="11"/>
     </row>
-    <row r="69" spans="1:5" ht="15" hidden="1">
+    <row r="69" spans="1:5" ht="15">
       <c r="A69" s="11" t="s">
         <v>164</v>
       </c>
       <c r="B69" s="12">
         <v>1092.7249999999999</v>
       </c>
-      <c r="C69" s="11"/>
+      <c r="C69" s="11">
+        <v>20</v>
+      </c>
       <c r="D69" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21854.5</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>85</v>
@@ -2293,17 +2300,19 @@
       </c>
       <c r="E71" s="11"/>
     </row>
-    <row r="72" spans="1:5" ht="15" hidden="1">
+    <row r="72" spans="1:5" ht="15">
       <c r="A72" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B72" s="12">
         <v>1014.53</v>
       </c>
-      <c r="C72" s="11"/>
+      <c r="C72" s="11">
+        <v>40</v>
+      </c>
       <c r="D72" s="13">
         <f>B72*C72</f>
-        <v>0</v>
+        <v>40581.199999999997</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>163</v>
@@ -2366,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" hidden="1">
@@ -2385,19 +2394,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15">
+    <row r="78" spans="1:5" ht="15" hidden="1">
       <c r="A78" s="11" t="s">
         <v>151</v>
       </c>
       <c r="B78" s="12">
         <v>1189.9675</v>
       </c>
-      <c r="C78" s="11">
-        <v>10</v>
-      </c>
+      <c r="C78" s="11"/>
       <c r="D78" s="13">
         <f>C78*B78</f>
-        <v>11899.674999999999</v>
+        <v>0</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>144</v>
@@ -2888,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" hidden="1">
@@ -3092,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" hidden="1">
@@ -3223,33 +3230,37 @@
         <v>80</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15" hidden="1">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="11" t="s">
         <v>131</v>
       </c>
       <c r="B132" s="12">
         <v>4165.3900000000003</v>
       </c>
-      <c r="C132" s="11"/>
+      <c r="C132" s="11">
+        <v>3</v>
+      </c>
       <c r="D132" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12496.170000000002</v>
       </c>
       <c r="E132" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15" hidden="1">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="11" t="s">
         <v>115</v>
       </c>
       <c r="B133" s="12">
         <v>4115.26</v>
       </c>
-      <c r="C133" s="11"/>
+      <c r="C133" s="11">
+        <v>3</v>
+      </c>
       <c r="D133" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12345.78</v>
       </c>
       <c r="E133" s="11" t="s">
         <v>80</v>
@@ -3292,11 +3303,11 @@
       <c r="B136" s="41"/>
       <c r="C136" s="19">
         <f>SUM(C5:C135)</f>
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="D136" s="20">
-        <f>SUBTOTAL(9,D8:D135)</f>
-        <v>149350.255</v>
+        <f>SUBTOTAL(9,D5:D135)</f>
+        <v>230505.25</v>
       </c>
       <c r="E136" s="19"/>
     </row>
@@ -3343,7 +3354,7 @@
         <v>72</v>
       </c>
       <c r="C141" s="32">
-        <v>150000</v>
+        <v>230000</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="22"/>
@@ -3397,7 +3408,7 @@
       </c>
       <c r="C146" s="29">
         <f>SUM(C140:C145)</f>
-        <v>150000</v>
+        <v>230000</v>
       </c>
       <c r="D146" s="30"/>
       <c r="E146" s="22"/>

--- a/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="173">
   <si>
     <t>Model Name</t>
   </si>
@@ -532,7 +532,10 @@
     <t>Black_Blue</t>
   </si>
   <si>
-    <t>16.05.19</t>
+    <t>19.05.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Black</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1198,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E141" sqref="E141"/>
+      <selection pane="bottomRight" activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1260,19 +1263,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15">
+    <row r="5" spans="1:5" ht="15" hidden="1">
       <c r="A5" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B5" s="12">
         <v>779.95</v>
       </c>
-      <c r="C5" s="11">
-        <v>40</v>
-      </c>
+      <c r="C5" s="11"/>
       <c r="D5" s="13">
         <f>C5*B5</f>
-        <v>31198</v>
+        <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>169</v>
@@ -1316,11 +1317,11 @@
         <v>769.92</v>
       </c>
       <c r="C8" s="11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D8" s="13">
         <f>B8*C8</f>
-        <v>15398.4</v>
+        <v>7699.2</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>153</v>
@@ -1342,35 +1343,35 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15">
+    <row r="10" spans="1:5" ht="15" hidden="1">
       <c r="A10" s="11" t="s">
         <v>142</v>
       </c>
       <c r="B10" s="12">
         <v>901.24749999999995</v>
       </c>
-      <c r="C10" s="11">
-        <v>20</v>
-      </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="13">
         <f>B10*C10</f>
-        <v>18024.949999999997</v>
+        <v>0</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" hidden="1">
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" s="11" t="s">
         <v>117</v>
       </c>
       <c r="B11" s="12">
         <v>858.14</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="11">
+        <v>20</v>
+      </c>
       <c r="D11" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17162.8</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>141</v>
@@ -1436,19 +1437,17 @@
       </c>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row r="16" spans="1:5" ht="15" hidden="1">
       <c r="A16" s="11" t="s">
         <v>96</v>
       </c>
       <c r="B16" s="12">
         <v>868.17</v>
       </c>
-      <c r="C16" s="11">
-        <v>20</v>
-      </c>
+      <c r="C16" s="11"/>
       <c r="D16" s="13">
         <f t="shared" si="0"/>
-        <v>17363.399999999998</v>
+        <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>152</v>
@@ -1486,19 +1485,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15">
+    <row r="19" spans="1:5" ht="15" hidden="1">
       <c r="A19" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="12">
         <v>975.4325</v>
       </c>
-      <c r="C19" s="11">
-        <v>20</v>
-      </c>
+      <c r="C19" s="11"/>
       <c r="D19" s="13">
         <f t="shared" si="0"/>
-        <v>19508.650000000001</v>
+        <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>170</v>
@@ -1578,20 +1575,22 @@
       </c>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A25" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="15">
         <v>980.44500000000005</v>
       </c>
-      <c r="C25" s="11"/>
+      <c r="C25" s="11">
+        <v>10</v>
+      </c>
       <c r="D25" s="16">
         <f>C25*B25</f>
-        <v>0</v>
+        <v>9804.4500000000007</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" hidden="1">
@@ -1608,19 +1607,17 @@
       </c>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A27" s="14" t="s">
         <v>162</v>
       </c>
       <c r="B27" s="15">
         <v>936.34</v>
       </c>
-      <c r="C27" s="11">
-        <v>20</v>
-      </c>
+      <c r="C27" s="11"/>
       <c r="D27" s="16">
         <f t="shared" si="0"/>
-        <v>18726.8</v>
+        <v>0</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>141</v>
@@ -1684,19 +1681,17 @@
       </c>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A32" s="14" t="s">
         <v>99</v>
       </c>
       <c r="B32" s="15">
         <v>1159.8900000000001</v>
       </c>
-      <c r="C32" s="11">
-        <v>10</v>
-      </c>
+      <c r="C32" s="11"/>
       <c r="D32" s="16">
         <f t="shared" si="0"/>
-        <v>11598.900000000001</v>
+        <v>0</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>85</v>
@@ -2010,17 +2005,19 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" hidden="1">
+    <row r="53" spans="1:5" ht="15">
       <c r="A53" s="11" t="s">
         <v>108</v>
       </c>
       <c r="B53" s="12">
         <v>8967.36</v>
       </c>
-      <c r="C53" s="11"/>
+      <c r="C53" s="11">
+        <v>3</v>
+      </c>
       <c r="D53" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26902.080000000002</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>80</v>
@@ -2222,17 +2219,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" hidden="1">
+    <row r="67" spans="1:5" ht="15">
       <c r="A67" s="11" t="s">
         <v>148</v>
       </c>
       <c r="B67" s="12">
         <v>1024.56</v>
       </c>
-      <c r="C67" s="11"/>
+      <c r="C67" s="11">
+        <v>10</v>
+      </c>
       <c r="D67" s="13">
         <f>B67*C67</f>
-        <v>0</v>
+        <v>10245.599999999999</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>85</v>
@@ -2260,14 +2259,14 @@
         <v>1092.7249999999999</v>
       </c>
       <c r="C69" s="11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D69" s="13">
         <f t="shared" si="0"/>
-        <v>21854.5</v>
+        <v>32781.75</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" hidden="1">
@@ -2300,19 +2299,17 @@
       </c>
       <c r="E71" s="11"/>
     </row>
-    <row r="72" spans="1:5" ht="15">
+    <row r="72" spans="1:5" ht="15" hidden="1">
       <c r="A72" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B72" s="12">
         <v>1014.53</v>
       </c>
-      <c r="C72" s="11">
-        <v>40</v>
-      </c>
+      <c r="C72" s="11"/>
       <c r="D72" s="13">
         <f>B72*C72</f>
-        <v>40581.199999999997</v>
+        <v>0</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>163</v>
@@ -3008,17 +3005,19 @@
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15" hidden="1">
+    <row r="118" spans="1:5" ht="15">
       <c r="A118" s="11" t="s">
         <v>105</v>
       </c>
       <c r="B118" s="12">
         <v>3471.66</v>
       </c>
-      <c r="C118" s="11"/>
+      <c r="C118" s="11">
+        <v>2</v>
+      </c>
       <c r="D118" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6943.32</v>
       </c>
       <c r="E118" s="11" t="s">
         <v>137</v>
@@ -3056,17 +3055,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15" hidden="1">
+    <row r="121" spans="1:5" ht="15">
       <c r="A121" s="11" t="s">
         <v>127</v>
       </c>
       <c r="B121" s="12">
         <v>3433.56</v>
       </c>
-      <c r="C121" s="11"/>
+      <c r="C121" s="11">
+        <v>2</v>
+      </c>
       <c r="D121" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6867.12</v>
       </c>
       <c r="E121" s="11" t="s">
         <v>134</v>
@@ -3086,17 +3087,19 @@
       </c>
       <c r="E122" s="11"/>
     </row>
-    <row r="123" spans="1:5" ht="15" hidden="1">
+    <row r="123" spans="1:5" ht="15">
       <c r="A123" s="11" t="s">
         <v>122</v>
       </c>
       <c r="B123" s="12">
         <v>4389.95</v>
       </c>
-      <c r="C123" s="11"/>
+      <c r="C123" s="11">
+        <v>3</v>
+      </c>
       <c r="D123" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13169.849999999999</v>
       </c>
       <c r="E123" s="11" t="s">
         <v>166</v>
@@ -3134,20 +3137,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="12" hidden="1" customHeight="1">
+    <row r="126" spans="1:5" ht="12" customHeight="1">
       <c r="A126" s="11" t="s">
         <v>149</v>
       </c>
       <c r="B126" s="12">
         <v>1170.92</v>
       </c>
-      <c r="C126" s="11"/>
+      <c r="C126" s="11">
+        <v>50</v>
+      </c>
       <c r="D126" s="13">
         <f>C126*B126</f>
-        <v>0</v>
+        <v>58546</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" hidden="1">
@@ -3230,37 +3235,33 @@
         <v>80</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15" hidden="1">
       <c r="A132" s="11" t="s">
         <v>131</v>
       </c>
       <c r="B132" s="12">
         <v>4165.3900000000003</v>
       </c>
-      <c r="C132" s="11">
-        <v>3</v>
-      </c>
+      <c r="C132" s="11"/>
       <c r="D132" s="13">
         <f t="shared" si="3"/>
-        <v>12496.170000000002</v>
+        <v>0</v>
       </c>
       <c r="E132" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15" hidden="1">
       <c r="A133" s="11" t="s">
         <v>115</v>
       </c>
       <c r="B133" s="12">
         <v>4115.26</v>
       </c>
-      <c r="C133" s="11">
-        <v>3</v>
-      </c>
+      <c r="C133" s="11"/>
       <c r="D133" s="13">
         <f t="shared" si="3"/>
-        <v>12345.78</v>
+        <v>0</v>
       </c>
       <c r="E133" s="11" t="s">
         <v>80</v>
@@ -3303,11 +3304,11 @@
       <c r="B136" s="41"/>
       <c r="C136" s="19">
         <f>SUM(C5:C135)</f>
-        <v>226</v>
+        <v>150</v>
       </c>
       <c r="D136" s="20">
         <f>SUBTOTAL(9,D5:D135)</f>
-        <v>230505.25</v>
+        <v>201530.67</v>
       </c>
       <c r="E136" s="19"/>
     </row>
@@ -3354,7 +3355,7 @@
         <v>72</v>
       </c>
       <c r="C141" s="32">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="22"/>
@@ -3408,7 +3409,7 @@
       </c>
       <c r="C146" s="29">
         <f>SUM(C140:C145)</f>
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="D146" s="30"/>
       <c r="E146" s="22"/>

--- a/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="174">
   <si>
     <t>Model Name</t>
   </si>
@@ -532,10 +532,13 @@
     <t>Black_Blue</t>
   </si>
   <si>
-    <t>19.05.19</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Black</t>
+  </si>
+  <si>
+    <t>20.05.19</t>
+  </si>
+  <si>
+    <t>Dark_blue</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1201,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H141" sqref="H141"/>
+      <selection pane="bottomRight" activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1243,7 +1246,7 @@
         <v>77</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1309,19 +1312,17 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15">
+    <row r="8" spans="1:5" ht="15" hidden="1">
       <c r="A8" s="11" t="s">
         <v>147</v>
       </c>
       <c r="B8" s="12">
         <v>769.92</v>
       </c>
-      <c r="C8" s="11">
-        <v>10</v>
-      </c>
+      <c r="C8" s="11"/>
       <c r="D8" s="13">
         <f>B8*C8</f>
-        <v>7699.2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>153</v>
@@ -1359,19 +1360,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15">
+    <row r="11" spans="1:5" ht="15" hidden="1">
       <c r="A11" s="11" t="s">
         <v>117</v>
       </c>
       <c r="B11" s="12">
         <v>858.14</v>
       </c>
-      <c r="C11" s="11">
-        <v>20</v>
-      </c>
+      <c r="C11" s="11"/>
       <c r="D11" s="13">
         <f t="shared" si="0"/>
-        <v>17162.8</v>
+        <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>141</v>
@@ -1575,19 +1574,17 @@
       </c>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A25" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="15">
         <v>980.44500000000005</v>
       </c>
-      <c r="C25" s="11">
-        <v>10</v>
-      </c>
+      <c r="C25" s="11"/>
       <c r="D25" s="16">
         <f>C25*B25</f>
-        <v>9804.4500000000007</v>
+        <v>0</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>85</v>
@@ -2005,19 +2002,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15">
+    <row r="53" spans="1:5" ht="15" hidden="1">
       <c r="A53" s="11" t="s">
         <v>108</v>
       </c>
       <c r="B53" s="12">
         <v>8967.36</v>
       </c>
-      <c r="C53" s="11">
-        <v>3</v>
-      </c>
+      <c r="C53" s="11"/>
       <c r="D53" s="13">
         <f t="shared" si="0"/>
-        <v>26902.080000000002</v>
+        <v>0</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>80</v>
@@ -2219,19 +2214,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15">
+    <row r="67" spans="1:5" ht="15" hidden="1">
       <c r="A67" s="11" t="s">
         <v>148</v>
       </c>
       <c r="B67" s="12">
         <v>1024.56</v>
       </c>
-      <c r="C67" s="11">
-        <v>10</v>
-      </c>
+      <c r="C67" s="11"/>
       <c r="D67" s="13">
         <f>B67*C67</f>
-        <v>10245.599999999999</v>
+        <v>0</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>85</v>
@@ -2259,14 +2252,14 @@
         <v>1092.7249999999999</v>
       </c>
       <c r="C69" s="11">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D69" s="13">
         <f t="shared" si="0"/>
-        <v>32781.75</v>
+        <v>10927.25</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" hidden="1">
@@ -2391,20 +2384,22 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" hidden="1">
+    <row r="78" spans="1:5" ht="15">
       <c r="A78" s="11" t="s">
         <v>151</v>
       </c>
       <c r="B78" s="12">
         <v>1189.9675</v>
       </c>
-      <c r="C78" s="11"/>
+      <c r="C78" s="11">
+        <v>20</v>
+      </c>
       <c r="D78" s="13">
         <f>C78*B78</f>
-        <v>0</v>
+        <v>23799.35</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" hidden="1">
@@ -2847,17 +2842,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15" hidden="1">
+    <row r="108" spans="1:5" ht="15">
       <c r="A108" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B108" s="12">
         <v>4896.21</v>
       </c>
-      <c r="C108" s="11"/>
+      <c r="C108" s="11">
+        <v>2</v>
+      </c>
       <c r="D108" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9792.42</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>80</v>
@@ -2927,17 +2924,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15" hidden="1">
+    <row r="113" spans="1:5" ht="15">
       <c r="A113" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B113" s="12">
         <v>5257.11</v>
       </c>
-      <c r="C113" s="11"/>
+      <c r="C113" s="11">
+        <v>4</v>
+      </c>
       <c r="D113" s="13">
         <f>C113*B113</f>
-        <v>0</v>
+        <v>21028.44</v>
       </c>
       <c r="E113" s="11" t="s">
         <v>153</v>
@@ -3005,19 +3004,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15">
+    <row r="118" spans="1:5" ht="15" hidden="1">
       <c r="A118" s="11" t="s">
         <v>105</v>
       </c>
       <c r="B118" s="12">
         <v>3471.66</v>
       </c>
-      <c r="C118" s="11">
-        <v>2</v>
-      </c>
+      <c r="C118" s="11"/>
       <c r="D118" s="13">
         <f t="shared" si="3"/>
-        <v>6943.32</v>
+        <v>0</v>
       </c>
       <c r="E118" s="11" t="s">
         <v>137</v>
@@ -3055,19 +3052,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15">
+    <row r="121" spans="1:5" ht="15" hidden="1">
       <c r="A121" s="11" t="s">
         <v>127</v>
       </c>
       <c r="B121" s="12">
         <v>3433.56</v>
       </c>
-      <c r="C121" s="11">
-        <v>2</v>
-      </c>
+      <c r="C121" s="11"/>
       <c r="D121" s="13">
         <f t="shared" si="3"/>
-        <v>6867.12</v>
+        <v>0</v>
       </c>
       <c r="E121" s="11" t="s">
         <v>134</v>
@@ -3095,11 +3090,11 @@
         <v>4389.95</v>
       </c>
       <c r="C123" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D123" s="13">
         <f t="shared" si="3"/>
-        <v>13169.849999999999</v>
+        <v>8779.9</v>
       </c>
       <c r="E123" s="11" t="s">
         <v>166</v>
@@ -3137,22 +3132,20 @@
         <v>80</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="12" customHeight="1">
+    <row r="126" spans="1:5" ht="12" hidden="1" customHeight="1">
       <c r="A126" s="11" t="s">
         <v>149</v>
       </c>
       <c r="B126" s="12">
         <v>1170.92</v>
       </c>
-      <c r="C126" s="11">
-        <v>50</v>
-      </c>
+      <c r="C126" s="11"/>
       <c r="D126" s="13">
         <f>C126*B126</f>
-        <v>58546</v>
+        <v>0</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" hidden="1">
@@ -3304,11 +3297,11 @@
       <c r="B136" s="41"/>
       <c r="C136" s="19">
         <f>SUM(C5:C135)</f>
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="D136" s="20">
         <f>SUBTOTAL(9,D5:D135)</f>
-        <v>201530.67</v>
+        <v>85735.859999999986</v>
       </c>
       <c r="E136" s="19"/>
     </row>
@@ -3355,7 +3348,7 @@
         <v>72</v>
       </c>
       <c r="C141" s="32">
-        <v>200000</v>
+        <v>70000</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="22"/>
@@ -3409,7 +3402,7 @@
       </c>
       <c r="C146" s="29">
         <f>SUM(C140:C145)</f>
-        <v>200000</v>
+        <v>70000</v>
       </c>
       <c r="D146" s="30"/>
       <c r="E146" s="22"/>

--- a/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="176">
   <si>
     <t>Model Name</t>
   </si>
@@ -535,10 +535,16 @@
     <t xml:space="preserve"> Black</t>
   </si>
   <si>
-    <t>20.05.19</t>
-  </si>
-  <si>
     <t>Dark_blue</t>
+  </si>
+  <si>
+    <t>21.05.19</t>
+  </si>
+  <si>
+    <t>Black_Gold</t>
+  </si>
+  <si>
+    <t>Black &amp; Dark_blue</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1207,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E143" sqref="E143"/>
+      <selection pane="bottomRight" activeCell="F142" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1246,7 +1252,7 @@
         <v>77</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1376,20 +1382,22 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" hidden="1">
+    <row r="12" spans="1:5" ht="15">
       <c r="A12" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B12" s="12">
         <v>946.36</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="11">
+        <v>20</v>
+      </c>
       <c r="D12" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18927.2</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" hidden="1">
@@ -1574,20 +1582,22 @@
       </c>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A25" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="15">
         <v>980.44500000000005</v>
       </c>
-      <c r="C25" s="11"/>
+      <c r="C25" s="11">
+        <v>10</v>
+      </c>
       <c r="D25" s="16">
         <f>C25*B25</f>
-        <v>0</v>
+        <v>9804.4500000000007</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" hidden="1">
@@ -2048,20 +2058,22 @@
       </c>
       <c r="E55" s="11"/>
     </row>
-    <row r="56" spans="1:5" ht="15" hidden="1">
+    <row r="56" spans="1:5" ht="15">
       <c r="A56" s="11" t="s">
         <v>132</v>
       </c>
       <c r="B56" s="31">
         <v>7309.2275</v>
       </c>
-      <c r="C56" s="11"/>
+      <c r="C56" s="11">
+        <v>2</v>
+      </c>
       <c r="D56" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14618.455</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>80</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" hidden="1">
@@ -2252,14 +2264,14 @@
         <v>1092.7249999999999</v>
       </c>
       <c r="C69" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D69" s="13">
         <f t="shared" si="0"/>
-        <v>10927.25</v>
+        <v>13112.699999999999</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" hidden="1">
@@ -2384,19 +2396,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15">
+    <row r="78" spans="1:5" ht="15" hidden="1">
       <c r="A78" s="11" t="s">
         <v>151</v>
       </c>
       <c r="B78" s="12">
         <v>1189.9675</v>
       </c>
-      <c r="C78" s="11">
-        <v>20</v>
-      </c>
+      <c r="C78" s="11"/>
       <c r="D78" s="13">
         <f>C78*B78</f>
-        <v>23799.35</v>
+        <v>0</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>153</v>
@@ -2556,15 +2566,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" hidden="1">
+    <row r="89" spans="1:5" ht="15">
       <c r="A89" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B89" s="12"/>
-      <c r="C89" s="11"/>
+      <c r="B89" s="12">
+        <v>5607.98</v>
+      </c>
+      <c r="C89" s="11">
+        <v>15</v>
+      </c>
       <c r="D89" s="13">
         <f>C89*B89</f>
-        <v>0</v>
+        <v>84119.7</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>80</v>
@@ -2924,19 +2938,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15">
+    <row r="113" spans="1:5" ht="15" hidden="1">
       <c r="A113" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B113" s="12">
         <v>5257.11</v>
       </c>
-      <c r="C113" s="11">
-        <v>4</v>
-      </c>
+      <c r="C113" s="11"/>
       <c r="D113" s="13">
         <f>C113*B113</f>
-        <v>21028.44</v>
+        <v>0</v>
       </c>
       <c r="E113" s="11" t="s">
         <v>153</v>
@@ -3297,11 +3309,11 @@
       <c r="B136" s="41"/>
       <c r="C136" s="19">
         <f>SUM(C5:C135)</f>
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D136" s="20">
         <f>SUBTOTAL(9,D5:D135)</f>
-        <v>85735.859999999986</v>
+        <v>170563.32500000001</v>
       </c>
       <c r="E136" s="19"/>
     </row>
@@ -3348,7 +3360,7 @@
         <v>72</v>
       </c>
       <c r="C141" s="32">
-        <v>70000</v>
+        <v>170000</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="22"/>
@@ -3402,7 +3414,7 @@
       </c>
       <c r="C146" s="29">
         <f>SUM(C140:C145)</f>
-        <v>70000</v>
+        <v>170000</v>
       </c>
       <c r="D146" s="30"/>
       <c r="E146" s="22"/>

--- a/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -538,13 +538,13 @@
     <t>Dark_blue</t>
   </si>
   <si>
-    <t>21.05.19</t>
-  </si>
-  <si>
     <t>Black_Gold</t>
   </si>
   <si>
     <t>Black &amp; Dark_blue</t>
+  </si>
+  <si>
+    <t>22.05.19</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1207,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F142" sqref="F142"/>
+      <selection pane="bottomRight" activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1252,7 +1252,7 @@
         <v>77</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1390,11 +1390,11 @@
         <v>946.36</v>
       </c>
       <c r="C12" s="11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D12" s="13">
         <f t="shared" si="0"/>
-        <v>18927.2</v>
+        <v>9463.6</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>85</v>
@@ -1474,19 +1474,17 @@
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5" ht="15">
+    <row r="18" spans="1:5" ht="15" hidden="1">
       <c r="A18" s="11" t="s">
         <v>165</v>
       </c>
       <c r="B18" s="12">
         <v>1140.8499999999999</v>
       </c>
-      <c r="C18" s="11">
-        <v>10</v>
-      </c>
+      <c r="C18" s="11"/>
       <c r="D18" s="13">
         <f t="shared" si="0"/>
-        <v>11408.5</v>
+        <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>85</v>
@@ -1582,22 +1580,20 @@
       </c>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A25" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="15">
         <v>980.44500000000005</v>
       </c>
-      <c r="C25" s="11">
-        <v>10</v>
-      </c>
+      <c r="C25" s="11"/>
       <c r="D25" s="16">
         <f>C25*B25</f>
-        <v>9804.4500000000007</v>
+        <v>0</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" hidden="1">
@@ -2058,22 +2054,20 @@
       </c>
       <c r="E55" s="11"/>
     </row>
-    <row r="56" spans="1:5" ht="15">
+    <row r="56" spans="1:5" ht="15" hidden="1">
       <c r="A56" s="11" t="s">
         <v>132</v>
       </c>
       <c r="B56" s="31">
         <v>7309.2275</v>
       </c>
-      <c r="C56" s="11">
-        <v>2</v>
-      </c>
+      <c r="C56" s="11"/>
       <c r="D56" s="13">
         <f t="shared" si="0"/>
-        <v>14618.455</v>
+        <v>0</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" hidden="1">
@@ -2256,19 +2250,17 @@
       </c>
       <c r="E68" s="11"/>
     </row>
-    <row r="69" spans="1:5" ht="15">
+    <row r="69" spans="1:5" ht="15" hidden="1">
       <c r="A69" s="11" t="s">
         <v>164</v>
       </c>
       <c r="B69" s="12">
         <v>1092.7249999999999</v>
       </c>
-      <c r="C69" s="11">
-        <v>12</v>
-      </c>
+      <c r="C69" s="11"/>
       <c r="D69" s="13">
         <f t="shared" si="0"/>
-        <v>13112.699999999999</v>
+        <v>0</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>172</v>
@@ -2304,17 +2296,19 @@
       </c>
       <c r="E71" s="11"/>
     </row>
-    <row r="72" spans="1:5" ht="15" hidden="1">
+    <row r="72" spans="1:5" ht="15">
       <c r="A72" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B72" s="12">
         <v>1014.53</v>
       </c>
-      <c r="C72" s="11"/>
+      <c r="C72" s="11">
+        <v>20</v>
+      </c>
       <c r="D72" s="13">
         <f>B72*C72</f>
-        <v>0</v>
+        <v>20290.599999999999</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>163</v>
@@ -2566,19 +2560,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15">
+    <row r="89" spans="1:5" ht="15" hidden="1">
       <c r="A89" s="11" t="s">
         <v>158</v>
       </c>
       <c r="B89" s="12">
         <v>5607.98</v>
       </c>
-      <c r="C89" s="11">
-        <v>15</v>
-      </c>
+      <c r="C89" s="11"/>
       <c r="D89" s="13">
         <f>C89*B89</f>
-        <v>84119.7</v>
+        <v>0</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>80</v>
@@ -2856,19 +2848,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15">
+    <row r="108" spans="1:5" ht="15" hidden="1">
       <c r="A108" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B108" s="12">
         <v>4896.21</v>
       </c>
-      <c r="C108" s="11">
-        <v>2</v>
-      </c>
+      <c r="C108" s="11"/>
       <c r="D108" s="13">
         <f t="shared" si="3"/>
-        <v>9792.42</v>
+        <v>0</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>80</v>
@@ -3094,19 +3084,17 @@
       </c>
       <c r="E122" s="11"/>
     </row>
-    <row r="123" spans="1:5" ht="15">
+    <row r="123" spans="1:5" ht="15" hidden="1">
       <c r="A123" s="11" t="s">
         <v>122</v>
       </c>
       <c r="B123" s="12">
         <v>4389.95</v>
       </c>
-      <c r="C123" s="11">
-        <v>2</v>
-      </c>
+      <c r="C123" s="11"/>
       <c r="D123" s="13">
         <f t="shared" si="3"/>
-        <v>8779.9</v>
+        <v>0</v>
       </c>
       <c r="E123" s="11" t="s">
         <v>166</v>
@@ -3309,11 +3297,11 @@
       <c r="B136" s="41"/>
       <c r="C136" s="19">
         <f>SUM(C5:C135)</f>
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D136" s="20">
         <f>SUBTOTAL(9,D5:D135)</f>
-        <v>170563.32500000001</v>
+        <v>29754.199999999997</v>
       </c>
       <c r="E136" s="19"/>
     </row>
@@ -3360,7 +3348,7 @@
         <v>72</v>
       </c>
       <c r="C141" s="32">
-        <v>170000</v>
+        <v>30000</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="22"/>
@@ -3414,7 +3402,7 @@
       </c>
       <c r="C146" s="29">
         <f>SUM(C140:C145)</f>
-        <v>170000</v>
+        <v>30000</v>
       </c>
       <c r="D146" s="30"/>
       <c r="E146" s="22"/>

--- a/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -526,9 +526,6 @@
     <t xml:space="preserve">Black </t>
   </si>
   <si>
-    <t>Black_blue</t>
-  </si>
-  <si>
     <t>Black_Blue</t>
   </si>
   <si>
@@ -544,7 +541,10 @@
     <t>Black &amp; Dark_blue</t>
   </si>
   <si>
-    <t>22.05.19</t>
+    <t>23.05.19</t>
+  </si>
+  <si>
+    <t>Black 60 /Blue 20</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1207,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E146" sqref="E146"/>
+      <selection pane="bottomRight" activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1252,7 +1252,7 @@
         <v>77</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1272,20 +1272,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" hidden="1">
+    <row r="5" spans="1:5" ht="15">
       <c r="A5" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B5" s="12">
         <v>779.95</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="11">
+        <v>80</v>
+      </c>
       <c r="D5" s="13">
         <f>C5*B5</f>
-        <v>0</v>
+        <v>62396</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" hidden="1">
@@ -1334,17 +1336,19 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" hidden="1">
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" s="11" t="s">
         <v>156</v>
       </c>
       <c r="B9" s="12">
         <v>896.23500000000001</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="11">
+        <v>140</v>
+      </c>
       <c r="D9" s="13">
         <f>C9*B9</f>
-        <v>0</v>
+        <v>125472.90000000001</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>85</v>
@@ -1366,35 +1370,35 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" hidden="1">
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" s="11" t="s">
         <v>117</v>
       </c>
       <c r="B11" s="12">
         <v>858.14</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="11">
+        <v>13</v>
+      </c>
       <c r="D11" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11155.82</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15">
+    <row r="12" spans="1:5" ht="15" hidden="1">
       <c r="A12" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B12" s="12">
         <v>946.36</v>
       </c>
-      <c r="C12" s="11">
-        <v>10</v>
-      </c>
+      <c r="C12" s="11"/>
       <c r="D12" s="13">
         <f t="shared" si="0"/>
-        <v>9463.6</v>
+        <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>85</v>
@@ -1414,20 +1418,22 @@
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="14" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A14" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B14" s="15">
         <v>1159.8900000000001</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="11">
+        <v>10</v>
+      </c>
       <c r="D14" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11598.900000000001</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" hidden="1">
@@ -1503,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
@@ -1593,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" hidden="1">
@@ -2067,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" hidden="1">
@@ -2263,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" hidden="1">
@@ -2296,19 +2302,17 @@
       </c>
       <c r="E71" s="11"/>
     </row>
-    <row r="72" spans="1:5" ht="15">
+    <row r="72" spans="1:5" ht="15" hidden="1">
       <c r="A72" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B72" s="12">
         <v>1014.53</v>
       </c>
-      <c r="C72" s="11">
-        <v>20</v>
-      </c>
+      <c r="C72" s="11"/>
       <c r="D72" s="13">
         <f>B72*C72</f>
-        <v>20290.599999999999</v>
+        <v>0</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>163</v>
@@ -2390,20 +2394,22 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" hidden="1">
+    <row r="78" spans="1:5" ht="15">
       <c r="A78" s="11" t="s">
         <v>151</v>
       </c>
       <c r="B78" s="12">
         <v>1189.9675</v>
       </c>
-      <c r="C78" s="11"/>
+      <c r="C78" s="11">
+        <v>30</v>
+      </c>
       <c r="D78" s="13">
         <f>C78*B78</f>
-        <v>0</v>
+        <v>35699.025000000001</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" hidden="1">
@@ -3084,17 +3090,19 @@
       </c>
       <c r="E122" s="11"/>
     </row>
-    <row r="123" spans="1:5" ht="15" hidden="1">
+    <row r="123" spans="1:5" ht="15">
       <c r="A123" s="11" t="s">
         <v>122</v>
       </c>
       <c r="B123" s="12">
         <v>4389.95</v>
       </c>
-      <c r="C123" s="11"/>
+      <c r="C123" s="11">
+        <v>2</v>
+      </c>
       <c r="D123" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8779.9</v>
       </c>
       <c r="E123" s="11" t="s">
         <v>166</v>
@@ -3145,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" hidden="1">
@@ -3297,11 +3305,11 @@
       <c r="B136" s="41"/>
       <c r="C136" s="19">
         <f>SUM(C5:C135)</f>
-        <v>30</v>
+        <v>275</v>
       </c>
       <c r="D136" s="20">
         <f>SUBTOTAL(9,D5:D135)</f>
-        <v>29754.199999999997</v>
+        <v>255102.54500000001</v>
       </c>
       <c r="E136" s="19"/>
     </row>
@@ -3348,7 +3356,7 @@
         <v>72</v>
       </c>
       <c r="C141" s="32">
-        <v>30000</v>
+        <v>255000</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="22"/>
@@ -3402,7 +3410,7 @@
       </c>
       <c r="C146" s="29">
         <f>SUM(C140:C145)</f>
-        <v>30000</v>
+        <v>255000</v>
       </c>
       <c r="D146" s="30"/>
       <c r="E146" s="22"/>

--- a/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="178">
   <si>
     <t>Model Name</t>
   </si>
@@ -205,9 +205,6 @@
     <t>V120</t>
   </si>
   <si>
-    <t>Z9</t>
-  </si>
-  <si>
     <t>Z10</t>
   </si>
   <si>
@@ -520,9 +517,6 @@
     <t xml:space="preserve"> Gold</t>
   </si>
   <si>
-    <t xml:space="preserve"> Black,Dark_Blue </t>
-  </si>
-  <si>
     <t xml:space="preserve">Black </t>
   </si>
   <si>
@@ -541,10 +535,22 @@
     <t>Black &amp; Dark_blue</t>
   </si>
   <si>
-    <t>23.05.19</t>
-  </si>
-  <si>
     <t>Black 60 /Blue 20</t>
+  </si>
+  <si>
+    <t>Z15</t>
+  </si>
+  <si>
+    <t>26.05.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dark_Blue</t>
+  </si>
+  <si>
+    <t>Black &amp; Black_Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Black </t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1213,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F145" sqref="F145"/>
+      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1222,7 +1228,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A1" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -1231,7 +1237,7 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A2" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -1240,16 +1246,16 @@
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A3" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>174</v>
@@ -1260,34 +1266,32 @@
         <v>0</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15">
+    </row>
+    <row r="5" spans="1:5" ht="15" hidden="1">
       <c r="A5" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="12">
         <v>779.95</v>
       </c>
-      <c r="C5" s="11">
-        <v>80</v>
-      </c>
+      <c r="C5" s="11"/>
       <c r="D5" s="13">
         <f>C5*B5</f>
-        <v>62396</v>
+        <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" hidden="1">
@@ -1304,25 +1308,27 @@
       </c>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="15" hidden="1">
+    <row r="7" spans="1:5" ht="15">
       <c r="A7" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="12">
         <v>789.97</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="11">
+        <v>10</v>
+      </c>
       <c r="D7" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7899.7000000000007</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" hidden="1">
       <c r="A8" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" s="12">
         <v>769.92</v>
@@ -1333,30 +1339,28 @@
         <v>0</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" hidden="1">
       <c r="A9" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" s="12">
         <v>896.23500000000001</v>
       </c>
-      <c r="C9" s="11">
-        <v>140</v>
-      </c>
+      <c r="C9" s="11"/>
       <c r="D9" s="13">
         <f>C9*B9</f>
-        <v>125472.90000000001</v>
+        <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" hidden="1">
       <c r="A10" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="12">
         <v>901.24749999999995</v>
@@ -1367,41 +1371,43 @@
         <v>0</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
       <c r="A11" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="12">
         <v>858.14</v>
       </c>
       <c r="C11" s="11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D11" s="13">
         <f t="shared" si="0"/>
-        <v>11155.82</v>
+        <v>17162.8</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" hidden="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
       <c r="A12" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="12">
         <v>946.36</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="11">
+        <v>20</v>
+      </c>
       <c r="D12" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18927.2</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" hidden="1">
@@ -1420,25 +1426,25 @@
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A14" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" s="15">
         <v>1159.8900000000001</v>
       </c>
       <c r="C14" s="11">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D14" s="16">
         <f t="shared" si="0"/>
-        <v>11598.900000000001</v>
+        <v>34796.700000000004</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" hidden="1">
       <c r="A15" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" s="12">
         <v>887.21</v>
@@ -1452,7 +1458,7 @@
     </row>
     <row r="16" spans="1:5" ht="15" hidden="1">
       <c r="A16" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="12">
         <v>868.17</v>
@@ -1463,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" hidden="1">
@@ -1480,20 +1486,22 @@
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5" ht="15" hidden="1">
+    <row r="18" spans="1:5" ht="15">
       <c r="A18" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B18" s="12">
         <v>1140.8499999999999</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="11">
+        <v>20</v>
+      </c>
       <c r="D18" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22817</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" hidden="1">
@@ -1509,12 +1517,12 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A20" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="15">
         <v>985.46</v>
@@ -1553,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" hidden="1">
@@ -1569,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" hidden="1">
@@ -1599,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" hidden="1">
@@ -1618,7 +1626,7 @@
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A27" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B27" s="15">
         <v>936.34</v>
@@ -1629,12 +1637,12 @@
         <v>0</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A28" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" s="15">
         <v>5607.99</v>
@@ -1645,12 +1653,12 @@
         <v>0</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" hidden="1">
       <c r="A29" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" s="12">
         <v>955.38</v>
@@ -1664,7 +1672,7 @@
     </row>
     <row r="30" spans="1:5" ht="15" hidden="1">
       <c r="A30" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B30" s="12">
         <v>1014.53</v>
@@ -1692,7 +1700,7 @@
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A32" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32" s="15">
         <v>1159.8900000000001</v>
@@ -1703,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" hidden="1">
@@ -1719,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" hidden="1">
@@ -1805,12 +1813,12 @@
         <v>0</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" hidden="1">
       <c r="A40" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B40" s="12">
         <v>2788.96</v>
@@ -1821,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" hidden="1">
@@ -1837,12 +1845,12 @@
         <v>0</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" hidden="1">
       <c r="A42" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B42" s="12">
         <v>6397.96</v>
@@ -1853,12 +1861,12 @@
         <v>0</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" hidden="1">
       <c r="A43" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B43" s="12">
         <v>5158.87</v>
@@ -1869,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" hidden="1">
@@ -1885,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" hidden="1">
@@ -1915,12 +1923,12 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" hidden="1">
       <c r="A47" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" s="12">
         <v>7851.58</v>
@@ -1931,12 +1939,12 @@
         <v>0</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" hidden="1">
       <c r="A48" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B48" s="12">
         <v>7714.24</v>
@@ -1947,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" hidden="1">
@@ -1963,28 +1971,30 @@
         <v>0</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" hidden="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15">
       <c r="A50" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B50" s="12">
-        <v>7309.23</v>
-      </c>
-      <c r="C50" s="11"/>
+        <v>6369.89</v>
+      </c>
+      <c r="C50" s="11">
+        <v>5</v>
+      </c>
       <c r="D50" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31849.45</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1">
       <c r="A51" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B51" s="12">
         <v>8877.14</v>
@@ -1995,12 +2005,12 @@
         <v>0</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" hidden="1">
       <c r="A52" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B52" s="12">
         <v>8573.3799999999992</v>
@@ -2011,12 +2021,12 @@
         <v>0</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" hidden="1">
       <c r="A53" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B53" s="12">
         <v>8967.36</v>
@@ -2027,12 +2037,12 @@
         <v>0</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" hidden="1">
       <c r="A54" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B54" s="12">
         <v>9012.48</v>
@@ -2043,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" hidden="1">
@@ -2062,7 +2072,7 @@
     </row>
     <row r="56" spans="1:5" ht="15" hidden="1">
       <c r="A56" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B56" s="31">
         <v>7309.2275</v>
@@ -2073,12 +2083,12 @@
         <v>0</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" hidden="1">
       <c r="A57" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B57" s="12">
         <v>1423.55</v>
@@ -2131,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" hidden="1">
@@ -2150,7 +2160,7 @@
     </row>
     <row r="62" spans="1:5" ht="15" hidden="1">
       <c r="A62" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B62" s="34">
         <v>1169.9175</v>
@@ -2161,12 +2171,12 @@
         <v>0</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" hidden="1">
       <c r="A63" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B63" s="31">
         <v>4973.3999999999996</v>
@@ -2177,12 +2187,12 @@
         <v>0</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" hidden="1">
       <c r="A64" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B64" s="33">
         <v>1053.6275000000001</v>
@@ -2193,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" hidden="1">
@@ -2212,7 +2222,7 @@
     </row>
     <row r="66" spans="1:5" ht="15" hidden="1">
       <c r="A66" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B66" s="12">
         <v>1072.675</v>
@@ -2223,23 +2233,25 @@
         <v>0</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15" hidden="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15">
       <c r="A67" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B67" s="12">
         <v>1024.56</v>
       </c>
-      <c r="C67" s="11"/>
+      <c r="C67" s="11">
+        <v>20</v>
+      </c>
       <c r="D67" s="13">
         <f>B67*C67</f>
-        <v>0</v>
+        <v>20491.199999999997</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" hidden="1">
@@ -2258,7 +2270,7 @@
     </row>
     <row r="69" spans="1:5" ht="15" hidden="1">
       <c r="A69" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B69" s="12">
         <v>1092.7249999999999</v>
@@ -2269,12 +2281,12 @@
         <v>0</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" hidden="1">
       <c r="A70" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B70" s="31">
         <v>4165.3874999999998</v>
@@ -2285,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" hidden="1">
@@ -2304,7 +2316,7 @@
     </row>
     <row r="72" spans="1:5" ht="15" hidden="1">
       <c r="A72" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B72" s="12">
         <v>1014.53</v>
@@ -2315,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" hidden="1">
@@ -2345,12 +2357,12 @@
         <v>0</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" hidden="1">
       <c r="A75" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B75" s="12">
         <v>1101.75</v>
@@ -2364,7 +2376,7 @@
     </row>
     <row r="76" spans="1:5" ht="15" hidden="1">
       <c r="A76" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B76" s="12">
         <v>1072.675</v>
@@ -2375,12 +2387,12 @@
         <v>0</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" hidden="1">
       <c r="A77" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B77" s="12">
         <v>1297.2349999999999</v>
@@ -2391,25 +2403,25 @@
         <v>0</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15">
       <c r="A78" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B78" s="12">
         <v>1189.9675</v>
       </c>
       <c r="C78" s="11">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D78" s="13">
         <f>C78*B78</f>
-        <v>35699.025000000001</v>
+        <v>23799.35</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" hidden="1">
@@ -2453,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15" hidden="1">
@@ -2483,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" hidden="1">
@@ -2499,12 +2511,12 @@
         <v>0</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" hidden="1">
       <c r="A85" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="12">
         <v>12691.65</v>
@@ -2515,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15" hidden="1">
@@ -2531,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15" hidden="1">
@@ -2547,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" hidden="1">
@@ -2563,12 +2575,12 @@
         <v>0</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15" hidden="1">
       <c r="A89" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B89" s="12">
         <v>5607.98</v>
@@ -2579,12 +2591,12 @@
         <v>0</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15" hidden="1">
       <c r="A90" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B90" s="12">
         <v>17443.5</v>
@@ -2598,7 +2610,7 @@
     </row>
     <row r="91" spans="1:5" ht="15" hidden="1">
       <c r="A91" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B91" s="12">
         <v>13914.7</v>
@@ -2612,7 +2624,7 @@
     </row>
     <row r="92" spans="1:5" ht="15" hidden="1">
       <c r="A92" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B92" s="12">
         <v>10133.27</v>
@@ -2626,7 +2638,7 @@
     </row>
     <row r="93" spans="1:5" ht="15" hidden="1">
       <c r="A93" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B93" s="12">
         <v>23704.11</v>
@@ -2651,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" hidden="1">
@@ -2681,12 +2693,12 @@
         <v>0</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" hidden="1">
       <c r="A97" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B97" s="17">
         <v>1219.04</v>
@@ -2697,12 +2709,12 @@
         <v>0</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15" hidden="1">
       <c r="A98" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B98" s="18">
         <v>1336.33</v>
@@ -2713,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15" hidden="1">
@@ -2760,7 +2772,7 @@
     </row>
     <row r="102" spans="1:5" ht="15" hidden="1">
       <c r="A102" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B102" s="12">
         <v>7586.92</v>
@@ -2771,12 +2783,12 @@
         <v>0</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15" hidden="1">
       <c r="A103" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B103" s="12">
         <v>8641.5499999999993</v>
@@ -2787,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" hidden="1">
@@ -2803,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" hidden="1">
@@ -2819,12 +2831,12 @@
         <v>0</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15" hidden="1">
       <c r="A106" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B106" s="12">
         <v>4526.2875000000004</v>
@@ -2835,12 +2847,12 @@
         <v>0</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15" hidden="1">
       <c r="A107" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B107" s="12">
         <v>5510.74</v>
@@ -2851,12 +2863,12 @@
         <v>0</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15" hidden="1">
       <c r="A108" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108" s="12">
         <v>4896.21</v>
@@ -2867,12 +2879,12 @@
         <v>0</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15" hidden="1">
       <c r="A109" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B109" s="12">
         <v>5150.8500000000004</v>
@@ -2883,12 +2895,12 @@
         <v>0</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" hidden="1">
       <c r="A110" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B110" s="12">
         <v>4973.3999999999996</v>
@@ -2899,12 +2911,12 @@
         <v>0</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" hidden="1">
       <c r="A111" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B111" s="12">
         <v>5423.53</v>
@@ -2915,12 +2927,12 @@
         <v>0</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15" hidden="1">
       <c r="A112" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B112" s="12">
         <v>5940.82</v>
@@ -2931,12 +2943,12 @@
         <v>0</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15" hidden="1">
       <c r="A113" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B113" s="12">
         <v>5257.11</v>
@@ -2947,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15" hidden="1">
@@ -2963,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15" hidden="1">
@@ -2979,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15" hidden="1">
@@ -3009,12 +3021,12 @@
         <v>0</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" hidden="1">
       <c r="A118" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B118" s="12">
         <v>3471.66</v>
@@ -3025,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" hidden="1">
@@ -3041,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15" hidden="1">
@@ -3057,12 +3069,12 @@
         <v>0</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" hidden="1">
       <c r="A121" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B121" s="12">
         <v>3433.56</v>
@@ -3073,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15" hidden="1">
@@ -3092,20 +3104,20 @@
     </row>
     <row r="123" spans="1:5" ht="15">
       <c r="A123" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="12">
         <v>4389.95</v>
       </c>
       <c r="C123" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D123" s="13">
         <f t="shared" si="3"/>
-        <v>8779.9</v>
+        <v>21949.75</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" hidden="1">
@@ -3121,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15" hidden="1">
@@ -3137,12 +3149,12 @@
         <v>0</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="12" hidden="1" customHeight="1">
       <c r="A126" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B126" s="12">
         <v>1170.92</v>
@@ -3153,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" hidden="1">
@@ -3169,12 +3181,12 @@
         <v>0</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" hidden="1">
       <c r="A128" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B128" s="12">
         <v>4027.0425</v>
@@ -3185,12 +3197,12 @@
         <v>0</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15" hidden="1">
       <c r="A129" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B129" s="12">
         <v>3892.71</v>
@@ -3201,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15" hidden="1">
@@ -3217,12 +3229,12 @@
         <v>0</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15" hidden="1">
       <c r="A131" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B131" s="12">
         <v>4409</v>
@@ -3233,12 +3245,12 @@
         <v>0</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15" hidden="1">
       <c r="A132" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="12">
         <v>4165.3900000000003</v>
@@ -3249,12 +3261,12 @@
         <v>0</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15" hidden="1">
       <c r="A133" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B133" s="12">
         <v>4115.26</v>
@@ -3265,26 +3277,30 @@
         <v>0</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="15" hidden="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="11" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="B134" s="12">
-        <v>12741.775</v>
-      </c>
-      <c r="C134" s="11"/>
+        <v>8599.4500000000007</v>
+      </c>
+      <c r="C134" s="11">
+        <v>10</v>
+      </c>
       <c r="D134" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E134" s="11"/>
+        <v>85994.5</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="135" spans="1:9" ht="15" hidden="1">
       <c r="A135" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B135" s="12">
         <v>12310.7</v>
@@ -3295,21 +3311,21 @@
         <v>0</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="136" spans="1:9" s="2" customFormat="1" ht="15">
       <c r="A136" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B136" s="41"/>
       <c r="C136" s="19">
         <f>SUM(C5:C135)</f>
-        <v>275</v>
+        <v>160</v>
       </c>
       <c r="D136" s="20">
         <f>SUBTOTAL(9,D5:D135)</f>
-        <v>255102.54500000001</v>
+        <v>285687.65000000002</v>
       </c>
       <c r="E136" s="19"/>
     </row>
@@ -3319,7 +3335,7 @@
     <row r="138" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A138" s="21"/>
       <c r="B138" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C138" s="42"/>
       <c r="D138" s="42"/>
@@ -3328,13 +3344,13 @@
     <row r="139" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A139" s="23"/>
       <c r="B139" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C139" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C139" s="24" t="s">
-        <v>70</v>
-      </c>
       <c r="D139" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E139" s="22"/>
       <c r="I139" s="25"/>
@@ -3342,7 +3358,7 @@
     <row r="140" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A140" s="26"/>
       <c r="B140" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C140" s="27">
         <v>0</v>
@@ -3353,10 +3369,10 @@
     <row r="141" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A141" s="26"/>
       <c r="B141" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C141" s="32">
-        <v>255000</v>
+        <v>400000</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="22"/>
@@ -3364,7 +3380,7 @@
     <row r="142" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A142" s="26"/>
       <c r="B142" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C142" s="27">
         <v>0</v>
@@ -3375,7 +3391,7 @@
     <row r="143" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A143" s="26"/>
       <c r="B143" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C143" s="27"/>
       <c r="D143" s="11"/>
@@ -3384,7 +3400,7 @@
     <row r="144" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A144" s="26"/>
       <c r="B144" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C144" s="27">
         <v>0</v>
@@ -3395,7 +3411,7 @@
     <row r="145" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A145" s="26"/>
       <c r="B145" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C145" s="27">
         <v>0</v>
@@ -3406,11 +3422,11 @@
     <row r="146" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A146" s="23"/>
       <c r="B146" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C146" s="29">
         <f>SUM(C140:C145)</f>
-        <v>255000</v>
+        <v>400000</v>
       </c>
       <c r="D146" s="30"/>
       <c r="E146" s="22"/>

--- a/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="177">
   <si>
     <t>Model Name</t>
   </si>
@@ -97,9 +97,6 @@
     <t>L23</t>
   </si>
   <si>
-    <t>L24</t>
-  </si>
-  <si>
     <t>L26</t>
   </si>
   <si>
@@ -439,9 +436,6 @@
     <t>Daily Requisition for Tulip -2</t>
   </si>
   <si>
-    <t>Darkblue</t>
-  </si>
-  <si>
     <t>BL90</t>
   </si>
   <si>
@@ -535,15 +529,9 @@
     <t>Black &amp; Dark_blue</t>
   </si>
   <si>
-    <t>Black 60 /Blue 20</t>
-  </si>
-  <si>
     <t>Z15</t>
   </si>
   <si>
-    <t>26.05.19</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Dark_Blue</t>
   </si>
   <si>
@@ -551,6 +539,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Black </t>
+  </si>
+  <si>
+    <t>27.05.19</t>
+  </si>
+  <si>
+    <t>L52</t>
+  </si>
+  <si>
+    <t>White_Red</t>
   </si>
 </sst>
 </file>
@@ -1210,10 +1207,10 @@
   <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
+      <selection pane="bottomRight" activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1228,7 +1225,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A1" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -1237,7 +1234,7 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A2" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -1246,16 +1243,16 @@
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A3" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>174</v>
@@ -1266,32 +1263,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" hidden="1">
+    </row>
+    <row r="5" spans="1:5" ht="15">
       <c r="A5" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="12">
         <v>779.95</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="11">
+        <v>100</v>
+      </c>
       <c r="D5" s="13">
         <f>C5*B5</f>
-        <v>0</v>
+        <v>77995</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" hidden="1">
@@ -1310,41 +1309,43 @@
     </row>
     <row r="7" spans="1:5" ht="15">
       <c r="A7" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="12">
         <v>789.97</v>
       </c>
       <c r="C7" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D7" s="13">
         <f t="shared" si="0"/>
-        <v>7899.7000000000007</v>
+        <v>15799.400000000001</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" s="12">
         <v>769.92</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="11">
+        <v>20</v>
+      </c>
       <c r="D8" s="13">
         <f>B8*C8</f>
-        <v>0</v>
+        <v>15398.4</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" hidden="1">
       <c r="A9" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="12">
         <v>896.23500000000001</v>
@@ -1355,28 +1356,30 @@
         <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" hidden="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
       <c r="A10" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B10" s="12">
         <v>901.24749999999995</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="11">
+        <v>13</v>
+      </c>
       <c r="D10" s="13">
         <f>B10*C10</f>
-        <v>0</v>
+        <v>11716.217499999999</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
       <c r="A11" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="12">
         <v>858.14</v>
@@ -1389,25 +1392,23 @@
         <v>17162.8</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" hidden="1">
       <c r="A12" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="12">
         <v>946.36</v>
       </c>
-      <c r="C12" s="11">
-        <v>20</v>
-      </c>
+      <c r="C12" s="11"/>
       <c r="D12" s="13">
         <f t="shared" si="0"/>
-        <v>18927.2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" hidden="1">
@@ -1424,27 +1425,25 @@
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="14" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A14" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B14" s="15">
         <v>1159.8900000000001</v>
       </c>
-      <c r="C14" s="11">
-        <v>30</v>
-      </c>
+      <c r="C14" s="11"/>
       <c r="D14" s="16">
         <f t="shared" si="0"/>
-        <v>34796.700000000004</v>
+        <v>0</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" hidden="1">
       <c r="A15" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="12">
         <v>887.21</v>
@@ -1458,7 +1457,7 @@
     </row>
     <row r="16" spans="1:5" ht="15" hidden="1">
       <c r="A16" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="12">
         <v>868.17</v>
@@ -1469,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" hidden="1">
@@ -1488,7 +1487,7 @@
     </row>
     <row r="18" spans="1:5" ht="15">
       <c r="A18" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B18" s="12">
         <v>1140.8499999999999</v>
@@ -1501,7 +1500,7 @@
         <v>22817</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" hidden="1">
@@ -1517,12 +1516,12 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A20" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="15">
         <v>985.46</v>
@@ -1561,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" hidden="1">
@@ -1577,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" hidden="1">
@@ -1607,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" hidden="1">
@@ -1624,25 +1623,27 @@
       </c>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A27" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B27" s="15">
         <v>936.34</v>
       </c>
-      <c r="C27" s="11"/>
+      <c r="C27" s="11">
+        <v>20</v>
+      </c>
       <c r="D27" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18726.8</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A28" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B28" s="15">
         <v>5607.99</v>
@@ -1653,12 +1654,12 @@
         <v>0</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" hidden="1">
       <c r="A29" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" s="12">
         <v>955.38</v>
@@ -1672,7 +1673,7 @@
     </row>
     <row r="30" spans="1:5" ht="15" hidden="1">
       <c r="A30" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="12">
         <v>1014.53</v>
@@ -1700,7 +1701,7 @@
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A32" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" s="15">
         <v>1159.8900000000001</v>
@@ -1711,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" hidden="1">
@@ -1727,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" hidden="1">
@@ -1813,12 +1814,12 @@
         <v>0</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" hidden="1">
       <c r="A40" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B40" s="12">
         <v>2788.96</v>
@@ -1829,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" hidden="1">
@@ -1845,28 +1846,30 @@
         <v>0</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" hidden="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15">
       <c r="A42" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B42" s="12">
         <v>6397.96</v>
       </c>
-      <c r="C42" s="11"/>
+      <c r="C42" s="11">
+        <v>4</v>
+      </c>
       <c r="D42" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25591.84</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" hidden="1">
       <c r="A43" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B43" s="12">
         <v>5158.87</v>
@@ -1877,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" hidden="1">
@@ -1893,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" hidden="1">
@@ -1923,12 +1926,12 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" hidden="1">
       <c r="A47" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47" s="12">
         <v>7851.58</v>
@@ -1939,12 +1942,12 @@
         <v>0</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" hidden="1">
       <c r="A48" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B48" s="12">
         <v>7714.24</v>
@@ -1955,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" hidden="1">
@@ -1971,30 +1974,28 @@
         <v>0</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" hidden="1">
       <c r="A50" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B50" s="12">
         <v>6369.89</v>
       </c>
-      <c r="C50" s="11">
-        <v>5</v>
-      </c>
+      <c r="C50" s="11"/>
       <c r="D50" s="13">
         <f t="shared" si="0"/>
-        <v>31849.45</v>
+        <v>0</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1">
       <c r="A51" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B51" s="12">
         <v>8877.14</v>
@@ -2005,12 +2006,12 @@
         <v>0</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" hidden="1">
       <c r="A52" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B52" s="12">
         <v>8573.3799999999992</v>
@@ -2021,12 +2022,12 @@
         <v>0</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" hidden="1">
       <c r="A53" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B53" s="12">
         <v>8967.36</v>
@@ -2037,12 +2038,12 @@
         <v>0</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" hidden="1">
       <c r="A54" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B54" s="12">
         <v>9012.48</v>
@@ -2053,12 +2054,12 @@
         <v>0</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" hidden="1">
       <c r="A55" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B55" s="12">
         <v>1199.9925000000001</v>
@@ -2072,7 +2073,7 @@
     </row>
     <row r="56" spans="1:5" ht="15" hidden="1">
       <c r="A56" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B56" s="31">
         <v>7309.2275</v>
@@ -2083,12 +2084,12 @@
         <v>0</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" hidden="1">
       <c r="A57" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B57" s="12">
         <v>1423.55</v>
@@ -2102,7 +2103,7 @@
     </row>
     <row r="58" spans="1:5" ht="15" hidden="1">
       <c r="A58" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B58" s="12">
         <v>1435.58</v>
@@ -2116,7 +2117,7 @@
     </row>
     <row r="59" spans="1:5" ht="15" hidden="1">
       <c r="A59" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B59" s="12">
         <v>1551.87</v>
@@ -2130,7 +2131,7 @@
     </row>
     <row r="60" spans="1:5" ht="15" hidden="1">
       <c r="A60" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B60" s="12">
         <v>1695.2275</v>
@@ -2141,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" hidden="1">
@@ -2160,7 +2161,7 @@
     </row>
     <row r="62" spans="1:5" ht="15" hidden="1">
       <c r="A62" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B62" s="34">
         <v>1169.9175</v>
@@ -2171,12 +2172,12 @@
         <v>0</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" hidden="1">
       <c r="A63" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B63" s="31">
         <v>4973.3999999999996</v>
@@ -2187,23 +2188,25 @@
         <v>0</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15" hidden="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15">
       <c r="A64" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B64" s="33">
         <v>1053.6275000000001</v>
       </c>
-      <c r="C64" s="11"/>
+      <c r="C64" s="11">
+        <v>10</v>
+      </c>
       <c r="D64" s="13">
         <f>B64*C64</f>
-        <v>0</v>
+        <v>10536.275000000001</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" hidden="1">
@@ -2222,7 +2225,7 @@
     </row>
     <row r="66" spans="1:5" ht="15" hidden="1">
       <c r="A66" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B66" s="12">
         <v>1072.675</v>
@@ -2233,44 +2236,44 @@
         <v>0</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" hidden="1">
       <c r="A67" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B67" s="12">
         <v>1024.56</v>
       </c>
-      <c r="C67" s="11">
-        <v>20</v>
-      </c>
+      <c r="C67" s="11"/>
       <c r="D67" s="13">
         <f>B67*C67</f>
-        <v>20491.199999999997</v>
+        <v>0</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" hidden="1">
       <c r="A68" s="11" t="s">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="B68" s="12">
-        <v>1145.8575000000001</v>
+        <v>1077.6875</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E68" s="11"/>
+      <c r="E68" s="11" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="69" spans="1:5" ht="15" hidden="1">
       <c r="A69" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B69" s="12">
         <v>1092.7249999999999</v>
@@ -2281,12 +2284,12 @@
         <v>0</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" hidden="1">
       <c r="A70" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B70" s="31">
         <v>4165.3874999999998</v>
@@ -2297,12 +2300,12 @@
         <v>0</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" hidden="1">
       <c r="A71" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B71" s="12">
         <v>1174.93</v>
@@ -2316,7 +2319,7 @@
     </row>
     <row r="72" spans="1:5" ht="15" hidden="1">
       <c r="A72" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B72" s="12">
         <v>1014.53</v>
@@ -2327,12 +2330,12 @@
         <v>0</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" hidden="1">
       <c r="A73" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B73" s="12">
         <v>1273.175</v>
@@ -2346,7 +2349,7 @@
     </row>
     <row r="74" spans="1:5" ht="15" hidden="1">
       <c r="A74" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B74" s="12">
         <v>1077.6875</v>
@@ -2357,12 +2360,12 @@
         <v>0</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" hidden="1">
       <c r="A75" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B75" s="12">
         <v>1101.75</v>
@@ -2376,7 +2379,7 @@
     </row>
     <row r="76" spans="1:5" ht="15" hidden="1">
       <c r="A76" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B76" s="12">
         <v>1072.675</v>
@@ -2387,12 +2390,12 @@
         <v>0</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" hidden="1">
       <c r="A77" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B77" s="12">
         <v>1297.2349999999999</v>
@@ -2403,12 +2406,12 @@
         <v>0</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15">
       <c r="A78" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B78" s="12">
         <v>1189.9675</v>
@@ -2421,12 +2424,12 @@
         <v>23799.35</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" hidden="1">
       <c r="A79" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B79" s="12">
         <v>8150.3249999999998</v>
@@ -2440,7 +2443,7 @@
     </row>
     <row r="80" spans="1:5" ht="15" hidden="1">
       <c r="A80" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B80" s="12">
         <v>9067.6124999999993</v>
@@ -2454,7 +2457,7 @@
     </row>
     <row r="81" spans="1:5" ht="15" hidden="1">
       <c r="A81" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B81" s="12">
         <v>8565.36</v>
@@ -2465,12 +2468,12 @@
         <v>0</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15" hidden="1">
       <c r="A82" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B82" s="12">
         <v>11854.5625</v>
@@ -2484,7 +2487,7 @@
     </row>
     <row r="83" spans="1:5" ht="15" hidden="1">
       <c r="A83" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B83" s="12">
         <v>10616.475</v>
@@ -2495,12 +2498,12 @@
         <v>0</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" hidden="1">
       <c r="A84" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B84" s="12">
         <v>12215.4625</v>
@@ -2511,12 +2514,12 @@
         <v>0</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" hidden="1">
       <c r="A85" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="12">
         <v>12691.65</v>
@@ -2527,12 +2530,12 @@
         <v>0</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15" hidden="1">
       <c r="A86" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B86" s="12">
         <v>9097.6875</v>
@@ -2543,12 +2546,12 @@
         <v>0</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15" hidden="1">
       <c r="A87" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B87" s="12">
         <v>10285.65</v>
@@ -2559,12 +2562,12 @@
         <v>0</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" hidden="1">
       <c r="A88" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B88" s="12">
         <v>6342.8175000000001</v>
@@ -2575,12 +2578,12 @@
         <v>0</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15" hidden="1">
       <c r="A89" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B89" s="12">
         <v>5607.98</v>
@@ -2591,12 +2594,12 @@
         <v>0</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15" hidden="1">
       <c r="A90" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B90" s="12">
         <v>17443.5</v>
@@ -2610,7 +2613,7 @@
     </row>
     <row r="91" spans="1:5" ht="15" hidden="1">
       <c r="A91" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B91" s="12">
         <v>13914.7</v>
@@ -2624,7 +2627,7 @@
     </row>
     <row r="92" spans="1:5" ht="15" hidden="1">
       <c r="A92" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B92" s="12">
         <v>10133.27</v>
@@ -2638,7 +2641,7 @@
     </row>
     <row r="93" spans="1:5" ht="15" hidden="1">
       <c r="A93" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B93" s="12">
         <v>23704.11</v>
@@ -2652,7 +2655,7 @@
     </row>
     <row r="94" spans="1:5" ht="15" hidden="1">
       <c r="A94" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B94" s="12">
         <v>1371.42</v>
@@ -2663,12 +2666,12 @@
         <v>0</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" hidden="1">
       <c r="A95" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B95" s="12">
         <v>1410.5174999999999</v>
@@ -2682,7 +2685,7 @@
     </row>
     <row r="96" spans="1:5" ht="15" hidden="1">
       <c r="A96" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B96" s="12">
         <v>1694.2249999999999</v>
@@ -2693,12 +2696,12 @@
         <v>0</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" hidden="1">
       <c r="A97" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B97" s="17">
         <v>1219.04</v>
@@ -2709,12 +2712,12 @@
         <v>0</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15" hidden="1">
       <c r="A98" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B98" s="18">
         <v>1336.33</v>
@@ -2725,12 +2728,12 @@
         <v>0</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15" hidden="1">
       <c r="A99" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B99" s="12">
         <v>1871.6675</v>
@@ -2744,7 +2747,7 @@
     </row>
     <row r="100" spans="1:5" ht="15" hidden="1">
       <c r="A100" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B100" s="12">
         <v>1854.625</v>
@@ -2758,7 +2761,7 @@
     </row>
     <row r="101" spans="1:5" ht="15" hidden="1">
       <c r="A101" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B101" s="12">
         <v>1446.6075000000001</v>
@@ -2772,7 +2775,7 @@
     </row>
     <row r="102" spans="1:5" ht="15" hidden="1">
       <c r="A102" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B102" s="12">
         <v>7586.92</v>
@@ -2783,12 +2786,12 @@
         <v>0</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15" hidden="1">
       <c r="A103" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B103" s="12">
         <v>8641.5499999999993</v>
@@ -2799,12 +2802,12 @@
         <v>0</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" hidden="1">
       <c r="A104" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B104" s="12">
         <v>5183.9274999999998</v>
@@ -2815,12 +2818,12 @@
         <v>0</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" hidden="1">
       <c r="A105" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B105" s="12">
         <v>5455.6049999999996</v>
@@ -2831,12 +2834,12 @@
         <v>0</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15" hidden="1">
       <c r="A106" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B106" s="12">
         <v>4526.2875000000004</v>
@@ -2847,12 +2850,12 @@
         <v>0</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15" hidden="1">
       <c r="A107" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B107" s="12">
         <v>5510.74</v>
@@ -2863,28 +2866,30 @@
         <v>0</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="15" hidden="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15">
       <c r="A108" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B108" s="12">
         <v>4896.21</v>
       </c>
-      <c r="C108" s="11"/>
+      <c r="C108" s="11">
+        <v>4</v>
+      </c>
       <c r="D108" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>19584.84</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15" hidden="1">
       <c r="A109" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B109" s="12">
         <v>5150.8500000000004</v>
@@ -2895,12 +2900,12 @@
         <v>0</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" hidden="1">
       <c r="A110" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B110" s="12">
         <v>4973.3999999999996</v>
@@ -2911,12 +2916,12 @@
         <v>0</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" hidden="1">
       <c r="A111" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B111" s="12">
         <v>5423.53</v>
@@ -2927,12 +2932,12 @@
         <v>0</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15" hidden="1">
       <c r="A112" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B112" s="12">
         <v>5940.82</v>
@@ -2943,12 +2948,12 @@
         <v>0</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15" hidden="1">
       <c r="A113" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B113" s="12">
         <v>5257.11</v>
@@ -2959,12 +2964,12 @@
         <v>0</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15" hidden="1">
       <c r="A114" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B114" s="12">
         <v>2900.2325000000001</v>
@@ -2975,12 +2980,12 @@
         <v>0</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15" hidden="1">
       <c r="A115" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B115" s="12">
         <v>3143.84</v>
@@ -2991,12 +2996,12 @@
         <v>0</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15" hidden="1">
       <c r="A116" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B116" s="12">
         <v>3518.7750000000001</v>
@@ -3010,7 +3015,7 @@
     </row>
     <row r="117" spans="1:5" ht="15" hidden="1">
       <c r="A117" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B117" s="12">
         <v>3556.87</v>
@@ -3021,12 +3026,12 @@
         <v>0</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" hidden="1">
       <c r="A118" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B118" s="12">
         <v>3471.66</v>
@@ -3037,12 +3042,12 @@
         <v>0</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" hidden="1">
       <c r="A119" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B119" s="12">
         <v>3919.7750000000001</v>
@@ -3053,12 +3058,12 @@
         <v>0</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15" hidden="1">
       <c r="A120" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B120" s="12">
         <v>4534.3074999999999</v>
@@ -3069,12 +3074,12 @@
         <v>0</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" hidden="1">
       <c r="A121" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B121" s="12">
         <v>3433.56</v>
@@ -3085,12 +3090,12 @@
         <v>0</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15" hidden="1">
       <c r="A122" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B122" s="12">
         <v>4476.1625000000004</v>
@@ -3104,25 +3109,25 @@
     </row>
     <row r="123" spans="1:5" ht="15">
       <c r="A123" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123" s="12">
         <v>4389.95</v>
       </c>
       <c r="C123" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D123" s="13">
         <f t="shared" si="3"/>
-        <v>21949.75</v>
+        <v>26339.699999999997</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" hidden="1">
       <c r="A124" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B124" s="12">
         <v>5269.14</v>
@@ -3133,12 +3138,12 @@
         <v>0</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15" hidden="1">
       <c r="A125" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B125" s="12">
         <v>5921.7674999999999</v>
@@ -3149,12 +3154,12 @@
         <v>0</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="12" hidden="1" customHeight="1">
       <c r="A126" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B126" s="12">
         <v>1170.92</v>
@@ -3165,12 +3170,12 @@
         <v>0</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" hidden="1">
       <c r="A127" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B127" s="12">
         <v>3934.8125</v>
@@ -3181,12 +3186,12 @@
         <v>0</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" hidden="1">
       <c r="A128" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B128" s="12">
         <v>4027.0425</v>
@@ -3197,12 +3202,12 @@
         <v>0</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15" hidden="1">
       <c r="A129" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B129" s="12">
         <v>3892.71</v>
@@ -3213,12 +3218,12 @@
         <v>0</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15" hidden="1">
       <c r="A130" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B130" s="12">
         <v>4507.24</v>
@@ -3229,12 +3234,12 @@
         <v>0</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15" hidden="1">
       <c r="A131" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B131" s="12">
         <v>4409</v>
@@ -3245,12 +3250,12 @@
         <v>0</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15" hidden="1">
       <c r="A132" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B132" s="12">
         <v>4165.3900000000003</v>
@@ -3261,12 +3266,12 @@
         <v>0</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15" hidden="1">
       <c r="A133" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B133" s="12">
         <v>4115.26</v>
@@ -3277,30 +3282,30 @@
         <v>0</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15">
       <c r="A134" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B134" s="12">
         <v>8599.4500000000007</v>
       </c>
       <c r="C134" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D134" s="13">
         <f t="shared" si="3"/>
-        <v>85994.5</v>
+        <v>17198.900000000001</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15" hidden="1">
       <c r="A135" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B135" s="12">
         <v>12310.7</v>
@@ -3311,21 +3316,21 @@
         <v>0</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="136" spans="1:9" s="2" customFormat="1" ht="15">
       <c r="A136" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B136" s="41"/>
       <c r="C136" s="19">
         <f>SUM(C5:C135)</f>
-        <v>160</v>
+        <v>259</v>
       </c>
       <c r="D136" s="20">
         <f>SUBTOTAL(9,D5:D135)</f>
-        <v>285687.65000000002</v>
+        <v>302666.52249999996</v>
       </c>
       <c r="E136" s="19"/>
     </row>
@@ -3335,7 +3340,7 @@
     <row r="138" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A138" s="21"/>
       <c r="B138" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C138" s="42"/>
       <c r="D138" s="42"/>
@@ -3344,13 +3349,13 @@
     <row r="139" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A139" s="23"/>
       <c r="B139" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C139" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C139" s="24" t="s">
-        <v>69</v>
-      </c>
       <c r="D139" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E139" s="22"/>
       <c r="I139" s="25"/>
@@ -3358,7 +3363,7 @@
     <row r="140" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A140" s="26"/>
       <c r="B140" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C140" s="27">
         <v>0</v>
@@ -3369,10 +3374,10 @@
     <row r="141" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A141" s="26"/>
       <c r="B141" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C141" s="32">
-        <v>400000</v>
+        <v>180000</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="22"/>
@@ -3380,7 +3385,7 @@
     <row r="142" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A142" s="26"/>
       <c r="B142" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C142" s="27">
         <v>0</v>
@@ -3391,7 +3396,7 @@
     <row r="143" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A143" s="26"/>
       <c r="B143" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C143" s="27"/>
       <c r="D143" s="11"/>
@@ -3400,7 +3405,7 @@
     <row r="144" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A144" s="26"/>
       <c r="B144" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C144" s="27">
         <v>0</v>
@@ -3411,7 +3416,7 @@
     <row r="145" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A145" s="26"/>
       <c r="B145" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C145" s="27">
         <v>0</v>
@@ -3422,11 +3427,11 @@
     <row r="146" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A146" s="23"/>
       <c r="B146" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C146" s="29">
         <f>SUM(C140:C145)</f>
-        <v>400000</v>
+        <v>180000</v>
       </c>
       <c r="D146" s="30"/>
       <c r="E146" s="22"/>

--- a/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -13,11 +13,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$4:$E$135</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="179">
   <si>
     <t>Model Name</t>
   </si>
@@ -277,9 +278,6 @@
     <t>Red</t>
   </si>
   <si>
-    <t>i70</t>
-  </si>
-  <si>
     <t>BL70</t>
   </si>
   <si>
@@ -541,13 +539,22 @@
     <t xml:space="preserve"> Black </t>
   </si>
   <si>
-    <t>27.05.19</t>
-  </si>
-  <si>
     <t>L52</t>
   </si>
   <si>
     <t>White_Red</t>
+  </si>
+  <si>
+    <t>28.05.19</t>
+  </si>
+  <si>
+    <t>i72</t>
+  </si>
+  <si>
+    <t>Black_Red &amp; Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Black &amp; Gold</t>
   </si>
 </sst>
 </file>
@@ -1207,10 +1214,10 @@
   <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D150" sqref="D150"/>
+      <selection pane="bottomRight" activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1234,7 +1241,7 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A2" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -1243,19 +1250,19 @@
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A3" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>75</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1283,14 +1290,14 @@
         <v>779.95</v>
       </c>
       <c r="C5" s="11">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D5" s="13">
         <f>C5*B5</f>
-        <v>77995</v>
+        <v>7799.5</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" hidden="1">
@@ -1307,45 +1314,41 @@
       </c>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="15">
+    <row r="7" spans="1:5" ht="15" hidden="1">
       <c r="A7" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="12">
         <v>789.97</v>
       </c>
-      <c r="C7" s="11">
-        <v>20</v>
-      </c>
+      <c r="C7" s="11"/>
       <c r="D7" s="13">
         <f t="shared" si="0"/>
-        <v>15799.400000000001</v>
+        <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" hidden="1">
       <c r="A8" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="12">
         <v>769.92</v>
       </c>
-      <c r="C8" s="11">
-        <v>20</v>
-      </c>
+      <c r="C8" s="11"/>
       <c r="D8" s="13">
         <f>B8*C8</f>
-        <v>15398.4</v>
+        <v>0</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" hidden="1">
       <c r="A9" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B9" s="12">
         <v>896.23500000000001</v>
@@ -1361,43 +1364,41 @@
     </row>
     <row r="10" spans="1:5" ht="15">
       <c r="A10" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="12">
         <v>901.24749999999995</v>
       </c>
       <c r="C10" s="11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D10" s="13">
         <f>B10*C10</f>
-        <v>11716.217499999999</v>
+        <v>18024.949999999997</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" hidden="1">
       <c r="A11" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="12">
         <v>858.14</v>
       </c>
-      <c r="C11" s="11">
-        <v>20</v>
-      </c>
+      <c r="C11" s="11"/>
       <c r="D11" s="13">
         <f t="shared" si="0"/>
-        <v>17162.8</v>
+        <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" hidden="1">
       <c r="A12" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="12">
         <v>946.36</v>
@@ -1408,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" hidden="1">
@@ -1425,17 +1426,19 @@
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="14" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A14" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" s="15">
         <v>1159.8900000000001</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="11">
+        <v>60</v>
+      </c>
       <c r="D14" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>69593.400000000009</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>83</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="15" spans="1:5" ht="15" hidden="1">
       <c r="A15" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="12">
         <v>887.21</v>
@@ -1457,7 +1460,7 @@
     </row>
     <row r="16" spans="1:5" ht="15" hidden="1">
       <c r="A16" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="12">
         <v>868.17</v>
@@ -1468,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" hidden="1">
@@ -1487,20 +1490,20 @@
     </row>
     <row r="18" spans="1:5" ht="15">
       <c r="A18" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B18" s="12">
         <v>1140.8499999999999</v>
       </c>
       <c r="C18" s="11">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D18" s="13">
         <f t="shared" si="0"/>
-        <v>22817</v>
+        <v>91268</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" hidden="1">
@@ -1516,12 +1519,12 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A20" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20" s="15">
         <v>985.46</v>
@@ -1560,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" hidden="1">
@@ -1606,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" hidden="1">
@@ -1625,7 +1628,7 @@
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A27" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B27" s="15">
         <v>936.34</v>
@@ -1638,12 +1641,12 @@
         <v>18726.8</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A28" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28" s="15">
         <v>5607.99</v>
@@ -1659,7 +1662,7 @@
     </row>
     <row r="29" spans="1:5" ht="15" hidden="1">
       <c r="A29" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" s="12">
         <v>955.38</v>
@@ -1673,7 +1676,7 @@
     </row>
     <row r="30" spans="1:5" ht="15" hidden="1">
       <c r="A30" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B30" s="12">
         <v>1014.53</v>
@@ -1699,17 +1702,19 @@
       </c>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A32" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" s="15">
         <v>1159.8900000000001</v>
       </c>
-      <c r="C32" s="11"/>
+      <c r="C32" s="11">
+        <v>10</v>
+      </c>
       <c r="D32" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11598.900000000001</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>83</v>
@@ -1728,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" hidden="1">
@@ -1819,7 +1824,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" hidden="1">
       <c r="A40" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B40" s="12">
         <v>2788.96</v>
@@ -1830,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" hidden="1">
@@ -1851,25 +1856,25 @@
     </row>
     <row r="42" spans="1:5" ht="15">
       <c r="A42" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B42" s="12">
         <v>6397.96</v>
       </c>
       <c r="C42" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" s="13">
         <f t="shared" si="0"/>
-        <v>25591.84</v>
+        <v>31989.8</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" hidden="1">
       <c r="A43" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B43" s="12">
         <v>5158.87</v>
@@ -1880,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" hidden="1">
@@ -1926,28 +1931,30 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" hidden="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15">
       <c r="A47" s="11" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="B47" s="12">
-        <v>7851.58</v>
-      </c>
-      <c r="C47" s="11"/>
+        <v>5793.45</v>
+      </c>
+      <c r="C47" s="11">
+        <v>10</v>
+      </c>
       <c r="D47" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57934.5</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" hidden="1">
       <c r="A48" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B48" s="12">
         <v>7714.24</v>
@@ -1977,25 +1984,27 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" hidden="1">
+    <row r="50" spans="1:5" ht="15">
       <c r="A50" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B50" s="12">
         <v>6369.89</v>
       </c>
-      <c r="C50" s="11"/>
+      <c r="C50" s="11">
+        <v>20</v>
+      </c>
       <c r="D50" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>127397.8</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1">
       <c r="A51" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B51" s="12">
         <v>8877.14</v>
@@ -2011,7 +2020,7 @@
     </row>
     <row r="52" spans="1:5" ht="15" hidden="1">
       <c r="A52" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B52" s="12">
         <v>8573.3799999999992</v>
@@ -2022,12 +2031,12 @@
         <v>0</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" hidden="1">
       <c r="A53" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" s="12">
         <v>8967.36</v>
@@ -2043,7 +2052,7 @@
     </row>
     <row r="54" spans="1:5" ht="15" hidden="1">
       <c r="A54" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B54" s="12">
         <v>9012.48</v>
@@ -2054,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" hidden="1">
@@ -2073,7 +2082,7 @@
     </row>
     <row r="56" spans="1:5" ht="15" hidden="1">
       <c r="A56" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B56" s="31">
         <v>7309.2275</v>
@@ -2084,12 +2093,12 @@
         <v>0</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" hidden="1">
       <c r="A57" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B57" s="12">
         <v>1423.55</v>
@@ -2159,25 +2168,27 @@
       </c>
       <c r="E61" s="11"/>
     </row>
-    <row r="62" spans="1:5" ht="15" hidden="1">
+    <row r="62" spans="1:5" ht="15">
       <c r="A62" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B62" s="34">
         <v>1169.9175</v>
       </c>
-      <c r="C62" s="11"/>
+      <c r="C62" s="11">
+        <v>10</v>
+      </c>
       <c r="D62" s="13">
         <f>B62*C62</f>
-        <v>0</v>
+        <v>11699.174999999999</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" hidden="1">
       <c r="A63" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B63" s="31">
         <v>4973.3999999999996</v>
@@ -2191,22 +2202,20 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15">
+    <row r="64" spans="1:5" ht="15" hidden="1">
       <c r="A64" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B64" s="33">
         <v>1053.6275000000001</v>
       </c>
-      <c r="C64" s="11">
-        <v>10</v>
-      </c>
+      <c r="C64" s="11"/>
       <c r="D64" s="13">
         <f>B64*C64</f>
-        <v>10536.275000000001</v>
+        <v>0</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" hidden="1">
@@ -2225,7 +2234,7 @@
     </row>
     <row r="66" spans="1:5" ht="15" hidden="1">
       <c r="A66" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B66" s="12">
         <v>1072.675</v>
@@ -2239,17 +2248,19 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" hidden="1">
+    <row r="67" spans="1:5" ht="15">
       <c r="A67" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B67" s="12">
         <v>1024.56</v>
       </c>
-      <c r="C67" s="11"/>
+      <c r="C67" s="11">
+        <v>20</v>
+      </c>
       <c r="D67" s="13">
         <f>B67*C67</f>
-        <v>0</v>
+        <v>20491.199999999997</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>83</v>
@@ -2257,7 +2268,7 @@
     </row>
     <row r="68" spans="1:5" ht="15" hidden="1">
       <c r="A68" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B68" s="12">
         <v>1077.6875</v>
@@ -2271,25 +2282,27 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" hidden="1">
+    <row r="69" spans="1:5" ht="15">
       <c r="A69" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B69" s="12">
         <v>1092.7249999999999</v>
       </c>
-      <c r="C69" s="11"/>
+      <c r="C69" s="11">
+        <v>30</v>
+      </c>
       <c r="D69" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32781.75</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" hidden="1">
       <c r="A70" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B70" s="31">
         <v>4165.3874999999998</v>
@@ -2317,20 +2330,22 @@
       </c>
       <c r="E71" s="11"/>
     </row>
-    <row r="72" spans="1:5" ht="15" hidden="1">
+    <row r="72" spans="1:5" ht="15">
       <c r="A72" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B72" s="12">
         <v>1014.53</v>
       </c>
-      <c r="C72" s="11"/>
+      <c r="C72" s="11">
+        <v>80</v>
+      </c>
       <c r="D72" s="13">
         <f>B72*C72</f>
-        <v>0</v>
+        <v>81162.399999999994</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" hidden="1">
@@ -2365,7 +2380,7 @@
     </row>
     <row r="75" spans="1:5" ht="15" hidden="1">
       <c r="A75" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B75" s="12">
         <v>1101.75</v>
@@ -2379,7 +2394,7 @@
     </row>
     <row r="76" spans="1:5" ht="15" hidden="1">
       <c r="A76" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B76" s="12">
         <v>1072.675</v>
@@ -2390,12 +2405,12 @@
         <v>0</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" hidden="1">
       <c r="A77" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B77" s="12">
         <v>1297.2349999999999</v>
@@ -2409,22 +2424,20 @@
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15">
+    <row r="78" spans="1:5" ht="15" hidden="1">
       <c r="A78" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B78" s="12">
         <v>1189.9675</v>
       </c>
-      <c r="C78" s="11">
-        <v>20</v>
-      </c>
+      <c r="C78" s="11"/>
       <c r="D78" s="13">
         <f>C78*B78</f>
-        <v>23799.35</v>
+        <v>0</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" hidden="1">
@@ -2530,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15" hidden="1">
@@ -2581,17 +2594,19 @@
         <v>78</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" hidden="1">
+    <row r="89" spans="1:5" ht="15">
       <c r="A89" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B89" s="12">
         <v>5607.98</v>
       </c>
-      <c r="C89" s="11"/>
+      <c r="C89" s="11">
+        <v>10</v>
+      </c>
       <c r="D89" s="13">
         <f>C89*B89</f>
-        <v>0</v>
+        <v>56079.799999999996</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>78</v>
@@ -2599,7 +2614,7 @@
     </row>
     <row r="90" spans="1:5" ht="15" hidden="1">
       <c r="A90" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B90" s="12">
         <v>17443.5</v>
@@ -2613,7 +2628,7 @@
     </row>
     <row r="91" spans="1:5" ht="15" hidden="1">
       <c r="A91" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B91" s="12">
         <v>13914.7</v>
@@ -2627,7 +2642,7 @@
     </row>
     <row r="92" spans="1:5" ht="15" hidden="1">
       <c r="A92" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B92" s="12">
         <v>10133.27</v>
@@ -2641,7 +2656,7 @@
     </row>
     <row r="93" spans="1:5" ht="15" hidden="1">
       <c r="A93" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B93" s="12">
         <v>23704.11</v>
@@ -2701,7 +2716,7 @@
     </row>
     <row r="97" spans="1:5" ht="15" hidden="1">
       <c r="A97" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B97" s="17">
         <v>1219.04</v>
@@ -2717,7 +2732,7 @@
     </row>
     <row r="98" spans="1:5" ht="15" hidden="1">
       <c r="A98" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B98" s="18">
         <v>1336.33</v>
@@ -2839,7 +2854,7 @@
     </row>
     <row r="106" spans="1:5" ht="15" hidden="1">
       <c r="A106" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B106" s="12">
         <v>4526.2875000000004</v>
@@ -2871,41 +2886,43 @@
     </row>
     <row r="108" spans="1:5" ht="15">
       <c r="A108" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B108" s="12">
         <v>4896.21</v>
       </c>
       <c r="C108" s="11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D108" s="13">
         <f t="shared" si="3"/>
-        <v>19584.84</v>
+        <v>34273.47</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15" hidden="1">
+    <row r="109" spans="1:5" ht="15">
       <c r="A109" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B109" s="12">
         <v>5150.8500000000004</v>
       </c>
-      <c r="C109" s="11"/>
+      <c r="C109" s="11">
+        <v>6</v>
+      </c>
       <c r="D109" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30905.100000000002</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" hidden="1">
       <c r="A110" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B110" s="12">
         <v>4973.3999999999996</v>
@@ -2921,7 +2938,7 @@
     </row>
     <row r="111" spans="1:5" ht="15" hidden="1">
       <c r="A111" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B111" s="12">
         <v>5423.53</v>
@@ -2937,7 +2954,7 @@
     </row>
     <row r="112" spans="1:5" ht="15" hidden="1">
       <c r="A112" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B112" s="12">
         <v>5940.82</v>
@@ -2951,20 +2968,22 @@
         <v>78</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15" hidden="1">
+    <row r="113" spans="1:5" ht="15">
       <c r="A113" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B113" s="12">
         <v>5257.11</v>
       </c>
-      <c r="C113" s="11"/>
+      <c r="C113" s="11">
+        <v>20</v>
+      </c>
       <c r="D113" s="13">
         <f>C113*B113</f>
-        <v>0</v>
+        <v>105142.2</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15" hidden="1">
@@ -3031,7 +3050,7 @@
     </row>
     <row r="118" spans="1:5" ht="15" hidden="1">
       <c r="A118" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B118" s="12">
         <v>3471.66</v>
@@ -3042,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" hidden="1">
@@ -3079,7 +3098,7 @@
     </row>
     <row r="121" spans="1:5" ht="15" hidden="1">
       <c r="A121" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B121" s="12">
         <v>3433.56</v>
@@ -3090,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15" hidden="1">
@@ -3109,20 +3128,20 @@
     </row>
     <row r="123" spans="1:5" ht="15">
       <c r="A123" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B123" s="12">
         <v>4389.95</v>
       </c>
       <c r="C123" s="11">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D123" s="13">
         <f t="shared" si="3"/>
-        <v>26339.699999999997</v>
+        <v>175598</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" hidden="1">
@@ -3159,7 +3178,7 @@
     </row>
     <row r="126" spans="1:5" ht="12" hidden="1" customHeight="1">
       <c r="A126" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B126" s="12">
         <v>1170.92</v>
@@ -3170,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" hidden="1">
@@ -3189,25 +3208,27 @@
         <v>78</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15" hidden="1">
+    <row r="128" spans="1:5" ht="15">
       <c r="A128" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B128" s="12">
         <v>4027.0425</v>
       </c>
-      <c r="C128" s="11"/>
+      <c r="C128" s="11">
+        <v>3</v>
+      </c>
       <c r="D128" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12081.127500000001</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15" hidden="1">
       <c r="A129" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B129" s="12">
         <v>3892.71</v>
@@ -3218,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15" hidden="1">
@@ -3239,7 +3260,7 @@
     </row>
     <row r="131" spans="1:9" ht="15" hidden="1">
       <c r="A131" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B131" s="12">
         <v>4409</v>
@@ -3255,7 +3276,7 @@
     </row>
     <row r="132" spans="1:9" ht="15" hidden="1">
       <c r="A132" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B132" s="12">
         <v>4165.3900000000003</v>
@@ -3266,41 +3287,41 @@
         <v>0</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="15" hidden="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B133" s="12">
         <v>4115.26</v>
       </c>
-      <c r="C133" s="11"/>
+      <c r="C133" s="11">
+        <v>3</v>
+      </c>
       <c r="D133" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12345.78</v>
       </c>
       <c r="E133" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15" hidden="1">
       <c r="A134" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B134" s="12">
         <v>8599.4500000000007</v>
       </c>
-      <c r="C134" s="11">
-        <v>2</v>
-      </c>
+      <c r="C134" s="11"/>
       <c r="D134" s="13">
         <f t="shared" si="3"/>
-        <v>17198.900000000001</v>
+        <v>0</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15" hidden="1">
@@ -3326,11 +3347,11 @@
       <c r="B136" s="41"/>
       <c r="C136" s="19">
         <f>SUM(C5:C135)</f>
-        <v>259</v>
+        <v>464</v>
       </c>
       <c r="D136" s="20">
         <f>SUBTOTAL(9,D5:D135)</f>
-        <v>302666.52249999996</v>
+        <v>1006893.6524999999</v>
       </c>
       <c r="E136" s="19"/>
     </row>
@@ -3377,7 +3398,7 @@
         <v>70</v>
       </c>
       <c r="C141" s="32">
-        <v>180000</v>
+        <v>1000000</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="22"/>
@@ -3431,7 +3452,7 @@
       </c>
       <c r="C146" s="29">
         <f>SUM(C140:C145)</f>
-        <v>180000</v>
+        <v>1000000</v>
       </c>
       <c r="D146" s="30"/>
       <c r="E146" s="22"/>

--- a/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -13,7 +13,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$4:$E$135</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 

--- a/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -10,14 +10,14 @@
     <sheet name="Daily Requisition" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$4:$E$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$4:$E$134</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="177">
   <si>
     <t>Model Name</t>
   </si>
@@ -466,9 +466,6 @@
     <t>Black_Green</t>
   </si>
   <si>
-    <t>Black &amp; Dark_Blue</t>
-  </si>
-  <si>
     <t>L90</t>
   </si>
   <si>
@@ -499,9 +496,6 @@
     <t>Black/Darkblue</t>
   </si>
   <si>
-    <t>L25i</t>
-  </si>
-  <si>
     <t>D54+</t>
   </si>
   <si>
@@ -535,18 +529,12 @@
     <t>Black &amp; Black_Red</t>
   </si>
   <si>
-    <t xml:space="preserve"> Black </t>
-  </si>
-  <si>
     <t>L52</t>
   </si>
   <si>
     <t>White_Red</t>
   </si>
   <si>
-    <t>28.05.19</t>
-  </si>
-  <si>
     <t>i72</t>
   </si>
   <si>
@@ -554,6 +542,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Black &amp; Gold</t>
+  </si>
+  <si>
+    <t>30.05.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold &amp; Black </t>
   </si>
 </sst>
 </file>
@@ -1210,13 +1204,13 @@
   <sheetPr filterMode="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C140" sqref="C140"/>
+      <selection pane="bottomRight" activeCell="H137" sqref="H137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1281,22 +1275,20 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15">
+    <row r="5" spans="1:5" ht="15" hidden="1">
       <c r="A5" s="11" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="12">
         <v>779.95</v>
       </c>
-      <c r="C5" s="11">
-        <v>10</v>
-      </c>
+      <c r="C5" s="11"/>
       <c r="D5" s="13">
         <f>C5*B5</f>
-        <v>7799.5</v>
+        <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" hidden="1">
@@ -1308,7 +1300,7 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="13">
-        <f t="shared" ref="D6:D95" si="0">C6*B6</f>
+        <f t="shared" ref="D6:D94" si="0">C6*B6</f>
         <v>0</v>
       </c>
       <c r="E6" s="11"/>
@@ -1326,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" hidden="1">
@@ -1345,35 +1337,35 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" hidden="1">
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="12">
         <v>896.23500000000001</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="11">
+        <v>80</v>
+      </c>
       <c r="D9" s="13">
         <f>C9*B9</f>
-        <v>0</v>
+        <v>71698.8</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15">
+    <row r="10" spans="1:5" ht="15" hidden="1">
       <c r="A10" s="11" t="s">
         <v>138</v>
       </c>
       <c r="B10" s="12">
         <v>901.24749999999995</v>
       </c>
-      <c r="C10" s="11">
-        <v>20</v>
-      </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="13">
         <f>B10*C10</f>
-        <v>18024.949999999997</v>
+        <v>0</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>83</v>
@@ -1392,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" hidden="1">
@@ -1408,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" hidden="1">
@@ -1425,19 +1417,17 @@
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="14" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A14" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" s="15">
         <v>1159.8900000000001</v>
       </c>
-      <c r="C14" s="11">
-        <v>60</v>
-      </c>
+      <c r="C14" s="11"/>
       <c r="D14" s="16">
         <f t="shared" si="0"/>
-        <v>69593.400000000009</v>
+        <v>0</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>83</v>
@@ -1455,9 +1445,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" hidden="1">
+      <c r="E15" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1">
       <c r="A16" s="11" t="s">
         <v>93</v>
       </c>
@@ -1468,9 +1460,6 @@
       <c r="D16" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" hidden="1">
@@ -1487,22 +1476,20 @@
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5" ht="15">
+    <row r="18" spans="1:5" ht="15" hidden="1">
       <c r="A18" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B18" s="12">
         <v>1140.8499999999999</v>
       </c>
-      <c r="C18" s="11">
-        <v>80</v>
-      </c>
+      <c r="C18" s="11"/>
       <c r="D18" s="13">
         <f t="shared" si="0"/>
-        <v>91268</v>
+        <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" hidden="1">
@@ -1518,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
@@ -1608,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" hidden="1">
@@ -1625,19 +1612,17 @@
       </c>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A27" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B27" s="15">
         <v>936.34</v>
       </c>
-      <c r="C27" s="11">
-        <v>20</v>
-      </c>
+      <c r="C27" s="11"/>
       <c r="D27" s="16">
         <f t="shared" si="0"/>
-        <v>18726.8</v>
+        <v>0</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>140</v>
@@ -1645,7 +1630,7 @@
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A28" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="15">
         <v>5607.99</v>
@@ -1701,19 +1686,17 @@
       </c>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A32" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B32" s="15">
         <v>1159.8900000000001</v>
       </c>
-      <c r="C32" s="11">
-        <v>10</v>
-      </c>
+      <c r="C32" s="11"/>
       <c r="D32" s="16">
         <f t="shared" si="0"/>
-        <v>11598.900000000001</v>
+        <v>0</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>83</v>
@@ -1861,27 +1844,29 @@
         <v>6397.96</v>
       </c>
       <c r="C42" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D42" s="13">
         <f t="shared" si="0"/>
-        <v>31989.8</v>
+        <v>44785.72</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" hidden="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15">
       <c r="A43" s="11" t="s">
         <v>104</v>
       </c>
       <c r="B43" s="12">
         <v>5158.87</v>
       </c>
-      <c r="C43" s="11"/>
+      <c r="C43" s="11">
+        <v>20</v>
+      </c>
       <c r="D43" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103177.4</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>142</v>
@@ -1933,22 +1918,20 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15">
+    <row r="47" spans="1:5" ht="15" hidden="1">
       <c r="A47" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B47" s="12">
         <v>5793.45</v>
       </c>
-      <c r="C47" s="11">
-        <v>10</v>
-      </c>
+      <c r="C47" s="11"/>
       <c r="D47" s="13">
         <f t="shared" si="0"/>
-        <v>57934.5</v>
+        <v>0</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" hidden="1">
@@ -1991,14 +1974,14 @@
         <v>6369.89</v>
       </c>
       <c r="C50" s="11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D50" s="13">
         <f t="shared" si="0"/>
-        <v>127397.8</v>
+        <v>95548.35</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1">
@@ -2092,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" hidden="1">
@@ -2167,35 +2150,35 @@
       </c>
       <c r="E61" s="11"/>
     </row>
-    <row r="62" spans="1:5" ht="15">
+    <row r="62" spans="1:5" ht="15" hidden="1">
       <c r="A62" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B62" s="34">
         <v>1169.9175</v>
       </c>
-      <c r="C62" s="11">
-        <v>10</v>
-      </c>
+      <c r="C62" s="11"/>
       <c r="D62" s="13">
         <f>B62*C62</f>
-        <v>11699.174999999999</v>
+        <v>0</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" hidden="1">
+    <row r="63" spans="1:5" ht="15">
       <c r="A63" s="11" t="s">
         <v>130</v>
       </c>
       <c r="B63" s="31">
         <v>4973.3999999999996</v>
       </c>
-      <c r="C63" s="11"/>
+      <c r="C63" s="11">
+        <v>3</v>
+      </c>
       <c r="D63" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14920.199999999999</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>78</v>
@@ -2233,7 +2216,7 @@
     </row>
     <row r="66" spans="1:5" ht="15" hidden="1">
       <c r="A66" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B66" s="12">
         <v>1072.675</v>
@@ -2247,204 +2230,198 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15">
+    <row r="67" spans="1:5" ht="15" hidden="1">
       <c r="A67" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B67" s="12">
         <v>1024.56</v>
       </c>
-      <c r="C67" s="11">
-        <v>20</v>
-      </c>
+      <c r="C67" s="11"/>
       <c r="D67" s="13">
         <f>B67*C67</f>
-        <v>20491.199999999997</v>
+        <v>0</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" hidden="1">
+    <row r="68" spans="1:5" ht="15">
       <c r="A68" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B68" s="12">
         <v>1077.6875</v>
       </c>
-      <c r="C68" s="11"/>
+      <c r="C68" s="11">
+        <v>20</v>
+      </c>
       <c r="D68" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21553.75</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15">
+    <row r="69" spans="1:5" ht="15" hidden="1">
       <c r="A69" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B69" s="12">
-        <v>1092.7249999999999</v>
-      </c>
-      <c r="C69" s="11">
-        <v>30</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B69" s="31">
+        <v>4165.3874999999998</v>
+      </c>
+      <c r="C69" s="11"/>
       <c r="D69" s="13">
         <f t="shared" si="0"/>
-        <v>32781.75</v>
+        <v>0</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" hidden="1">
       <c r="A70" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B70" s="31">
-        <v>4165.3874999999998</v>
+        <v>26</v>
+      </c>
+      <c r="B70" s="12">
+        <v>1174.93</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E70" s="11" t="s">
-        <v>85</v>
-      </c>
+      <c r="E70" s="11"/>
     </row>
     <row r="71" spans="1:5" ht="15" hidden="1">
       <c r="A71" s="11" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="B71" s="12">
-        <v>1174.93</v>
+        <v>1014.53</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="11"/>
-    </row>
-    <row r="72" spans="1:5" ht="15">
+        <f>B71*C71</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" hidden="1">
       <c r="A72" s="11" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="B72" s="12">
-        <v>1014.53</v>
-      </c>
-      <c r="C72" s="11">
-        <v>80</v>
-      </c>
+        <v>1273.175</v>
+      </c>
+      <c r="C72" s="11"/>
       <c r="D72" s="13">
-        <f>B72*C72</f>
-        <v>81162.399999999994</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>159</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="11"/>
     </row>
     <row r="73" spans="1:5" ht="15" hidden="1">
       <c r="A73" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B73" s="12">
-        <v>1273.175</v>
+        <v>1077.6875</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E73" s="11"/>
+      <c r="E73" s="11" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="74" spans="1:5" ht="15" hidden="1">
       <c r="A74" s="11" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="B74" s="12">
-        <v>1077.6875</v>
+        <v>1101.75</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E74" s="11" t="s">
-        <v>85</v>
-      </c>
+      <c r="E74" s="11"/>
     </row>
     <row r="75" spans="1:5" ht="15" hidden="1">
       <c r="A75" s="11" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="B75" s="12">
-        <v>1101.75</v>
+        <v>1072.675</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="11"/>
+        <f>C75*B75</f>
+        <v>0</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="76" spans="1:5" ht="15" hidden="1">
       <c r="A76" s="11" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B76" s="12">
-        <v>1072.675</v>
+        <v>1297.2349999999999</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="13">
-        <f>C76*B76</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" hidden="1">
       <c r="A77" s="11" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B77" s="12">
-        <v>1297.2349999999999</v>
+        <v>1189.9675</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="13">
-        <f t="shared" si="0"/>
+        <f>C77*B77</f>
         <v>0</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" hidden="1">
       <c r="A78" s="11" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="B78" s="12">
-        <v>1189.9675</v>
+        <v>8150.3249999999998</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="13">
-        <f>C78*B78</f>
-        <v>0</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>166</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="11"/>
     </row>
     <row r="79" spans="1:5" ht="15" hidden="1">
       <c r="A79" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B79" s="12">
-        <v>8150.3249999999998</v>
+        <v>9067.6124999999993</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="13">
@@ -2455,54 +2432,56 @@
     </row>
     <row r="80" spans="1:5" ht="15" hidden="1">
       <c r="A80" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B80" s="12">
-        <v>9067.6124999999993</v>
+        <v>8565.36</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E80" s="11"/>
+      <c r="E80" s="14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="81" spans="1:5" ht="15" hidden="1">
       <c r="A81" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B81" s="12">
-        <v>8565.36</v>
+        <v>11854.5625</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E81" s="14" t="s">
-        <v>78</v>
-      </c>
+      <c r="E81" s="11"/>
     </row>
     <row r="82" spans="1:5" ht="15" hidden="1">
       <c r="A82" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B82" s="12">
-        <v>11854.5625</v>
+        <v>10616.475</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E82" s="11"/>
+      <c r="E82" s="11" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="83" spans="1:5" ht="15" hidden="1">
       <c r="A83" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B83" s="12">
-        <v>10616.475</v>
+        <v>12215.4625</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="13">
@@ -2510,15 +2489,15 @@
         <v>0</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" hidden="1">
       <c r="A84" s="11" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B84" s="12">
-        <v>12215.4625</v>
+        <v>12691.65</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="13">
@@ -2526,15 +2505,15 @@
         <v>0</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" hidden="1">
       <c r="A85" s="11" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="B85" s="12">
-        <v>12691.65</v>
+        <v>9097.6875</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="13">
@@ -2542,15 +2521,15 @@
         <v>0</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15" hidden="1">
       <c r="A86" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B86" s="12">
-        <v>9097.6875</v>
+        <v>10285.65</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="13">
@@ -2563,10 +2542,10 @@
     </row>
     <row r="87" spans="1:5" ht="15" hidden="1">
       <c r="A87" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B87" s="12">
-        <v>10285.65</v>
+        <v>6342.8175000000001</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="13">
@@ -2579,44 +2558,40 @@
     </row>
     <row r="88" spans="1:5" ht="15" hidden="1">
       <c r="A88" s="11" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="B88" s="12">
-        <v>6342.8175000000001</v>
+        <v>5607.98</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="13">
-        <f t="shared" si="0"/>
+        <f>C88*B88</f>
         <v>0</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15">
+    <row r="89" spans="1:5" ht="15" hidden="1">
       <c r="A89" s="11" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="B89" s="12">
-        <v>5607.98</v>
-      </c>
-      <c r="C89" s="11">
-        <v>10</v>
-      </c>
+        <v>17443.5</v>
+      </c>
+      <c r="C89" s="11"/>
       <c r="D89" s="13">
-        <f>C89*B89</f>
-        <v>56079.799999999996</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>78</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="11"/>
     </row>
     <row r="90" spans="1:5" ht="15" hidden="1">
       <c r="A90" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B90" s="12">
-        <v>17443.5</v>
+        <v>13914.7</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="13">
@@ -2627,98 +2602,100 @@
     </row>
     <row r="91" spans="1:5" ht="15" hidden="1">
       <c r="A91" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B91" s="12">
-        <v>13914.7</v>
+        <v>10133.27</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D91" si="1">C91*B91</f>
         <v>0</v>
       </c>
       <c r="E91" s="11"/>
     </row>
     <row r="92" spans="1:5" ht="15" hidden="1">
       <c r="A92" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B92" s="12">
-        <v>10133.27</v>
+        <v>23704.11</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="13">
-        <f t="shared" ref="D92" si="1">C92*B92</f>
+        <f t="shared" ref="D92" si="2">C92*B92</f>
         <v>0</v>
       </c>
       <c r="E92" s="11"/>
     </row>
     <row r="93" spans="1:5" ht="15" hidden="1">
       <c r="A93" s="11" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="B93" s="12">
-        <v>23704.11</v>
+        <v>1371.42</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="13">
-        <f t="shared" ref="D93" si="2">C93*B93</f>
-        <v>0</v>
-      </c>
-      <c r="E93" s="11"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="94" spans="1:5" ht="15" hidden="1">
       <c r="A94" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B94" s="12">
-        <v>1371.42</v>
+        <v>1410.5174999999999</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E94" s="11" t="s">
-        <v>78</v>
-      </c>
+      <c r="E94" s="11"/>
     </row>
     <row r="95" spans="1:5" ht="15" hidden="1">
       <c r="A95" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B95" s="12">
-        <v>1410.5174999999999</v>
+        <v>1694.2249999999999</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E95" s="11"/>
+        <f t="shared" ref="D95:D134" si="3">C95*B95</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="96" spans="1:5" ht="15" hidden="1">
       <c r="A96" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B96" s="12">
-        <v>1694.2249999999999</v>
+        <v>116</v>
+      </c>
+      <c r="B96" s="17">
+        <v>1219.04</v>
       </c>
       <c r="C96" s="11"/>
       <c r="D96" s="13">
-        <f t="shared" ref="D96:D135" si="3">C96*B96</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" hidden="1">
       <c r="A97" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B97" s="17">
-        <v>1219.04</v>
+        <v>121</v>
+      </c>
+      <c r="B97" s="18">
+        <v>1336.33</v>
       </c>
       <c r="C97" s="11"/>
       <c r="D97" s="13">
@@ -2731,26 +2708,24 @@
     </row>
     <row r="98" spans="1:5" ht="15" hidden="1">
       <c r="A98" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B98" s="18">
-        <v>1336.33</v>
+        <v>46</v>
+      </c>
+      <c r="B98" s="12">
+        <v>1871.6675</v>
       </c>
       <c r="C98" s="11"/>
       <c r="D98" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E98" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="E98" s="11"/>
     </row>
     <row r="99" spans="1:5" ht="15" hidden="1">
       <c r="A99" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B99" s="12">
-        <v>1871.6675</v>
+        <v>1854.625</v>
       </c>
       <c r="C99" s="11"/>
       <c r="D99" s="13">
@@ -2761,10 +2736,10 @@
     </row>
     <row r="100" spans="1:5" ht="15" hidden="1">
       <c r="A100" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B100" s="12">
-        <v>1854.625</v>
+        <v>1446.6075000000001</v>
       </c>
       <c r="C100" s="11"/>
       <c r="D100" s="13">
@@ -2775,24 +2750,26 @@
     </row>
     <row r="101" spans="1:5" ht="15" hidden="1">
       <c r="A101" s="11" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B101" s="12">
-        <v>1446.6075000000001</v>
+        <v>7586.92</v>
       </c>
       <c r="C101" s="11"/>
       <c r="D101" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E101" s="11"/>
+      <c r="E101" s="11" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="102" spans="1:5" ht="15" hidden="1">
       <c r="A102" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B102" s="12">
-        <v>7586.92</v>
+        <v>8641.5499999999993</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="13">
@@ -2805,10 +2782,10 @@
     </row>
     <row r="103" spans="1:5" ht="15" hidden="1">
       <c r="A103" s="11" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B103" s="12">
-        <v>8641.5499999999993</v>
+        <v>5183.9274999999998</v>
       </c>
       <c r="C103" s="11"/>
       <c r="D103" s="13">
@@ -2816,15 +2793,15 @@
         <v>0</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" hidden="1">
       <c r="A104" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B104" s="12">
-        <v>5183.9274999999998</v>
+        <v>5455.6049999999996</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="13">
@@ -2835,96 +2812,96 @@
         <v>78</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15" hidden="1">
+    <row r="105" spans="1:5" ht="15">
       <c r="A105" s="11" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="B105" s="12">
-        <v>5455.6049999999996</v>
-      </c>
-      <c r="C105" s="11"/>
+        <v>4526.2875000000004</v>
+      </c>
+      <c r="C105" s="11">
+        <v>3</v>
+      </c>
       <c r="D105" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>C105*B105</f>
+        <v>13578.862500000001</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15" hidden="1">
       <c r="A106" s="11" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="B106" s="12">
-        <v>4526.2875000000004</v>
+        <v>5510.74</v>
       </c>
       <c r="C106" s="11"/>
       <c r="D106" s="13">
-        <f>C106*B106</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="15" hidden="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15">
       <c r="A107" s="11" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B107" s="12">
-        <v>5510.74</v>
-      </c>
-      <c r="C107" s="11"/>
+        <v>4896.21</v>
+      </c>
+      <c r="C107" s="11">
+        <v>10</v>
+      </c>
       <c r="D107" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>48962.1</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15">
+    <row r="108" spans="1:5" ht="15" hidden="1">
       <c r="A108" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B108" s="12">
-        <v>4896.21</v>
-      </c>
-      <c r="C108" s="11">
-        <v>7</v>
-      </c>
+        <v>5150.8500000000004</v>
+      </c>
+      <c r="C108" s="11"/>
       <c r="D108" s="13">
         <f t="shared" si="3"/>
-        <v>34273.47</v>
+        <v>0</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15" hidden="1">
       <c r="A109" s="11" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B109" s="12">
-        <v>5150.8500000000004</v>
-      </c>
-      <c r="C109" s="11">
-        <v>6</v>
-      </c>
+        <v>4973.3999999999996</v>
+      </c>
+      <c r="C109" s="11"/>
       <c r="D109" s="13">
         <f t="shared" si="3"/>
-        <v>30905.100000000002</v>
+        <v>0</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" hidden="1">
       <c r="A110" s="11" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B110" s="12">
-        <v>4973.3999999999996</v>
+        <v>5423.53</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="13">
@@ -2937,60 +2914,60 @@
     </row>
     <row r="111" spans="1:5" ht="15" hidden="1">
       <c r="A111" s="11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B111" s="12">
-        <v>5423.53</v>
+        <v>5940.82</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D111" si="4">C111*B111</f>
         <v>0</v>
       </c>
       <c r="E111" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15" hidden="1">
+    <row r="112" spans="1:5" ht="15">
       <c r="A112" s="11" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B112" s="12">
-        <v>5940.82</v>
-      </c>
-      <c r="C112" s="11"/>
+        <v>5257.11</v>
+      </c>
+      <c r="C112" s="11">
+        <v>10</v>
+      </c>
       <c r="D112" s="13">
-        <f t="shared" ref="D112" si="4">C112*B112</f>
-        <v>0</v>
+        <f>C112*B112</f>
+        <v>52571.1</v>
       </c>
       <c r="E112" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15" hidden="1">
+      <c r="A113" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B113" s="12">
+        <v>2900.2325000000001</v>
+      </c>
+      <c r="C113" s="11"/>
+      <c r="D113" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E113" s="11" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="15">
-      <c r="A113" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113" s="12">
-        <v>5257.11</v>
-      </c>
-      <c r="C113" s="11">
-        <v>20</v>
-      </c>
-      <c r="D113" s="13">
-        <f>C113*B113</f>
-        <v>105142.2</v>
-      </c>
-      <c r="E113" s="11" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15" hidden="1">
       <c r="A114" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B114" s="12">
-        <v>2900.2325000000001</v>
+        <v>3143.84</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="13">
@@ -2998,45 +2975,45 @@
         <v>0</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15" hidden="1">
       <c r="A115" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B115" s="12">
-        <v>3143.84</v>
+        <v>3518.7750000000001</v>
       </c>
       <c r="C115" s="11"/>
       <c r="D115" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E115" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="E115" s="11"/>
     </row>
     <row r="116" spans="1:5" ht="15" hidden="1">
       <c r="A116" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B116" s="12">
-        <v>3518.7750000000001</v>
+        <v>3556.87</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E116" s="11"/>
+      <c r="E116" s="11" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="117" spans="1:5" ht="15" hidden="1">
       <c r="A117" s="11" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="B117" s="12">
-        <v>3556.87</v>
+        <v>3471.66</v>
       </c>
       <c r="C117" s="11"/>
       <c r="D117" s="13">
@@ -3044,15 +3021,15 @@
         <v>0</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" hidden="1">
       <c r="A118" s="11" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="B118" s="12">
-        <v>3471.66</v>
+        <v>3919.7750000000001</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="13">
@@ -3060,15 +3037,15 @@
         <v>0</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" hidden="1">
       <c r="A119" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B119" s="12">
-        <v>3919.7750000000001</v>
+        <v>4534.3074999999999</v>
       </c>
       <c r="C119" s="11"/>
       <c r="D119" s="13">
@@ -3081,10 +3058,10 @@
     </row>
     <row r="120" spans="1:5" ht="15" hidden="1">
       <c r="A120" s="11" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="B120" s="12">
-        <v>4534.3074999999999</v>
+        <v>3433.56</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="13">
@@ -3092,63 +3069,63 @@
         <v>0</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" hidden="1">
       <c r="A121" s="11" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="B121" s="12">
-        <v>3433.56</v>
+        <v>4476.1625000000004</v>
       </c>
       <c r="C121" s="11"/>
       <c r="D121" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E121" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="15" hidden="1">
+      <c r="E121" s="11"/>
+    </row>
+    <row r="122" spans="1:5" ht="15">
       <c r="A122" s="11" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="B122" s="12">
-        <v>4476.1625000000004</v>
-      </c>
-      <c r="C122" s="11"/>
+        <v>4389.95</v>
+      </c>
+      <c r="C122" s="11">
+        <v>5</v>
+      </c>
       <c r="D122" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E122" s="11"/>
-    </row>
-    <row r="123" spans="1:5" ht="15">
+        <v>21949.75</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15" hidden="1">
       <c r="A123" s="11" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="B123" s="12">
-        <v>4389.95</v>
-      </c>
-      <c r="C123" s="11">
-        <v>40</v>
-      </c>
+        <v>5269.14</v>
+      </c>
+      <c r="C123" s="11"/>
       <c r="D123" s="13">
         <f t="shared" si="3"/>
-        <v>175598</v>
+        <v>0</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" hidden="1">
       <c r="A124" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B124" s="12">
-        <v>5269.14</v>
+        <v>5921.7674999999999</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="13">
@@ -3159,44 +3136,44 @@
         <v>78</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15" hidden="1">
+    <row r="125" spans="1:5" ht="12" hidden="1" customHeight="1">
       <c r="A125" s="11" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="B125" s="12">
-        <v>5921.7674999999999</v>
+        <v>1170.92</v>
       </c>
       <c r="C125" s="11"/>
       <c r="D125" s="13">
-        <f t="shared" si="3"/>
+        <f>C125*B125</f>
         <v>0</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="12" hidden="1" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15" hidden="1">
       <c r="A126" s="11" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="B126" s="12">
-        <v>1170.92</v>
+        <v>3934.8125</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="13">
-        <f>C126*B126</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" hidden="1">
       <c r="A127" s="11" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="B127" s="12">
-        <v>3934.8125</v>
+        <v>4027.0425</v>
       </c>
       <c r="C127" s="11"/>
       <c r="D127" s="13">
@@ -3204,33 +3181,31 @@
         <v>0</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15" hidden="1">
       <c r="A128" s="11" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B128" s="12">
-        <v>4027.0425</v>
-      </c>
-      <c r="C128" s="11">
-        <v>3</v>
-      </c>
+        <v>3892.71</v>
+      </c>
+      <c r="C128" s="11"/>
       <c r="D128" s="13">
         <f t="shared" si="3"/>
-        <v>12081.127500000001</v>
+        <v>0</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15" hidden="1">
       <c r="A129" s="11" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="B129" s="12">
-        <v>3892.71</v>
+        <v>4507.24</v>
       </c>
       <c r="C129" s="11"/>
       <c r="D129" s="13">
@@ -3238,15 +3213,15 @@
         <v>0</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15" hidden="1">
       <c r="A130" s="11" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="B130" s="12">
-        <v>4507.24</v>
+        <v>4409</v>
       </c>
       <c r="C130" s="11"/>
       <c r="D130" s="13">
@@ -3259,10 +3234,10 @@
     </row>
     <row r="131" spans="1:9" ht="15" hidden="1">
       <c r="A131" s="11" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="B131" s="12">
-        <v>4409</v>
+        <v>4165.3900000000003</v>
       </c>
       <c r="C131" s="11"/>
       <c r="D131" s="13">
@@ -3270,49 +3245,49 @@
         <v>0</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="15" hidden="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="11" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B132" s="12">
-        <v>4165.3900000000003</v>
-      </c>
-      <c r="C132" s="11"/>
+        <v>4115.26</v>
+      </c>
+      <c r="C132" s="11">
+        <v>4</v>
+      </c>
       <c r="D132" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16461.04</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15" hidden="1">
       <c r="A133" s="11" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="B133" s="12">
-        <v>4115.26</v>
-      </c>
-      <c r="C133" s="11">
-        <v>3</v>
-      </c>
+        <v>8599.4500000000007</v>
+      </c>
+      <c r="C133" s="11"/>
       <c r="D133" s="13">
         <f t="shared" si="3"/>
-        <v>12345.78</v>
+        <v>0</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15" hidden="1">
       <c r="A134" s="11" t="s">
-        <v>169</v>
+        <v>61</v>
       </c>
       <c r="B134" s="12">
-        <v>8599.4500000000007</v>
+        <v>12310.7</v>
       </c>
       <c r="C134" s="11"/>
       <c r="D134" s="13">
@@ -3320,73 +3295,68 @@
         <v>0</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="15" hidden="1">
-      <c r="A135" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B135" s="12">
-        <v>12310.7</v>
-      </c>
-      <c r="C135" s="11"/>
-      <c r="D135" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E135" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="2" customFormat="1" ht="15">
-      <c r="A136" s="41" t="s">
+    <row r="135" spans="1:9" s="2" customFormat="1" ht="15">
+      <c r="A135" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B136" s="41"/>
-      <c r="C136" s="19">
-        <f>SUM(C5:C135)</f>
-        <v>464</v>
-      </c>
-      <c r="D136" s="20">
-        <f>SUBTOTAL(9,D5:D135)</f>
-        <v>1006893.6524999999</v>
-      </c>
-      <c r="E136" s="19"/>
-    </row>
-    <row r="137" spans="1:9" ht="9.75" customHeight="1">
-      <c r="A137" s="3"/>
+      <c r="B135" s="41"/>
+      <c r="C135" s="19">
+        <f>SUM(C5:C134)</f>
+        <v>177</v>
+      </c>
+      <c r="D135" s="20">
+        <f>SUBTOTAL(9,D5:D134)</f>
+        <v>505207.07249999995</v>
+      </c>
+      <c r="E135" s="19"/>
+    </row>
+    <row r="136" spans="1:9" ht="9.75" customHeight="1">
+      <c r="A136" s="3"/>
+    </row>
+    <row r="137" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A137" s="21"/>
+      <c r="B137" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C137" s="42"/>
+      <c r="D137" s="42"/>
+      <c r="E137" s="22"/>
     </row>
     <row r="138" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A138" s="21"/>
-      <c r="B138" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="C138" s="42"/>
-      <c r="D138" s="42"/>
+      <c r="A138" s="23"/>
+      <c r="B138" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C138" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" s="24" t="s">
+        <v>64</v>
+      </c>
       <c r="E138" s="22"/>
+      <c r="I138" s="25"/>
     </row>
     <row r="139" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A139" s="23"/>
-      <c r="B139" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C139" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D139" s="24" t="s">
-        <v>64</v>
-      </c>
+      <c r="A139" s="26"/>
+      <c r="B139" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C139" s="27">
+        <v>0</v>
+      </c>
+      <c r="D139" s="11"/>
       <c r="E139" s="22"/>
-      <c r="I139" s="25"/>
     </row>
     <row r="140" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A140" s="26"/>
       <c r="B140" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C140" s="27">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="C140" s="32">
+        <v>225000</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="22"/>
@@ -3396,8 +3366,8 @@
       <c r="B141" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C141" s="32">
-        <v>1000000</v>
+      <c r="C141" s="27">
+        <v>0</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="22"/>
@@ -3405,27 +3375,27 @@
     <row r="142" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A142" s="26"/>
       <c r="B142" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C142" s="27">
-        <v>0</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C142" s="27"/>
       <c r="D142" s="11"/>
       <c r="E142" s="22"/>
     </row>
     <row r="143" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A143" s="26"/>
       <c r="B143" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C143" s="27"/>
+        <v>72</v>
+      </c>
+      <c r="C143" s="27">
+        <v>0</v>
+      </c>
       <c r="D143" s="11"/>
       <c r="E143" s="22"/>
     </row>
     <row r="144" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A144" s="26"/>
       <c r="B144" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C144" s="27">
         <v>0</v>
@@ -3434,35 +3404,24 @@
       <c r="E144" s="22"/>
     </row>
     <row r="145" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A145" s="26"/>
-      <c r="B145" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C145" s="27">
-        <v>0</v>
-      </c>
-      <c r="D145" s="11"/>
+      <c r="A145" s="23"/>
+      <c r="B145" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C145" s="29">
+        <f>SUM(C139:C144)</f>
+        <v>225000</v>
+      </c>
+      <c r="D145" s="30"/>
       <c r="E145" s="22"/>
     </row>
-    <row r="146" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A146" s="23"/>
-      <c r="B146" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C146" s="29">
-        <f>SUM(C140:C145)</f>
-        <v>1000000</v>
-      </c>
-      <c r="D146" s="30"/>
-      <c r="E146" s="22"/>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="3"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
+    <row r="146" spans="1:5">
+      <c r="A146" s="3"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:E135">
+  <autoFilter ref="A4:E134">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3472,8 +3431,8 @@
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="B137:D137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="177">
   <si>
     <t>Model Name</t>
   </si>
@@ -100,9 +100,6 @@
     <t>L26</t>
   </si>
   <si>
-    <t>L50</t>
-  </si>
-  <si>
     <t>L55</t>
   </si>
   <si>
@@ -544,10 +541,13 @@
     <t xml:space="preserve"> Black &amp; Gold</t>
   </si>
   <si>
-    <t>30.05.19</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gold &amp; Black </t>
+  </si>
+  <si>
+    <t>09.06.19</t>
+  </si>
+  <si>
+    <t>L25i</t>
   </si>
 </sst>
 </file>
@@ -1207,10 +1207,10 @@
   <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H137" sqref="H137"/>
+      <selection pane="bottomRight" activeCell="F142" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1225,7 +1225,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A1" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A2" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -1243,16 +1243,16 @@
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A3" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>175</v>
@@ -1263,21 +1263,21 @@
         <v>0</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" hidden="1">
       <c r="A5" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="12">
         <v>779.95</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" hidden="1">
@@ -1307,7 +1307,7 @@
     </row>
     <row r="7" spans="1:5" ht="15" hidden="1">
       <c r="A7" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="12">
         <v>789.97</v>
@@ -1318,12 +1318,12 @@
         <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" hidden="1">
       <c r="A8" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" s="12">
         <v>769.92</v>
@@ -1334,30 +1334,28 @@
         <v>0</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" hidden="1">
       <c r="A9" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="12">
         <v>896.23500000000001</v>
       </c>
-      <c r="C9" s="11">
-        <v>80</v>
-      </c>
+      <c r="C9" s="11"/>
       <c r="D9" s="13">
         <f>C9*B9</f>
-        <v>71698.8</v>
+        <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" hidden="1">
       <c r="A10" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="12">
         <v>901.24749999999995</v>
@@ -1368,12 +1366,12 @@
         <v>0</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" hidden="1">
       <c r="A11" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="12">
         <v>858.14</v>
@@ -1384,12 +1382,12 @@
         <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" hidden="1">
       <c r="A12" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="12">
         <v>946.36</v>
@@ -1400,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" hidden="1">
@@ -1419,7 +1417,7 @@
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A14" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B14" s="15">
         <v>1159.8900000000001</v>
@@ -1430,12 +1428,12 @@
         <v>0</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" hidden="1">
       <c r="A15" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="12">
         <v>887.21</v>
@@ -1446,12 +1444,12 @@
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:5" hidden="1">
       <c r="A16" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="12">
         <v>868.17</v>
@@ -1478,7 +1476,7 @@
     </row>
     <row r="18" spans="1:5" ht="15" hidden="1">
       <c r="A18" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" s="12">
         <v>1140.8499999999999</v>
@@ -1489,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" hidden="1">
@@ -1505,12 +1503,12 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A20" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="15">
         <v>985.46</v>
@@ -1549,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" hidden="1">
@@ -1565,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" hidden="1">
@@ -1595,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" hidden="1">
@@ -1614,7 +1612,7 @@
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A27" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B27" s="15">
         <v>936.34</v>
@@ -1625,12 +1623,12 @@
         <v>0</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A28" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="15">
         <v>5607.99</v>
@@ -1641,12 +1639,12 @@
         <v>0</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" hidden="1">
       <c r="A29" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" s="12">
         <v>955.38</v>
@@ -1660,7 +1658,7 @@
     </row>
     <row r="30" spans="1:5" ht="15" hidden="1">
       <c r="A30" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B30" s="12">
         <v>1014.53</v>
@@ -1686,20 +1684,22 @@
       </c>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A32" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" s="15">
         <v>1159.8900000000001</v>
       </c>
-      <c r="C32" s="11"/>
+      <c r="C32" s="11">
+        <v>20</v>
+      </c>
       <c r="D32" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23197.800000000003</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" hidden="1">
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" hidden="1">
@@ -1801,12 +1801,12 @@
         <v>0</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" hidden="1">
       <c r="A40" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40" s="12">
         <v>2788.96</v>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" hidden="1">
@@ -1833,43 +1833,39 @@
         <v>0</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" hidden="1">
       <c r="A42" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B42" s="12">
         <v>6397.96</v>
       </c>
-      <c r="C42" s="11">
-        <v>7</v>
-      </c>
+      <c r="C42" s="11"/>
       <c r="D42" s="13">
         <f t="shared" si="0"/>
-        <v>44785.72</v>
+        <v>0</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" hidden="1">
       <c r="A43" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B43" s="12">
         <v>5158.87</v>
       </c>
-      <c r="C43" s="11">
-        <v>20</v>
-      </c>
+      <c r="C43" s="11"/>
       <c r="D43" s="13">
         <f t="shared" si="0"/>
-        <v>103177.4</v>
+        <v>0</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" hidden="1">
@@ -1885,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" hidden="1">
@@ -1915,12 +1911,12 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" hidden="1">
       <c r="A47" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B47" s="12">
         <v>5793.45</v>
@@ -1931,12 +1927,12 @@
         <v>0</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" hidden="1">
       <c r="A48" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" s="12">
         <v>7714.24</v>
@@ -1947,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" hidden="1">
@@ -1963,30 +1959,28 @@
         <v>0</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" hidden="1">
       <c r="A50" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B50" s="12">
         <v>6369.89</v>
       </c>
-      <c r="C50" s="11">
-        <v>15</v>
-      </c>
+      <c r="C50" s="11"/>
       <c r="D50" s="13">
         <f t="shared" si="0"/>
-        <v>95548.35</v>
+        <v>0</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1">
       <c r="A51" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B51" s="12">
         <v>8877.14</v>
@@ -1997,12 +1991,12 @@
         <v>0</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" hidden="1">
       <c r="A52" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B52" s="12">
         <v>8573.3799999999992</v>
@@ -2013,12 +2007,12 @@
         <v>0</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" hidden="1">
       <c r="A53" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B53" s="12">
         <v>8967.36</v>
@@ -2029,12 +2023,12 @@
         <v>0</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" hidden="1">
       <c r="A54" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B54" s="12">
         <v>9012.48</v>
@@ -2045,12 +2039,12 @@
         <v>0</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" hidden="1">
       <c r="A55" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B55" s="12">
         <v>1199.9925000000001</v>
@@ -2064,7 +2058,7 @@
     </row>
     <row r="56" spans="1:5" ht="15" hidden="1">
       <c r="A56" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B56" s="31">
         <v>7309.2275</v>
@@ -2075,12 +2069,12 @@
         <v>0</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" hidden="1">
       <c r="A57" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B57" s="12">
         <v>1423.55</v>
@@ -2094,7 +2088,7 @@
     </row>
     <row r="58" spans="1:5" ht="15" hidden="1">
       <c r="A58" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B58" s="12">
         <v>1435.58</v>
@@ -2108,7 +2102,7 @@
     </row>
     <row r="59" spans="1:5" ht="15" hidden="1">
       <c r="A59" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B59" s="12">
         <v>1551.87</v>
@@ -2122,7 +2116,7 @@
     </row>
     <row r="60" spans="1:5" ht="15" hidden="1">
       <c r="A60" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B60" s="12">
         <v>1695.2275</v>
@@ -2133,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" hidden="1">
@@ -2152,7 +2146,7 @@
     </row>
     <row r="62" spans="1:5" ht="15" hidden="1">
       <c r="A62" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B62" s="34">
         <v>1169.9175</v>
@@ -2163,30 +2157,28 @@
         <v>0</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" hidden="1">
       <c r="A63" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B63" s="31">
         <v>4973.3999999999996</v>
       </c>
-      <c r="C63" s="11">
-        <v>3</v>
-      </c>
+      <c r="C63" s="11"/>
       <c r="D63" s="13">
         <f t="shared" si="0"/>
-        <v>14920.199999999999</v>
+        <v>0</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" hidden="1">
       <c r="A64" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B64" s="33">
         <v>1053.6275000000001</v>
@@ -2197,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" hidden="1">
@@ -2216,7 +2208,7 @@
     </row>
     <row r="66" spans="1:5" ht="15" hidden="1">
       <c r="A66" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B66" s="12">
         <v>1072.675</v>
@@ -2227,28 +2219,30 @@
         <v>0</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15" hidden="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15">
       <c r="A67" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B67" s="12">
         <v>1024.56</v>
       </c>
-      <c r="C67" s="11"/>
+      <c r="C67" s="11">
+        <v>40</v>
+      </c>
       <c r="D67" s="13">
         <f>B67*C67</f>
-        <v>0</v>
+        <v>40982.399999999994</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15">
       <c r="A68" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B68" s="12">
         <v>1077.6875</v>
@@ -2261,12 +2255,12 @@
         <v>21553.75</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" hidden="1">
       <c r="A69" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B69" s="31">
         <v>4165.3874999999998</v>
@@ -2277,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" hidden="1">
@@ -2296,7 +2290,7 @@
     </row>
     <row r="71" spans="1:5" ht="15" hidden="1">
       <c r="A71" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B71" s="12">
         <v>1014.53</v>
@@ -2307,26 +2301,30 @@
         <v>0</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15" hidden="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15">
       <c r="A72" s="11" t="s">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="B72" s="12">
-        <v>1273.175</v>
-      </c>
-      <c r="C72" s="11"/>
+        <v>1092.7249999999999</v>
+      </c>
+      <c r="C72" s="11">
+        <v>40</v>
+      </c>
       <c r="D72" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="11"/>
+        <v>43709</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="73" spans="1:5" ht="15" hidden="1">
       <c r="A73" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B73" s="12">
         <v>1077.6875</v>
@@ -2337,12 +2335,12 @@
         <v>0</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" hidden="1">
       <c r="A74" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B74" s="12">
         <v>1101.75</v>
@@ -2356,7 +2354,7 @@
     </row>
     <row r="75" spans="1:5" ht="15" hidden="1">
       <c r="A75" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B75" s="12">
         <v>1072.675</v>
@@ -2367,12 +2365,12 @@
         <v>0</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" hidden="1">
       <c r="A76" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B76" s="12">
         <v>1297.2349999999999</v>
@@ -2383,12 +2381,12 @@
         <v>0</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" hidden="1">
       <c r="A77" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B77" s="12">
         <v>1189.9675</v>
@@ -2399,12 +2397,12 @@
         <v>0</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" hidden="1">
       <c r="A78" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B78" s="12">
         <v>8150.3249999999998</v>
@@ -2418,7 +2416,7 @@
     </row>
     <row r="79" spans="1:5" ht="15" hidden="1">
       <c r="A79" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B79" s="12">
         <v>9067.6124999999993</v>
@@ -2432,7 +2430,7 @@
     </row>
     <row r="80" spans="1:5" ht="15" hidden="1">
       <c r="A80" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B80" s="12">
         <v>8565.36</v>
@@ -2443,12 +2441,12 @@
         <v>0</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15" hidden="1">
       <c r="A81" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B81" s="12">
         <v>11854.5625</v>
@@ -2462,7 +2460,7 @@
     </row>
     <row r="82" spans="1:5" ht="15" hidden="1">
       <c r="A82" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B82" s="12">
         <v>10616.475</v>
@@ -2473,12 +2471,12 @@
         <v>0</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" hidden="1">
       <c r="A83" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B83" s="12">
         <v>12215.4625</v>
@@ -2489,12 +2487,12 @@
         <v>0</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" hidden="1">
       <c r="A84" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="12">
         <v>12691.65</v>
@@ -2505,12 +2503,12 @@
         <v>0</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" hidden="1">
       <c r="A85" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B85" s="12">
         <v>9097.6875</v>
@@ -2521,12 +2519,12 @@
         <v>0</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15" hidden="1">
       <c r="A86" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B86" s="12">
         <v>10285.65</v>
@@ -2537,12 +2535,12 @@
         <v>0</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15" hidden="1">
       <c r="A87" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B87" s="12">
         <v>6342.8175000000001</v>
@@ -2553,12 +2551,12 @@
         <v>0</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" hidden="1">
       <c r="A88" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B88" s="12">
         <v>5607.98</v>
@@ -2569,12 +2567,12 @@
         <v>0</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15" hidden="1">
       <c r="A89" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B89" s="12">
         <v>17443.5</v>
@@ -2588,7 +2586,7 @@
     </row>
     <row r="90" spans="1:5" ht="15" hidden="1">
       <c r="A90" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B90" s="12">
         <v>13914.7</v>
@@ -2602,7 +2600,7 @@
     </row>
     <row r="91" spans="1:5" ht="15" hidden="1">
       <c r="A91" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B91" s="12">
         <v>10133.27</v>
@@ -2616,7 +2614,7 @@
     </row>
     <row r="92" spans="1:5" ht="15" hidden="1">
       <c r="A92" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B92" s="12">
         <v>23704.11</v>
@@ -2630,7 +2628,7 @@
     </row>
     <row r="93" spans="1:5" ht="15" hidden="1">
       <c r="A93" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B93" s="12">
         <v>1371.42</v>
@@ -2641,12 +2639,12 @@
         <v>0</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15" hidden="1">
       <c r="A94" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B94" s="12">
         <v>1410.5174999999999</v>
@@ -2660,7 +2658,7 @@
     </row>
     <row r="95" spans="1:5" ht="15" hidden="1">
       <c r="A95" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B95" s="12">
         <v>1694.2249999999999</v>
@@ -2671,12 +2669,12 @@
         <v>0</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15" hidden="1">
       <c r="A96" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B96" s="17">
         <v>1219.04</v>
@@ -2687,12 +2685,12 @@
         <v>0</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" hidden="1">
       <c r="A97" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B97" s="18">
         <v>1336.33</v>
@@ -2703,12 +2701,12 @@
         <v>0</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15" hidden="1">
       <c r="A98" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B98" s="12">
         <v>1871.6675</v>
@@ -2722,7 +2720,7 @@
     </row>
     <row r="99" spans="1:5" ht="15" hidden="1">
       <c r="A99" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B99" s="12">
         <v>1854.625</v>
@@ -2736,7 +2734,7 @@
     </row>
     <row r="100" spans="1:5" ht="15" hidden="1">
       <c r="A100" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B100" s="12">
         <v>1446.6075000000001</v>
@@ -2750,7 +2748,7 @@
     </row>
     <row r="101" spans="1:5" ht="15" hidden="1">
       <c r="A101" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B101" s="12">
         <v>7586.92</v>
@@ -2761,12 +2759,12 @@
         <v>0</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" hidden="1">
       <c r="A102" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B102" s="12">
         <v>8641.5499999999993</v>
@@ -2777,12 +2775,12 @@
         <v>0</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15" hidden="1">
       <c r="A103" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B103" s="12">
         <v>5183.9274999999998</v>
@@ -2793,12 +2791,12 @@
         <v>0</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" hidden="1">
       <c r="A104" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B104" s="12">
         <v>5455.6049999999996</v>
@@ -2809,12 +2807,12 @@
         <v>0</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15">
       <c r="A105" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B105" s="12">
         <v>4526.2875000000004</v>
@@ -2827,12 +2825,12 @@
         <v>13578.862500000001</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15" hidden="1">
       <c r="A106" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B106" s="12">
         <v>5510.74</v>
@@ -2843,30 +2841,30 @@
         <v>0</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15">
       <c r="A107" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B107" s="12">
         <v>4896.21</v>
       </c>
       <c r="C107" s="11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D107" s="13">
         <f t="shared" si="3"/>
-        <v>48962.1</v>
+        <v>14688.630000000001</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15" hidden="1">
       <c r="A108" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B108" s="12">
         <v>5150.8500000000004</v>
@@ -2877,12 +2875,12 @@
         <v>0</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15" hidden="1">
       <c r="A109" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B109" s="12">
         <v>4973.3999999999996</v>
@@ -2893,12 +2891,12 @@
         <v>0</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" hidden="1">
       <c r="A110" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B110" s="12">
         <v>5423.53</v>
@@ -2909,12 +2907,12 @@
         <v>0</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" hidden="1">
       <c r="A111" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B111" s="12">
         <v>5940.82</v>
@@ -2925,30 +2923,28 @@
         <v>0</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15" hidden="1">
       <c r="A112" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B112" s="12">
         <v>5257.11</v>
       </c>
-      <c r="C112" s="11">
-        <v>10</v>
-      </c>
+      <c r="C112" s="11"/>
       <c r="D112" s="13">
         <f>C112*B112</f>
-        <v>52571.1</v>
+        <v>0</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15" hidden="1">
       <c r="A113" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B113" s="12">
         <v>2900.2325000000001</v>
@@ -2959,12 +2955,12 @@
         <v>0</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15" hidden="1">
       <c r="A114" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B114" s="12">
         <v>3143.84</v>
@@ -2975,12 +2971,12 @@
         <v>0</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15" hidden="1">
       <c r="A115" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B115" s="12">
         <v>3518.7750000000001</v>
@@ -2994,7 +2990,7 @@
     </row>
     <row r="116" spans="1:5" ht="15" hidden="1">
       <c r="A116" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B116" s="12">
         <v>3556.87</v>
@@ -3005,12 +3001,12 @@
         <v>0</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15" hidden="1">
       <c r="A117" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B117" s="12">
         <v>3471.66</v>
@@ -3021,12 +3017,12 @@
         <v>0</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" hidden="1">
       <c r="A118" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B118" s="12">
         <v>3919.7750000000001</v>
@@ -3037,12 +3033,12 @@
         <v>0</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" hidden="1">
       <c r="A119" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B119" s="12">
         <v>4534.3074999999999</v>
@@ -3053,28 +3049,30 @@
         <v>0</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="15" hidden="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15">
       <c r="A120" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B120" s="12">
         <v>3433.56</v>
       </c>
-      <c r="C120" s="11"/>
+      <c r="C120" s="11">
+        <v>3</v>
+      </c>
       <c r="D120" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10300.68</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" hidden="1">
       <c r="A121" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B121" s="12">
         <v>4476.1625000000004</v>
@@ -3086,27 +3084,25 @@
       </c>
       <c r="E121" s="11"/>
     </row>
-    <row r="122" spans="1:5" ht="15">
+    <row r="122" spans="1:5" ht="15" hidden="1">
       <c r="A122" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B122" s="12">
         <v>4389.95</v>
       </c>
-      <c r="C122" s="11">
-        <v>5</v>
-      </c>
+      <c r="C122" s="11"/>
       <c r="D122" s="13">
         <f t="shared" si="3"/>
-        <v>21949.75</v>
+        <v>0</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15" hidden="1">
       <c r="A123" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B123" s="12">
         <v>5269.14</v>
@@ -3117,12 +3113,12 @@
         <v>0</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" hidden="1">
       <c r="A124" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B124" s="12">
         <v>5921.7674999999999</v>
@@ -3133,12 +3129,12 @@
         <v>0</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="12" hidden="1" customHeight="1">
       <c r="A125" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B125" s="12">
         <v>1170.92</v>
@@ -3149,12 +3145,12 @@
         <v>0</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15" hidden="1">
       <c r="A126" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B126" s="12">
         <v>3934.8125</v>
@@ -3165,12 +3161,12 @@
         <v>0</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" hidden="1">
       <c r="A127" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B127" s="12">
         <v>4027.0425</v>
@@ -3181,28 +3177,30 @@
         <v>0</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="15" hidden="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15">
       <c r="A128" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B128" s="12">
         <v>3892.71</v>
       </c>
-      <c r="C128" s="11"/>
+      <c r="C128" s="11">
+        <v>3</v>
+      </c>
       <c r="D128" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11678.130000000001</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15" hidden="1">
       <c r="A129" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B129" s="12">
         <v>4507.24</v>
@@ -3213,12 +3211,12 @@
         <v>0</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15" hidden="1">
       <c r="A130" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B130" s="12">
         <v>4409</v>
@@ -3229,12 +3227,12 @@
         <v>0</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15" hidden="1">
       <c r="A131" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B131" s="12">
         <v>4165.3900000000003</v>
@@ -3245,30 +3243,30 @@
         <v>0</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15">
       <c r="A132" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B132" s="12">
         <v>4115.26</v>
       </c>
       <c r="C132" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D132" s="13">
         <f t="shared" si="3"/>
-        <v>16461.04</v>
+        <v>20576.300000000003</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15" hidden="1">
       <c r="A133" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B133" s="12">
         <v>8599.4500000000007</v>
@@ -3279,12 +3277,12 @@
         <v>0</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15" hidden="1">
       <c r="A134" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B134" s="12">
         <v>12310.7</v>
@@ -3295,21 +3293,21 @@
         <v>0</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="135" spans="1:9" s="2" customFormat="1" ht="15">
       <c r="A135" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B135" s="41"/>
       <c r="C135" s="19">
         <f>SUM(C5:C134)</f>
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="D135" s="20">
         <f>SUBTOTAL(9,D5:D134)</f>
-        <v>505207.07249999995</v>
+        <v>200265.55249999999</v>
       </c>
       <c r="E135" s="19"/>
     </row>
@@ -3319,7 +3317,7 @@
     <row r="137" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A137" s="21"/>
       <c r="B137" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C137" s="42"/>
       <c r="D137" s="42"/>
@@ -3328,13 +3326,13 @@
     <row r="138" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A138" s="23"/>
       <c r="B138" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C138" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C138" s="24" t="s">
-        <v>68</v>
-      </c>
       <c r="D138" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E138" s="22"/>
       <c r="I138" s="25"/>
@@ -3342,7 +3340,7 @@
     <row r="139" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A139" s="26"/>
       <c r="B139" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C139" s="27">
         <v>0</v>
@@ -3353,10 +3351,10 @@
     <row r="140" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A140" s="26"/>
       <c r="B140" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C140" s="32">
-        <v>225000</v>
+        <v>700000</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="22"/>
@@ -3364,7 +3362,7 @@
     <row r="141" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A141" s="26"/>
       <c r="B141" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C141" s="27">
         <v>0</v>
@@ -3375,7 +3373,7 @@
     <row r="142" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A142" s="26"/>
       <c r="B142" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C142" s="27"/>
       <c r="D142" s="11"/>
@@ -3384,7 +3382,7 @@
     <row r="143" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A143" s="26"/>
       <c r="B143" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C143" s="27">
         <v>0</v>
@@ -3395,7 +3393,7 @@
     <row r="144" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A144" s="26"/>
       <c r="B144" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C144" s="27">
         <v>0</v>
@@ -3406,11 +3404,11 @@
     <row r="145" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A145" s="23"/>
       <c r="B145" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C145" s="29">
         <f>SUM(C139:C144)</f>
-        <v>225000</v>
+        <v>700000</v>
       </c>
       <c r="D145" s="30"/>
       <c r="E145" s="22"/>

--- a/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -544,10 +544,10 @@
     <t xml:space="preserve">Gold &amp; Black </t>
   </si>
   <si>
-    <t>09.06.19</t>
-  </si>
-  <si>
     <t>L25i</t>
+  </si>
+  <si>
+    <t>10.06.19</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1210,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F142" sqref="F142"/>
+      <selection pane="bottomRight" activeCell="E146" sqref="E145:E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1255,7 +1255,7 @@
         <v>74</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1684,19 +1684,17 @@
       </c>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A32" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B32" s="15">
         <v>1159.8900000000001</v>
       </c>
-      <c r="C32" s="11">
-        <v>20</v>
-      </c>
+      <c r="C32" s="11"/>
       <c r="D32" s="16">
         <f t="shared" si="0"/>
-        <v>23197.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>82</v>
@@ -2144,17 +2142,19 @@
       </c>
       <c r="E61" s="11"/>
     </row>
-    <row r="62" spans="1:5" ht="15" hidden="1">
+    <row r="62" spans="1:5" ht="15">
       <c r="A62" s="11" t="s">
         <v>148</v>
       </c>
       <c r="B62" s="34">
         <v>1169.9175</v>
       </c>
-      <c r="C62" s="11"/>
+      <c r="C62" s="11">
+        <v>30</v>
+      </c>
       <c r="D62" s="13">
         <f>B62*C62</f>
-        <v>0</v>
+        <v>35097.525000000001</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>133</v>
@@ -2222,37 +2222,33 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15">
+    <row r="67" spans="1:5" ht="15" hidden="1">
       <c r="A67" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B67" s="12">
         <v>1024.56</v>
       </c>
-      <c r="C67" s="11">
-        <v>40</v>
-      </c>
+      <c r="C67" s="11"/>
       <c r="D67" s="13">
         <f>B67*C67</f>
-        <v>40982.399999999994</v>
+        <v>0</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15">
+    <row r="68" spans="1:5" ht="15" hidden="1">
       <c r="A68" s="11" t="s">
         <v>169</v>
       </c>
       <c r="B68" s="12">
         <v>1077.6875</v>
       </c>
-      <c r="C68" s="11">
-        <v>20</v>
-      </c>
+      <c r="C68" s="11"/>
       <c r="D68" s="13">
         <f t="shared" si="0"/>
-        <v>21553.75</v>
+        <v>0</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>82</v>
@@ -2304,19 +2300,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15">
+    <row r="72" spans="1:5" ht="15" hidden="1">
       <c r="A72" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B72" s="12">
         <v>1092.7249999999999</v>
       </c>
-      <c r="C72" s="11">
-        <v>40</v>
-      </c>
+      <c r="C72" s="11"/>
       <c r="D72" s="13">
         <f t="shared" si="0"/>
-        <v>43709</v>
+        <v>0</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>163</v>
@@ -2810,19 +2804,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15">
+    <row r="105" spans="1:5" ht="15" hidden="1">
       <c r="A105" s="11" t="s">
         <v>153</v>
       </c>
       <c r="B105" s="12">
         <v>4526.2875000000004</v>
       </c>
-      <c r="C105" s="11">
-        <v>3</v>
-      </c>
+      <c r="C105" s="11"/>
       <c r="D105" s="13">
         <f>C105*B105</f>
-        <v>13578.862500000001</v>
+        <v>0</v>
       </c>
       <c r="E105" s="11" t="s">
         <v>133</v>
@@ -2844,19 +2836,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15">
+    <row r="107" spans="1:5" ht="15" hidden="1">
       <c r="A107" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B107" s="12">
         <v>4896.21</v>
       </c>
-      <c r="C107" s="11">
-        <v>3</v>
-      </c>
+      <c r="C107" s="11"/>
       <c r="D107" s="13">
         <f t="shared" si="3"/>
-        <v>14688.630000000001</v>
+        <v>0</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>77</v>
@@ -3052,19 +3042,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15">
+    <row r="120" spans="1:5" ht="15" hidden="1">
       <c r="A120" s="11" t="s">
         <v>123</v>
       </c>
       <c r="B120" s="12">
         <v>3433.56</v>
       </c>
-      <c r="C120" s="11">
-        <v>3</v>
-      </c>
+      <c r="C120" s="11"/>
       <c r="D120" s="13">
         <f t="shared" si="3"/>
-        <v>10300.68</v>
+        <v>0</v>
       </c>
       <c r="E120" s="11" t="s">
         <v>130</v>
@@ -3180,19 +3168,17 @@
         <v>141</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15">
+    <row r="128" spans="1:5" ht="15" hidden="1">
       <c r="A128" s="11" t="s">
         <v>117</v>
       </c>
       <c r="B128" s="12">
         <v>3892.71</v>
       </c>
-      <c r="C128" s="11">
-        <v>3</v>
-      </c>
+      <c r="C128" s="11"/>
       <c r="D128" s="13">
         <f t="shared" si="3"/>
-        <v>11678.130000000001</v>
+        <v>0</v>
       </c>
       <c r="E128" s="11" t="s">
         <v>77</v>
@@ -3246,19 +3232,17 @@
         <v>133</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15" hidden="1">
       <c r="A132" s="11" t="s">
         <v>111</v>
       </c>
       <c r="B132" s="12">
         <v>4115.26</v>
       </c>
-      <c r="C132" s="11">
-        <v>5</v>
-      </c>
+      <c r="C132" s="11"/>
       <c r="D132" s="13">
         <f t="shared" si="3"/>
-        <v>20576.300000000003</v>
+        <v>0</v>
       </c>
       <c r="E132" s="11" t="s">
         <v>77</v>
@@ -3303,11 +3287,11 @@
       <c r="B135" s="41"/>
       <c r="C135" s="19">
         <f>SUM(C5:C134)</f>
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="D135" s="20">
         <f>SUBTOTAL(9,D5:D134)</f>
-        <v>200265.55249999999</v>
+        <v>35097.525000000001</v>
       </c>
       <c r="E135" s="19"/>
     </row>
@@ -3354,7 +3338,7 @@
         <v>69</v>
       </c>
       <c r="C140" s="32">
-        <v>700000</v>
+        <v>500000</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="22"/>
@@ -3408,7 +3392,7 @@
       </c>
       <c r="C145" s="29">
         <f>SUM(C139:C144)</f>
-        <v>700000</v>
+        <v>500000</v>
       </c>
       <c r="D145" s="30"/>
       <c r="E145" s="22"/>

--- a/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -1210,7 +1210,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E146" sqref="E145:E146"/>
+      <selection pane="bottomRight" activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -2142,19 +2142,17 @@
       </c>
       <c r="E61" s="11"/>
     </row>
-    <row r="62" spans="1:5" ht="15">
+    <row r="62" spans="1:5" ht="15" hidden="1">
       <c r="A62" s="11" t="s">
         <v>148</v>
       </c>
       <c r="B62" s="34">
         <v>1169.9175</v>
       </c>
-      <c r="C62" s="11">
-        <v>30</v>
-      </c>
+      <c r="C62" s="11"/>
       <c r="D62" s="13">
         <f>B62*C62</f>
-        <v>35097.525000000001</v>
+        <v>0</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>133</v>
@@ -2176,17 +2174,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" hidden="1">
+    <row r="64" spans="1:5" ht="15">
       <c r="A64" s="11" t="s">
         <v>145</v>
       </c>
       <c r="B64" s="33">
         <v>1053.6275000000001</v>
       </c>
-      <c r="C64" s="11"/>
+      <c r="C64" s="11">
+        <v>20</v>
+      </c>
       <c r="D64" s="13">
         <f>B64*C64</f>
-        <v>0</v>
+        <v>21072.550000000003</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>139</v>
@@ -2238,17 +2238,19 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" hidden="1">
+    <row r="68" spans="1:5" ht="15">
       <c r="A68" s="11" t="s">
         <v>169</v>
       </c>
       <c r="B68" s="12">
         <v>1077.6875</v>
       </c>
-      <c r="C68" s="11"/>
+      <c r="C68" s="11">
+        <v>20</v>
+      </c>
       <c r="D68" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21553.75</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>82</v>
@@ -2300,17 +2302,19 @@
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15" hidden="1">
+    <row r="72" spans="1:5" ht="15">
       <c r="A72" s="11" t="s">
         <v>175</v>
       </c>
       <c r="B72" s="12">
         <v>1092.7249999999999</v>
       </c>
-      <c r="C72" s="11"/>
+      <c r="C72" s="11">
+        <v>40</v>
+      </c>
       <c r="D72" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43709</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>163</v>
@@ -3287,11 +3291,11 @@
       <c r="B135" s="41"/>
       <c r="C135" s="19">
         <f>SUM(C5:C134)</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D135" s="20">
         <f>SUBTOTAL(9,D5:D134)</f>
-        <v>35097.525000000001</v>
+        <v>86335.3</v>
       </c>
       <c r="E135" s="19"/>
     </row>
@@ -3338,7 +3342,7 @@
         <v>69</v>
       </c>
       <c r="C140" s="32">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="22"/>
@@ -3392,7 +3396,7 @@
       </c>
       <c r="C145" s="29">
         <f>SUM(C139:C144)</f>
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="D145" s="30"/>
       <c r="E145" s="22"/>

--- a/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="179">
   <si>
     <t>Model Name</t>
   </si>
@@ -547,7 +547,13 @@
     <t>L25i</t>
   </si>
   <si>
-    <t>10.06.19</t>
+    <t>12.06.19</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black=30 &amp; Blue=10</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1216,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F141" sqref="F141"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1321,36 +1327,40 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" hidden="1">
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="11" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="12">
         <v>769.92</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="11">
+        <v>40</v>
+      </c>
       <c r="D8" s="13">
         <f>B8*C8</f>
-        <v>0</v>
+        <v>30796.799999999999</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" hidden="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" s="11" t="s">
         <v>150</v>
       </c>
       <c r="B9" s="12">
         <v>896.23500000000001</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="11">
+        <v>40</v>
+      </c>
       <c r="D9" s="13">
         <f>C9*B9</f>
-        <v>0</v>
+        <v>35849.4</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>82</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" hidden="1">
@@ -2174,19 +2184,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15">
+    <row r="64" spans="1:5" ht="15" hidden="1">
       <c r="A64" s="11" t="s">
         <v>145</v>
       </c>
       <c r="B64" s="33">
         <v>1053.6275000000001</v>
       </c>
-      <c r="C64" s="11">
-        <v>20</v>
-      </c>
+      <c r="C64" s="11"/>
       <c r="D64" s="13">
         <f>B64*C64</f>
-        <v>21072.550000000003</v>
+        <v>0</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>139</v>
@@ -2238,19 +2246,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15">
+    <row r="68" spans="1:5" ht="15" hidden="1">
       <c r="A68" s="11" t="s">
         <v>169</v>
       </c>
       <c r="B68" s="12">
         <v>1077.6875</v>
       </c>
-      <c r="C68" s="11">
-        <v>20</v>
-      </c>
+      <c r="C68" s="11"/>
       <c r="D68" s="13">
         <f t="shared" si="0"/>
-        <v>21553.75</v>
+        <v>0</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>82</v>
@@ -2302,19 +2308,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15">
+    <row r="72" spans="1:5" ht="15" hidden="1">
       <c r="A72" s="11" t="s">
         <v>175</v>
       </c>
       <c r="B72" s="12">
         <v>1092.7249999999999</v>
       </c>
-      <c r="C72" s="11">
-        <v>40</v>
-      </c>
+      <c r="C72" s="11"/>
       <c r="D72" s="13">
         <f t="shared" si="0"/>
-        <v>43709</v>
+        <v>0</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>163</v>
@@ -3295,7 +3299,7 @@
       </c>
       <c r="D135" s="20">
         <f>SUBTOTAL(9,D5:D134)</f>
-        <v>86335.3</v>
+        <v>66646.2</v>
       </c>
       <c r="E135" s="19"/>
     </row>
@@ -3342,7 +3346,7 @@
         <v>69</v>
       </c>
       <c r="C140" s="32">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="22"/>
@@ -3396,7 +3400,7 @@
       </c>
       <c r="C145" s="29">
         <f>SUM(C139:C144)</f>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D145" s="30"/>
       <c r="E145" s="22"/>

--- a/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/May/Othes/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="177">
   <si>
     <t>Model Name</t>
   </si>
@@ -535,9 +535,6 @@
     <t>i72</t>
   </si>
   <si>
-    <t>Black_Red &amp; Blue</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Black &amp; Gold</t>
   </si>
   <si>
@@ -547,13 +544,10 @@
     <t>L25i</t>
   </si>
   <si>
-    <t>12.06.19</t>
-  </si>
-  <si>
     <t>White</t>
   </si>
   <si>
-    <t>Black=30 &amp; Blue=10</t>
+    <t>13.06.19</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1210,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1294,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>172</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" hidden="1">
@@ -1335,32 +1329,30 @@
         <v>769.92</v>
       </c>
       <c r="C8" s="11">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D8" s="13">
         <f>B8*C8</f>
-        <v>30796.799999999999</v>
+        <v>76992</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" hidden="1">
       <c r="A9" s="11" t="s">
         <v>150</v>
       </c>
       <c r="B9" s="12">
         <v>896.23500000000001</v>
       </c>
-      <c r="C9" s="11">
-        <v>40</v>
-      </c>
+      <c r="C9" s="11"/>
       <c r="D9" s="13">
         <f>C9*B9</f>
-        <v>35849.4</v>
+        <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" hidden="1">
@@ -1620,20 +1612,22 @@
       </c>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A27" s="14" t="s">
         <v>156</v>
       </c>
       <c r="B27" s="15">
         <v>936.34</v>
       </c>
-      <c r="C27" s="11"/>
+      <c r="C27" s="11">
+        <v>100</v>
+      </c>
       <c r="D27" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>93634</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
@@ -1694,20 +1688,22 @@
       </c>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A32" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B32" s="15">
         <v>1159.8900000000001</v>
       </c>
-      <c r="C32" s="11"/>
+      <c r="C32" s="11">
+        <v>20</v>
+      </c>
       <c r="D32" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23197.800000000003</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" hidden="1">
@@ -1812,17 +1808,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" hidden="1">
+    <row r="40" spans="1:5" ht="15">
       <c r="A40" s="11" t="s">
         <v>116</v>
       </c>
       <c r="B40" s="12">
         <v>2788.96</v>
       </c>
-      <c r="C40" s="11"/>
+      <c r="C40" s="11">
+        <v>5</v>
+      </c>
       <c r="D40" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13944.8</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>141</v>
@@ -1935,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" hidden="1">
@@ -1983,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1">
@@ -2246,17 +2244,19 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" hidden="1">
+    <row r="68" spans="1:5" ht="15">
       <c r="A68" s="11" t="s">
         <v>169</v>
       </c>
       <c r="B68" s="12">
         <v>1077.6875</v>
       </c>
-      <c r="C68" s="11"/>
+      <c r="C68" s="11">
+        <v>20</v>
+      </c>
       <c r="D68" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21553.75</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>82</v>
@@ -2308,17 +2308,19 @@
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15" hidden="1">
+    <row r="72" spans="1:5" ht="15">
       <c r="A72" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B72" s="12">
         <v>1092.7249999999999</v>
       </c>
-      <c r="C72" s="11"/>
+      <c r="C72" s="11">
+        <v>80</v>
+      </c>
       <c r="D72" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>87418</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>163</v>
@@ -2844,20 +2846,22 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15" hidden="1">
+    <row r="107" spans="1:5" ht="15">
       <c r="A107" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B107" s="12">
         <v>4896.21</v>
       </c>
-      <c r="C107" s="11"/>
+      <c r="C107" s="11">
+        <v>3</v>
+      </c>
       <c r="D107" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14688.630000000001</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15" hidden="1">
@@ -3002,20 +3006,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15" hidden="1">
+    <row r="117" spans="1:5" ht="15">
       <c r="A117" s="11" t="s">
         <v>101</v>
       </c>
       <c r="B117" s="12">
         <v>3471.66</v>
       </c>
-      <c r="C117" s="11"/>
+      <c r="C117" s="11">
+        <v>2</v>
+      </c>
       <c r="D117" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6943.32</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" hidden="1">
@@ -3240,17 +3246,19 @@
         <v>133</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15" hidden="1">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="11" t="s">
         <v>111</v>
       </c>
       <c r="B132" s="12">
         <v>4115.26</v>
       </c>
-      <c r="C132" s="11"/>
+      <c r="C132" s="11">
+        <v>7</v>
+      </c>
       <c r="D132" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>28806.82</v>
       </c>
       <c r="E132" s="11" t="s">
         <v>77</v>
@@ -3295,11 +3303,11 @@
       <c r="B135" s="41"/>
       <c r="C135" s="19">
         <f>SUM(C5:C134)</f>
-        <v>80</v>
+        <v>337</v>
       </c>
       <c r="D135" s="20">
         <f>SUBTOTAL(9,D5:D134)</f>
-        <v>66646.2</v>
+        <v>367179.12</v>
       </c>
       <c r="E135" s="19"/>
     </row>
@@ -3346,7 +3354,7 @@
         <v>69</v>
       </c>
       <c r="C140" s="32">
-        <v>40000</v>
+        <v>400000</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="22"/>
@@ -3400,7 +3408,7 @@
       </c>
       <c r="C145" s="29">
         <f>SUM(C139:C144)</f>
-        <v>40000</v>
+        <v>400000</v>
       </c>
       <c r="D145" s="30"/>
       <c r="E145" s="22"/>
